--- a/Lovejoy_data_table_tree_frequency.xlsx
+++ b/Lovejoy_data_table_tree_frequency.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewnz\Documents\Lovejoy data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewnz\Documents\Lovejoy data\Lovejoy-mist-net\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Lovejoy_data_table_tree_frequency.xlsx
+++ b/Lovejoy_data_table_tree_frequency.xlsx
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1103,219 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1129,6 +1342,219 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>2</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1155,6 +1581,219 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1181,6 +1820,219 @@
       <c r="I7">
         <v>5</v>
       </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>3</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>2</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1207,6 +2059,219 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>18</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1233,6 +2298,219 @@
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1259,6 +2537,219 @@
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>4</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1285,6 +2776,219 @@
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1311,6 +3015,219 @@
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <v>11</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>6</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>13</v>
+      </c>
+      <c r="BQ12">
+        <v>16</v>
+      </c>
+      <c r="BR12">
+        <v>6</v>
+      </c>
+      <c r="BS12">
+        <v>13</v>
+      </c>
+      <c r="BT12">
+        <v>1</v>
+      </c>
+      <c r="BU12">
+        <v>4</v>
+      </c>
+      <c r="BV12">
+        <v>14</v>
+      </c>
+      <c r="BW12">
+        <v>11</v>
+      </c>
+      <c r="BX12">
+        <v>2</v>
+      </c>
+      <c r="BY12">
+        <v>9</v>
+      </c>
+      <c r="BZ12">
+        <v>1</v>
+      </c>
+      <c r="CA12">
+        <v>11</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1337,6 +3254,219 @@
       <c r="I13">
         <v>0</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>11</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>2</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>4</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>2</v>
+      </c>
+      <c r="AW13">
+        <v>5</v>
+      </c>
+      <c r="AX13">
+        <v>8</v>
+      </c>
+      <c r="AY13">
+        <v>5</v>
+      </c>
+      <c r="AZ13">
+        <v>4</v>
+      </c>
+      <c r="BA13">
+        <v>5</v>
+      </c>
+      <c r="BB13">
+        <v>3</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>2</v>
+      </c>
+      <c r="BE13">
+        <v>2</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1363,6 +3493,219 @@
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>4</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>2</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>1</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>1</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>1</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1389,6 +3732,219 @@
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>20</v>
+      </c>
+      <c r="AL15">
+        <v>2</v>
+      </c>
+      <c r="AM15">
+        <v>4</v>
+      </c>
+      <c r="AN15">
+        <v>8</v>
+      </c>
+      <c r="AO15">
+        <v>2</v>
+      </c>
+      <c r="AP15">
+        <v>5</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1415,8 +3971,221 @@
       <c r="I16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>10</v>
+      </c>
+      <c r="AL16">
+        <v>6</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>4</v>
+      </c>
+      <c r="AO16">
+        <v>10</v>
+      </c>
+      <c r="AP16">
+        <v>6</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>2</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>34</v>
       </c>
@@ -1441,8 +4210,221 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>10</v>
+      </c>
+      <c r="AL17">
+        <v>14</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>6</v>
+      </c>
+      <c r="AP17">
+        <v>6</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>35</v>
       </c>
@@ -1467,8 +4449,221 @@
       <c r="I18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>8</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>6</v>
+      </c>
+      <c r="AL18">
+        <v>8</v>
+      </c>
+      <c r="AM18">
+        <v>8</v>
+      </c>
+      <c r="AN18">
+        <v>8</v>
+      </c>
+      <c r="AO18">
+        <v>12</v>
+      </c>
+      <c r="AP18">
+        <v>15</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>1</v>
+      </c>
+      <c r="BK18">
+        <v>1</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>0</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>36</v>
       </c>
@@ -1493,8 +4688,221 @@
       <c r="I19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>13</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>11</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>8</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>6</v>
+      </c>
+      <c r="AN19">
+        <v>4</v>
+      </c>
+      <c r="AO19">
+        <v>4</v>
+      </c>
+      <c r="AP19">
+        <v>7</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>37</v>
       </c>
@@ -1519,8 +4927,221 @@
       <c r="I20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>9</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>8</v>
+      </c>
+      <c r="AL20">
+        <v>6</v>
+      </c>
+      <c r="AM20">
+        <v>6</v>
+      </c>
+      <c r="AN20">
+        <v>4</v>
+      </c>
+      <c r="AO20">
+        <v>4</v>
+      </c>
+      <c r="AP20">
+        <v>4</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>38</v>
       </c>
@@ -1545,8 +5166,221 @@
       <c r="I21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>12</v>
+      </c>
+      <c r="AL21">
+        <v>12</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>8</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>5</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>5</v>
+      </c>
+      <c r="BH21">
+        <v>2</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>39</v>
       </c>
@@ -1571,8 +5405,221 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>2</v>
+      </c>
+      <c r="AL22">
+        <v>2</v>
+      </c>
+      <c r="AM22">
+        <v>4</v>
+      </c>
+      <c r="AN22">
+        <v>8</v>
+      </c>
+      <c r="AO22">
+        <v>6</v>
+      </c>
+      <c r="AP22">
+        <v>4</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>1</v>
+      </c>
+      <c r="BM22">
+        <v>3</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1597,8 +5644,221 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>4</v>
+      </c>
+      <c r="AL23">
+        <v>4</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>2</v>
+      </c>
+      <c r="AP23">
+        <v>4</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>41</v>
       </c>
@@ -1623,8 +5883,221 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>2</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>0</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+      <c r="BW24">
+        <v>0</v>
+      </c>
+      <c r="BX24">
+        <v>0</v>
+      </c>
+      <c r="BY24">
+        <v>0</v>
+      </c>
+      <c r="BZ24">
+        <v>0</v>
+      </c>
+      <c r="CA24">
+        <v>0</v>
+      </c>
+      <c r="CB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>42</v>
       </c>
@@ -1649,8 +6122,221 @@
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>10</v>
+      </c>
+      <c r="AL25">
+        <v>6</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>2</v>
+      </c>
+      <c r="AP25">
+        <v>7</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>1</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>1</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>1</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>1</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>0</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25">
+        <v>0</v>
+      </c>
+      <c r="BY25">
+        <v>0</v>
+      </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>43</v>
       </c>
@@ -1675,8 +6361,221 @@
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>8</v>
+      </c>
+      <c r="AN26">
+        <v>4</v>
+      </c>
+      <c r="AO26">
+        <v>10</v>
+      </c>
+      <c r="AP26">
+        <v>4</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>1</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <v>0</v>
+      </c>
+      <c r="BY26">
+        <v>0</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
+      <c r="CB26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>44</v>
       </c>
@@ -1701,8 +6600,221 @@
       <c r="I27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>6</v>
+      </c>
+      <c r="AL27">
+        <v>10</v>
+      </c>
+      <c r="AM27">
+        <v>10</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>4</v>
+      </c>
+      <c r="AP27">
+        <v>4</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27">
+        <v>0</v>
+      </c>
+      <c r="BZ27">
+        <v>0</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>45</v>
       </c>
@@ -1727,8 +6839,221 @@
       <c r="I28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>3</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>2</v>
+      </c>
+      <c r="AL28">
+        <v>6</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>5</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>1</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>1</v>
+      </c>
+      <c r="BA28">
+        <v>1</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28">
+        <v>0</v>
+      </c>
+      <c r="BV28">
+        <v>0</v>
+      </c>
+      <c r="BW28">
+        <v>0</v>
+      </c>
+      <c r="BX28">
+        <v>0</v>
+      </c>
+      <c r="BY28">
+        <v>0</v>
+      </c>
+      <c r="BZ28">
+        <v>0</v>
+      </c>
+      <c r="CA28">
+        <v>0</v>
+      </c>
+      <c r="CB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>46</v>
       </c>
@@ -1753,8 +7078,221 @@
       <c r="I29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>10</v>
+      </c>
+      <c r="AL29">
+        <v>4</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>1</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>1</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>1</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BU29">
+        <v>0</v>
+      </c>
+      <c r="BV29">
+        <v>0</v>
+      </c>
+      <c r="BW29">
+        <v>0</v>
+      </c>
+      <c r="BX29">
+        <v>0</v>
+      </c>
+      <c r="BY29">
+        <v>0</v>
+      </c>
+      <c r="BZ29">
+        <v>0</v>
+      </c>
+      <c r="CA29">
+        <v>0</v>
+      </c>
+      <c r="CB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>47</v>
       </c>
@@ -1779,8 +7317,221 @@
       <c r="I30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>6</v>
+      </c>
+      <c r="AL30">
+        <v>10</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>2</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>1</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>1</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>0</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
+      <c r="BT30">
+        <v>0</v>
+      </c>
+      <c r="BU30">
+        <v>0</v>
+      </c>
+      <c r="BV30">
+        <v>0</v>
+      </c>
+      <c r="BW30">
+        <v>0</v>
+      </c>
+      <c r="BX30">
+        <v>0</v>
+      </c>
+      <c r="BY30">
+        <v>0</v>
+      </c>
+      <c r="BZ30">
+        <v>0</v>
+      </c>
+      <c r="CA30">
+        <v>0</v>
+      </c>
+      <c r="CB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>48</v>
       </c>
@@ -1805,8 +7556,221 @@
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>2</v>
+      </c>
+      <c r="AL31">
+        <v>8</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>6</v>
+      </c>
+      <c r="AO31">
+        <v>8</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>1</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>1</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>1</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>0</v>
+      </c>
+      <c r="BR31">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>0</v>
+      </c>
+      <c r="BT31">
+        <v>0</v>
+      </c>
+      <c r="BU31">
+        <v>0</v>
+      </c>
+      <c r="BV31">
+        <v>0</v>
+      </c>
+      <c r="BW31">
+        <v>0</v>
+      </c>
+      <c r="BX31">
+        <v>0</v>
+      </c>
+      <c r="BY31">
+        <v>0</v>
+      </c>
+      <c r="BZ31">
+        <v>0</v>
+      </c>
+      <c r="CA31">
+        <v>0</v>
+      </c>
+      <c r="CB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>49</v>
       </c>

--- a/Lovejoy_data_table_tree_frequency.xlsx
+++ b/Lovejoy_data_table_tree_frequency.xlsx
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AQ36" workbookViewId="0">
+      <selection activeCell="AR61" sqref="AR61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7774,163 +7774,7183 @@
       <c r="A32">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>62</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>14</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>8</v>
+      </c>
+      <c r="AL32">
+        <v>2</v>
+      </c>
+      <c r="AM32">
+        <v>4</v>
+      </c>
+      <c r="AN32">
+        <v>4</v>
+      </c>
+      <c r="AO32">
+        <v>8</v>
+      </c>
+      <c r="AP32">
+        <v>2</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>1</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>0</v>
+      </c>
+      <c r="BR32">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
+      <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
+        <v>0</v>
+      </c>
+      <c r="BV32">
+        <v>0</v>
+      </c>
+      <c r="BW32">
+        <v>0</v>
+      </c>
+      <c r="BX32">
+        <v>0</v>
+      </c>
+      <c r="BY32">
+        <v>0</v>
+      </c>
+      <c r="BZ32">
+        <v>0</v>
+      </c>
+      <c r="CA32">
+        <v>0</v>
+      </c>
+      <c r="CB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>2</v>
+      </c>
+      <c r="AL33">
+        <v>4</v>
+      </c>
+      <c r="AM33">
+        <v>2</v>
+      </c>
+      <c r="AN33">
+        <v>2</v>
+      </c>
+      <c r="AO33">
+        <v>4</v>
+      </c>
+      <c r="AP33">
+        <v>5</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
+      <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
+        <v>0</v>
+      </c>
+      <c r="BV33">
+        <v>0</v>
+      </c>
+      <c r="BW33">
+        <v>0</v>
+      </c>
+      <c r="BX33">
+        <v>0</v>
+      </c>
+      <c r="BY33">
+        <v>0</v>
+      </c>
+      <c r="BZ33">
+        <v>0</v>
+      </c>
+      <c r="CA33">
+        <v>0</v>
+      </c>
+      <c r="CB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>2</v>
+      </c>
+      <c r="AM34">
+        <v>2</v>
+      </c>
+      <c r="AN34">
+        <v>6</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>1</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>0</v>
+      </c>
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
+      <c r="BT34">
+        <v>0</v>
+      </c>
+      <c r="BU34">
+        <v>0</v>
+      </c>
+      <c r="BV34">
+        <v>0</v>
+      </c>
+      <c r="BW34">
+        <v>0</v>
+      </c>
+      <c r="BX34">
+        <v>0</v>
+      </c>
+      <c r="BY34">
+        <v>0</v>
+      </c>
+      <c r="BZ34">
+        <v>0</v>
+      </c>
+      <c r="CA34">
+        <v>0</v>
+      </c>
+      <c r="CB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>10</v>
+      </c>
+      <c r="AL35">
+        <v>10</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>0</v>
+      </c>
+      <c r="BR35">
+        <v>1</v>
+      </c>
+      <c r="BS35">
+        <v>0</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+      <c r="BU35">
+        <v>0</v>
+      </c>
+      <c r="BV35">
+        <v>0</v>
+      </c>
+      <c r="BW35">
+        <v>0</v>
+      </c>
+      <c r="BX35">
+        <v>0</v>
+      </c>
+      <c r="BY35">
+        <v>0</v>
+      </c>
+      <c r="BZ35">
+        <v>0</v>
+      </c>
+      <c r="CA35">
+        <v>0</v>
+      </c>
+      <c r="CB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>4</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>6</v>
+      </c>
+      <c r="AO36">
+        <v>2</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>1</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>0</v>
+      </c>
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>0</v>
+      </c>
+      <c r="BT36">
+        <v>0</v>
+      </c>
+      <c r="BU36">
+        <v>0</v>
+      </c>
+      <c r="BV36">
+        <v>0</v>
+      </c>
+      <c r="BW36">
+        <v>0</v>
+      </c>
+      <c r="BX36">
+        <v>0</v>
+      </c>
+      <c r="BY36">
+        <v>0</v>
+      </c>
+      <c r="BZ36">
+        <v>0</v>
+      </c>
+      <c r="CA36">
+        <v>0</v>
+      </c>
+      <c r="CB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>2</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>4</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>2</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <v>1</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>0</v>
+      </c>
+      <c r="BR37">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>0</v>
+      </c>
+      <c r="BT37">
+        <v>0</v>
+      </c>
+      <c r="BU37">
+        <v>0</v>
+      </c>
+      <c r="BV37">
+        <v>0</v>
+      </c>
+      <c r="BW37">
+        <v>0</v>
+      </c>
+      <c r="BX37">
+        <v>0</v>
+      </c>
+      <c r="BY37">
+        <v>0</v>
+      </c>
+      <c r="BZ37">
+        <v>0</v>
+      </c>
+      <c r="CA37">
+        <v>0</v>
+      </c>
+      <c r="CB37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <v>12</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>8</v>
+      </c>
+      <c r="AL38">
+        <v>2</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>6</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>0</v>
+      </c>
+      <c r="BT38">
+        <v>0</v>
+      </c>
+      <c r="BU38">
+        <v>0</v>
+      </c>
+      <c r="BV38">
+        <v>0</v>
+      </c>
+      <c r="BW38">
+        <v>0</v>
+      </c>
+      <c r="BX38">
+        <v>0</v>
+      </c>
+      <c r="BY38">
+        <v>0</v>
+      </c>
+      <c r="BZ38">
+        <v>0</v>
+      </c>
+      <c r="CA38">
+        <v>0</v>
+      </c>
+      <c r="CB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>4</v>
+      </c>
+      <c r="AP39">
+        <v>4</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>0</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>0</v>
+      </c>
+      <c r="BR39">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>0</v>
+      </c>
+      <c r="BT39">
+        <v>0</v>
+      </c>
+      <c r="BU39">
+        <v>0</v>
+      </c>
+      <c r="BV39">
+        <v>0</v>
+      </c>
+      <c r="BW39">
+        <v>0</v>
+      </c>
+      <c r="BX39">
+        <v>0</v>
+      </c>
+      <c r="BY39">
+        <v>0</v>
+      </c>
+      <c r="BZ39">
+        <v>0</v>
+      </c>
+      <c r="CA39">
+        <v>0</v>
+      </c>
+      <c r="CB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>4</v>
+      </c>
+      <c r="AN40">
+        <v>4</v>
+      </c>
+      <c r="AO40">
+        <v>4</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <v>0</v>
+      </c>
+      <c r="BR40">
+        <v>0</v>
+      </c>
+      <c r="BS40">
+        <v>0</v>
+      </c>
+      <c r="BT40">
+        <v>0</v>
+      </c>
+      <c r="BU40">
+        <v>0</v>
+      </c>
+      <c r="BV40">
+        <v>0</v>
+      </c>
+      <c r="BW40">
+        <v>0</v>
+      </c>
+      <c r="BX40">
+        <v>0</v>
+      </c>
+      <c r="BY40">
+        <v>0</v>
+      </c>
+      <c r="BZ40">
+        <v>0</v>
+      </c>
+      <c r="CA40">
+        <v>0</v>
+      </c>
+      <c r="CB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>6</v>
+      </c>
+      <c r="AL41">
+        <v>4</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>1</v>
+      </c>
+      <c r="BI41">
+        <v>1</v>
+      </c>
+      <c r="BJ41">
+        <v>1</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>2</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>1</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>0</v>
+      </c>
+      <c r="BR41">
+        <v>0</v>
+      </c>
+      <c r="BS41">
+        <v>0</v>
+      </c>
+      <c r="BT41">
+        <v>0</v>
+      </c>
+      <c r="BU41">
+        <v>0</v>
+      </c>
+      <c r="BV41">
+        <v>0</v>
+      </c>
+      <c r="BW41">
+        <v>0</v>
+      </c>
+      <c r="BX41">
+        <v>0</v>
+      </c>
+      <c r="BY41">
+        <v>0</v>
+      </c>
+      <c r="BZ41">
+        <v>0</v>
+      </c>
+      <c r="CA41">
+        <v>0</v>
+      </c>
+      <c r="CB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>8</v>
+      </c>
+      <c r="M42">
+        <v>8</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>2</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>2</v>
+      </c>
+      <c r="AP42">
+        <v>2</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <v>0</v>
+      </c>
+      <c r="BR42">
+        <v>0</v>
+      </c>
+      <c r="BS42">
+        <v>0</v>
+      </c>
+      <c r="BT42">
+        <v>0</v>
+      </c>
+      <c r="BU42">
+        <v>0</v>
+      </c>
+      <c r="BV42">
+        <v>0</v>
+      </c>
+      <c r="BW42">
+        <v>0</v>
+      </c>
+      <c r="BX42">
+        <v>0</v>
+      </c>
+      <c r="BY42">
+        <v>0</v>
+      </c>
+      <c r="BZ42">
+        <v>0</v>
+      </c>
+      <c r="CA42">
+        <v>0</v>
+      </c>
+      <c r="CB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>1</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
+      <c r="BK43">
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
+      <c r="BQ43">
+        <v>0</v>
+      </c>
+      <c r="BR43">
+        <v>0</v>
+      </c>
+      <c r="BS43">
+        <v>0</v>
+      </c>
+      <c r="BT43">
+        <v>0</v>
+      </c>
+      <c r="BU43">
+        <v>0</v>
+      </c>
+      <c r="BV43">
+        <v>0</v>
+      </c>
+      <c r="BW43">
+        <v>0</v>
+      </c>
+      <c r="BX43">
+        <v>0</v>
+      </c>
+      <c r="BY43">
+        <v>0</v>
+      </c>
+      <c r="BZ43">
+        <v>0</v>
+      </c>
+      <c r="CA43">
+        <v>0</v>
+      </c>
+      <c r="CB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>4</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>4</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>6</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
+      <c r="BQ44">
+        <v>0</v>
+      </c>
+      <c r="BR44">
+        <v>0</v>
+      </c>
+      <c r="BS44">
+        <v>0</v>
+      </c>
+      <c r="BT44">
+        <v>0</v>
+      </c>
+      <c r="BU44">
+        <v>0</v>
+      </c>
+      <c r="BV44">
+        <v>0</v>
+      </c>
+      <c r="BW44">
+        <v>0</v>
+      </c>
+      <c r="BX44">
+        <v>0</v>
+      </c>
+      <c r="BY44">
+        <v>0</v>
+      </c>
+      <c r="BZ44">
+        <v>0</v>
+      </c>
+      <c r="CA44">
+        <v>0</v>
+      </c>
+      <c r="CB44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>4</v>
+      </c>
+      <c r="AL45">
+        <v>4</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>4</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>0</v>
+      </c>
+      <c r="BL45">
+        <v>1</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>0</v>
+      </c>
+      <c r="BP45">
+        <v>0</v>
+      </c>
+      <c r="BQ45">
+        <v>0</v>
+      </c>
+      <c r="BR45">
+        <v>0</v>
+      </c>
+      <c r="BS45">
+        <v>0</v>
+      </c>
+      <c r="BT45">
+        <v>0</v>
+      </c>
+      <c r="BU45">
+        <v>0</v>
+      </c>
+      <c r="BV45">
+        <v>0</v>
+      </c>
+      <c r="BW45">
+        <v>0</v>
+      </c>
+      <c r="BX45">
+        <v>0</v>
+      </c>
+      <c r="BY45">
+        <v>0</v>
+      </c>
+      <c r="BZ45">
+        <v>0</v>
+      </c>
+      <c r="CA45">
+        <v>0</v>
+      </c>
+      <c r="CB45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>4</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>6</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>1</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>0</v>
+      </c>
+      <c r="BR46">
+        <v>0</v>
+      </c>
+      <c r="BS46">
+        <v>0</v>
+      </c>
+      <c r="BT46">
+        <v>0</v>
+      </c>
+      <c r="BU46">
+        <v>0</v>
+      </c>
+      <c r="BV46">
+        <v>0</v>
+      </c>
+      <c r="BW46">
+        <v>0</v>
+      </c>
+      <c r="BX46">
+        <v>0</v>
+      </c>
+      <c r="BY46">
+        <v>0</v>
+      </c>
+      <c r="BZ46">
+        <v>0</v>
+      </c>
+      <c r="CA46">
+        <v>0</v>
+      </c>
+      <c r="CB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>4</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+      <c r="BQ47">
+        <v>0</v>
+      </c>
+      <c r="BR47">
+        <v>0</v>
+      </c>
+      <c r="BS47">
+        <v>0</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>0</v>
+      </c>
+      <c r="BV47">
+        <v>0</v>
+      </c>
+      <c r="BW47">
+        <v>0</v>
+      </c>
+      <c r="BX47">
+        <v>0</v>
+      </c>
+      <c r="BY47">
+        <v>0</v>
+      </c>
+      <c r="BZ47">
+        <v>0</v>
+      </c>
+      <c r="CA47">
+        <v>0</v>
+      </c>
+      <c r="CB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>8</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>4</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
+        <v>0</v>
+      </c>
+      <c r="BR48">
+        <v>0</v>
+      </c>
+      <c r="BS48">
+        <v>0</v>
+      </c>
+      <c r="BT48">
+        <v>0</v>
+      </c>
+      <c r="BU48">
+        <v>0</v>
+      </c>
+      <c r="BV48">
+        <v>0</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BY48">
+        <v>0</v>
+      </c>
+      <c r="BZ48">
+        <v>0</v>
+      </c>
+      <c r="CA48">
+        <v>0</v>
+      </c>
+      <c r="CB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>66</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>6</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>2</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>2</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+      <c r="BQ49">
+        <v>0</v>
+      </c>
+      <c r="BR49">
+        <v>0</v>
+      </c>
+      <c r="BS49">
+        <v>0</v>
+      </c>
+      <c r="BT49">
+        <v>0</v>
+      </c>
+      <c r="BU49">
+        <v>0</v>
+      </c>
+      <c r="BV49">
+        <v>0</v>
+      </c>
+      <c r="BW49">
+        <v>0</v>
+      </c>
+      <c r="BX49">
+        <v>0</v>
+      </c>
+      <c r="BY49">
+        <v>0</v>
+      </c>
+      <c r="BZ49">
+        <v>0</v>
+      </c>
+      <c r="CA49">
+        <v>0</v>
+      </c>
+      <c r="CB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>8</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>3</v>
+      </c>
+      <c r="BG50">
+        <v>2</v>
+      </c>
+      <c r="BH50">
+        <v>8</v>
+      </c>
+      <c r="BI50">
+        <v>3</v>
+      </c>
+      <c r="BJ50">
+        <v>4</v>
+      </c>
+      <c r="BK50">
+        <v>4</v>
+      </c>
+      <c r="BL50">
+        <v>5</v>
+      </c>
+      <c r="BM50">
+        <v>3</v>
+      </c>
+      <c r="BN50">
+        <v>3</v>
+      </c>
+      <c r="BO50">
+        <v>3</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+      <c r="BQ50">
+        <v>0</v>
+      </c>
+      <c r="BR50">
+        <v>0</v>
+      </c>
+      <c r="BS50">
+        <v>0</v>
+      </c>
+      <c r="BT50">
+        <v>0</v>
+      </c>
+      <c r="BU50">
+        <v>0</v>
+      </c>
+      <c r="BV50">
+        <v>0</v>
+      </c>
+      <c r="BW50">
+        <v>0</v>
+      </c>
+      <c r="BX50">
+        <v>0</v>
+      </c>
+      <c r="BY50">
+        <v>0</v>
+      </c>
+      <c r="BZ50">
+        <v>0</v>
+      </c>
+      <c r="CA50">
+        <v>0</v>
+      </c>
+      <c r="CB50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>365</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>24</v>
+      </c>
+      <c r="L51">
+        <v>32</v>
+      </c>
+      <c r="M51">
+        <v>48</v>
+      </c>
+      <c r="N51">
+        <v>19</v>
+      </c>
+      <c r="O51">
+        <v>13</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>19</v>
+      </c>
+      <c r="R51">
+        <v>5</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>9</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>30</v>
+      </c>
+      <c r="Y51">
+        <v>4</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>6</v>
+      </c>
+      <c r="AG51">
+        <v>4</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>14</v>
+      </c>
+      <c r="AL51">
+        <v>6</v>
+      </c>
+      <c r="AM51">
+        <v>6</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>3</v>
+      </c>
+      <c r="AP51">
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>1</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>2</v>
+      </c>
+      <c r="AV51">
+        <v>1</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>6</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>2</v>
+      </c>
+      <c r="BE51">
+        <v>2</v>
+      </c>
+      <c r="BF51">
+        <v>5</v>
+      </c>
+      <c r="BG51">
+        <v>6</v>
+      </c>
+      <c r="BH51">
+        <v>6</v>
+      </c>
+      <c r="BI51">
+        <v>3</v>
+      </c>
+      <c r="BJ51">
+        <v>10</v>
+      </c>
+      <c r="BK51">
+        <v>8</v>
+      </c>
+      <c r="BL51">
+        <v>2</v>
+      </c>
+      <c r="BM51">
+        <v>8</v>
+      </c>
+      <c r="BN51">
+        <v>7</v>
+      </c>
+      <c r="BO51">
+        <v>9</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+      <c r="BQ51">
+        <v>0</v>
+      </c>
+      <c r="BR51">
+        <v>0</v>
+      </c>
+      <c r="BS51">
+        <v>0</v>
+      </c>
+      <c r="BT51">
+        <v>0</v>
+      </c>
+      <c r="BU51">
+        <v>0</v>
+      </c>
+      <c r="BV51">
+        <v>0</v>
+      </c>
+      <c r="BW51">
+        <v>0</v>
+      </c>
+      <c r="BX51">
+        <v>0</v>
+      </c>
+      <c r="BY51">
+        <v>0</v>
+      </c>
+      <c r="BZ51">
+        <v>0</v>
+      </c>
+      <c r="CA51">
+        <v>0</v>
+      </c>
+      <c r="CB51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>4</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>1</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>1</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+      <c r="BQ52">
+        <v>0</v>
+      </c>
+      <c r="BR52">
+        <v>0</v>
+      </c>
+      <c r="BS52">
+        <v>0</v>
+      </c>
+      <c r="BT52">
+        <v>0</v>
+      </c>
+      <c r="BU52">
+        <v>0</v>
+      </c>
+      <c r="BV52">
+        <v>0</v>
+      </c>
+      <c r="BW52">
+        <v>0</v>
+      </c>
+      <c r="BX52">
+        <v>0</v>
+      </c>
+      <c r="BY52">
+        <v>0</v>
+      </c>
+      <c r="BZ52">
+        <v>0</v>
+      </c>
+      <c r="CA52">
+        <v>0</v>
+      </c>
+      <c r="CB52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>2</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+      <c r="BQ53">
+        <v>0</v>
+      </c>
+      <c r="BR53">
+        <v>0</v>
+      </c>
+      <c r="BS53">
+        <v>0</v>
+      </c>
+      <c r="BT53">
+        <v>0</v>
+      </c>
+      <c r="BU53">
+        <v>0</v>
+      </c>
+      <c r="BV53">
+        <v>0</v>
+      </c>
+      <c r="BW53">
+        <v>0</v>
+      </c>
+      <c r="BX53">
+        <v>0</v>
+      </c>
+      <c r="BY53">
+        <v>0</v>
+      </c>
+      <c r="BZ53">
+        <v>0</v>
+      </c>
+      <c r="CA53">
+        <v>0</v>
+      </c>
+      <c r="CB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>2</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>1</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>2</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+      <c r="BQ54">
+        <v>0</v>
+      </c>
+      <c r="BR54">
+        <v>0</v>
+      </c>
+      <c r="BS54">
+        <v>0</v>
+      </c>
+      <c r="BT54">
+        <v>0</v>
+      </c>
+      <c r="BU54">
+        <v>0</v>
+      </c>
+      <c r="BV54">
+        <v>0</v>
+      </c>
+      <c r="BW54">
+        <v>0</v>
+      </c>
+      <c r="BX54">
+        <v>0</v>
+      </c>
+      <c r="BY54">
+        <v>0</v>
+      </c>
+      <c r="BZ54">
+        <v>0</v>
+      </c>
+      <c r="CA54">
+        <v>0</v>
+      </c>
+      <c r="CB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>1</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>1</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+      <c r="BQ55">
+        <v>0</v>
+      </c>
+      <c r="BR55">
+        <v>0</v>
+      </c>
+      <c r="BS55">
+        <v>0</v>
+      </c>
+      <c r="BT55">
+        <v>0</v>
+      </c>
+      <c r="BU55">
+        <v>0</v>
+      </c>
+      <c r="BV55">
+        <v>0</v>
+      </c>
+      <c r="BW55">
+        <v>0</v>
+      </c>
+      <c r="BX55">
+        <v>0</v>
+      </c>
+      <c r="BY55">
+        <v>0</v>
+      </c>
+      <c r="BZ55">
+        <v>0</v>
+      </c>
+      <c r="CA55">
+        <v>0</v>
+      </c>
+      <c r="CB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>73</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>4</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>2</v>
+      </c>
+      <c r="AL56">
+        <v>2</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>1</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+      <c r="BQ56">
+        <v>0</v>
+      </c>
+      <c r="BR56">
+        <v>0</v>
+      </c>
+      <c r="BS56">
+        <v>0</v>
+      </c>
+      <c r="BT56">
+        <v>0</v>
+      </c>
+      <c r="BU56">
+        <v>0</v>
+      </c>
+      <c r="BV56">
+        <v>0</v>
+      </c>
+      <c r="BW56">
+        <v>0</v>
+      </c>
+      <c r="BX56">
+        <v>0</v>
+      </c>
+      <c r="BY56">
+        <v>0</v>
+      </c>
+      <c r="BZ56">
+        <v>0</v>
+      </c>
+      <c r="CA56">
+        <v>0</v>
+      </c>
+      <c r="CB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>74</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>4</v>
+      </c>
+      <c r="AL57">
+        <v>2</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+      <c r="BQ57">
+        <v>0</v>
+      </c>
+      <c r="BR57">
+        <v>0</v>
+      </c>
+      <c r="BS57">
+        <v>0</v>
+      </c>
+      <c r="BT57">
+        <v>0</v>
+      </c>
+      <c r="BU57">
+        <v>0</v>
+      </c>
+      <c r="BV57">
+        <v>0</v>
+      </c>
+      <c r="BW57">
+        <v>0</v>
+      </c>
+      <c r="BX57">
+        <v>0</v>
+      </c>
+      <c r="BY57">
+        <v>0</v>
+      </c>
+      <c r="BZ57">
+        <v>0</v>
+      </c>
+      <c r="CA57">
+        <v>0</v>
+      </c>
+      <c r="CB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>75</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>1</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>1</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+      <c r="BQ58">
+        <v>0</v>
+      </c>
+      <c r="BR58">
+        <v>0</v>
+      </c>
+      <c r="BS58">
+        <v>0</v>
+      </c>
+      <c r="BT58">
+        <v>0</v>
+      </c>
+      <c r="BU58">
+        <v>0</v>
+      </c>
+      <c r="BV58">
+        <v>0</v>
+      </c>
+      <c r="BW58">
+        <v>0</v>
+      </c>
+      <c r="BX58">
+        <v>0</v>
+      </c>
+      <c r="BY58">
+        <v>0</v>
+      </c>
+      <c r="BZ58">
+        <v>0</v>
+      </c>
+      <c r="CA58">
+        <v>0</v>
+      </c>
+      <c r="CB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>2</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>2</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+      <c r="BQ59">
+        <v>0</v>
+      </c>
+      <c r="BR59">
+        <v>0</v>
+      </c>
+      <c r="BS59">
+        <v>0</v>
+      </c>
+      <c r="BT59">
+        <v>0</v>
+      </c>
+      <c r="BU59">
+        <v>0</v>
+      </c>
+      <c r="BV59">
+        <v>0</v>
+      </c>
+      <c r="BW59">
+        <v>0</v>
+      </c>
+      <c r="BX59">
+        <v>0</v>
+      </c>
+      <c r="BY59">
+        <v>0</v>
+      </c>
+      <c r="BZ59">
+        <v>0</v>
+      </c>
+      <c r="CA59">
+        <v>0</v>
+      </c>
+      <c r="CB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>3</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>0</v>
+      </c>
+      <c r="AX60">
+        <v>0</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <v>0</v>
+      </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>0</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <v>0</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <v>0</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
+        <v>0</v>
+      </c>
+      <c r="BQ60">
+        <v>0</v>
+      </c>
+      <c r="BR60">
+        <v>0</v>
+      </c>
+      <c r="BS60">
+        <v>0</v>
+      </c>
+      <c r="BT60">
+        <v>0</v>
+      </c>
+      <c r="BU60">
+        <v>0</v>
+      </c>
+      <c r="BV60">
+        <v>0</v>
+      </c>
+      <c r="BW60">
+        <v>0</v>
+      </c>
+      <c r="BX60">
+        <v>0</v>
+      </c>
+      <c r="BY60">
+        <v>0</v>
+      </c>
+      <c r="BZ60">
+        <v>0</v>
+      </c>
+      <c r="CA60">
+        <v>0</v>
+      </c>
+      <c r="CB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>79</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <v>0</v>
+      </c>
+      <c r="AY61">
+        <v>0</v>
+      </c>
+      <c r="AZ61">
+        <v>0</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>0</v>
+      </c>
+      <c r="BD61">
+        <v>0</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+      <c r="BF61">
+        <v>0</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61">
+        <v>0</v>
+      </c>
+      <c r="BL61">
+        <v>0</v>
+      </c>
+      <c r="BM61">
+        <v>0</v>
+      </c>
+      <c r="BN61">
+        <v>0</v>
+      </c>
+      <c r="BO61">
+        <v>0</v>
+      </c>
+      <c r="BP61">
+        <v>0</v>
+      </c>
+      <c r="BQ61">
+        <v>0</v>
+      </c>
+      <c r="BR61">
+        <v>0</v>
+      </c>
+      <c r="BS61">
+        <v>0</v>
+      </c>
+      <c r="BT61">
+        <v>0</v>
+      </c>
+      <c r="BU61">
+        <v>0</v>
+      </c>
+      <c r="BV61">
+        <v>0</v>
+      </c>
+      <c r="BW61">
+        <v>0</v>
+      </c>
+      <c r="BX61">
+        <v>0</v>
+      </c>
+      <c r="BY61">
+        <v>0</v>
+      </c>
+      <c r="BZ61">
+        <v>0</v>
+      </c>
+      <c r="CA61">
+        <v>0</v>
+      </c>
+      <c r="CB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>83</v>
       </c>

--- a/Lovejoy_data_table_tree_frequency.xlsx
+++ b/Lovejoy_data_table_tree_frequency.xlsx
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ36" workbookViewId="0">
-      <selection activeCell="AR61" sqref="AR61"/>
+    <sheetView tabSelected="1" topLeftCell="BK52" workbookViewId="0">
+      <selection activeCell="CE52" sqref="CE52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14944,173 +14944,7193 @@
       <c r="A62">
         <v>80</v>
       </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>2</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
+        <v>0</v>
+      </c>
+      <c r="AY62">
+        <v>0</v>
+      </c>
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>0</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>1</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>1</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+      <c r="BQ62">
+        <v>0</v>
+      </c>
+      <c r="BR62">
+        <v>0</v>
+      </c>
+      <c r="BS62">
+        <v>0</v>
+      </c>
+      <c r="BT62">
+        <v>0</v>
+      </c>
+      <c r="BU62">
+        <v>0</v>
+      </c>
+      <c r="BV62">
+        <v>0</v>
+      </c>
+      <c r="BW62">
+        <v>0</v>
+      </c>
+      <c r="BX62">
+        <v>0</v>
+      </c>
+      <c r="BY62">
+        <v>0</v>
+      </c>
+      <c r="BZ62">
+        <v>0</v>
+      </c>
+      <c r="CA62">
+        <v>0</v>
+      </c>
+      <c r="CB62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>81</v>
       </c>
+      <c r="C63">
+        <v>66</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>3</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>6</v>
+      </c>
+      <c r="AL63">
+        <v>4</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>3</v>
+      </c>
+      <c r="AT63">
+        <v>2</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>0</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>0</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>1</v>
+      </c>
+      <c r="BG63">
+        <v>6</v>
+      </c>
+      <c r="BH63">
+        <v>4</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>7</v>
+      </c>
+      <c r="BL63">
+        <v>1</v>
+      </c>
+      <c r="BM63">
+        <v>2</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>0</v>
+      </c>
+      <c r="BQ63">
+        <v>0</v>
+      </c>
+      <c r="BR63">
+        <v>0</v>
+      </c>
+      <c r="BS63">
+        <v>0</v>
+      </c>
+      <c r="BT63">
+        <v>0</v>
+      </c>
+      <c r="BU63">
+        <v>0</v>
+      </c>
+      <c r="BV63">
+        <v>0</v>
+      </c>
+      <c r="BW63">
+        <v>0</v>
+      </c>
+      <c r="BX63">
+        <v>0</v>
+      </c>
+      <c r="BY63">
+        <v>0</v>
+      </c>
+      <c r="BZ63">
+        <v>0</v>
+      </c>
+      <c r="CA63">
+        <v>0</v>
+      </c>
+      <c r="CB63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>83</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>2</v>
+      </c>
+      <c r="AP64">
+        <v>2</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>0</v>
+      </c>
+      <c r="BA64">
+        <v>0</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>0</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>0</v>
+      </c>
+      <c r="BL64">
+        <v>0</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
+        <v>0</v>
+      </c>
+      <c r="BQ64">
+        <v>0</v>
+      </c>
+      <c r="BR64">
+        <v>0</v>
+      </c>
+      <c r="BS64">
+        <v>0</v>
+      </c>
+      <c r="BT64">
+        <v>0</v>
+      </c>
+      <c r="BU64">
+        <v>0</v>
+      </c>
+      <c r="BV64">
+        <v>0</v>
+      </c>
+      <c r="BW64">
+        <v>0</v>
+      </c>
+      <c r="BX64">
+        <v>0</v>
+      </c>
+      <c r="BY64">
+        <v>0</v>
+      </c>
+      <c r="BZ64">
+        <v>0</v>
+      </c>
+      <c r="CA64">
+        <v>0</v>
+      </c>
+      <c r="CB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>0</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <v>0</v>
+      </c>
+      <c r="BQ65">
+        <v>0</v>
+      </c>
+      <c r="BR65">
+        <v>0</v>
+      </c>
+      <c r="BS65">
+        <v>0</v>
+      </c>
+      <c r="BT65">
+        <v>0</v>
+      </c>
+      <c r="BU65">
+        <v>0</v>
+      </c>
+      <c r="BV65">
+        <v>0</v>
+      </c>
+      <c r="BW65">
+        <v>0</v>
+      </c>
+      <c r="BX65">
+        <v>0</v>
+      </c>
+      <c r="BY65">
+        <v>0</v>
+      </c>
+      <c r="BZ65">
+        <v>0</v>
+      </c>
+      <c r="CA65">
+        <v>0</v>
+      </c>
+      <c r="CB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>4</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>0</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
+      <c r="BQ66">
+        <v>0</v>
+      </c>
+      <c r="BR66">
+        <v>0</v>
+      </c>
+      <c r="BS66">
+        <v>0</v>
+      </c>
+      <c r="BT66">
+        <v>0</v>
+      </c>
+      <c r="BU66">
+        <v>0</v>
+      </c>
+      <c r="BV66">
+        <v>0</v>
+      </c>
+      <c r="BW66">
+        <v>0</v>
+      </c>
+      <c r="BX66">
+        <v>0</v>
+      </c>
+      <c r="BY66">
+        <v>0</v>
+      </c>
+      <c r="BZ66">
+        <v>0</v>
+      </c>
+      <c r="CA66">
+        <v>0</v>
+      </c>
+      <c r="CB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+      <c r="BQ67">
+        <v>0</v>
+      </c>
+      <c r="BR67">
+        <v>0</v>
+      </c>
+      <c r="BS67">
+        <v>0</v>
+      </c>
+      <c r="BT67">
+        <v>0</v>
+      </c>
+      <c r="BU67">
+        <v>0</v>
+      </c>
+      <c r="BV67">
+        <v>0</v>
+      </c>
+      <c r="BW67">
+        <v>0</v>
+      </c>
+      <c r="BX67">
+        <v>0</v>
+      </c>
+      <c r="BY67">
+        <v>0</v>
+      </c>
+      <c r="BZ67">
+        <v>0</v>
+      </c>
+      <c r="CA67">
+        <v>0</v>
+      </c>
+      <c r="CB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>1</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+      <c r="BQ68">
+        <v>0</v>
+      </c>
+      <c r="BR68">
+        <v>0</v>
+      </c>
+      <c r="BS68">
+        <v>0</v>
+      </c>
+      <c r="BT68">
+        <v>0</v>
+      </c>
+      <c r="BU68">
+        <v>0</v>
+      </c>
+      <c r="BV68">
+        <v>0</v>
+      </c>
+      <c r="BW68">
+        <v>0</v>
+      </c>
+      <c r="BX68">
+        <v>0</v>
+      </c>
+      <c r="BY68">
+        <v>0</v>
+      </c>
+      <c r="BZ68">
+        <v>0</v>
+      </c>
+      <c r="CA68">
+        <v>0</v>
+      </c>
+      <c r="CB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>89</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>2</v>
+      </c>
+      <c r="AL69">
+        <v>2</v>
+      </c>
+      <c r="AM69">
+        <v>2</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>0</v>
+      </c>
+      <c r="BD69">
+        <v>1</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>2</v>
+      </c>
+      <c r="BI69">
+        <v>0</v>
+      </c>
+      <c r="BJ69">
+        <v>0</v>
+      </c>
+      <c r="BK69">
+        <v>0</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
+        <v>0</v>
+      </c>
+      <c r="BQ69">
+        <v>0</v>
+      </c>
+      <c r="BR69">
+        <v>0</v>
+      </c>
+      <c r="BS69">
+        <v>0</v>
+      </c>
+      <c r="BT69">
+        <v>0</v>
+      </c>
+      <c r="BU69">
+        <v>0</v>
+      </c>
+      <c r="BV69">
+        <v>0</v>
+      </c>
+      <c r="BW69">
+        <v>0</v>
+      </c>
+      <c r="BX69">
+        <v>0</v>
+      </c>
+      <c r="BY69">
+        <v>0</v>
+      </c>
+      <c r="BZ69">
+        <v>0</v>
+      </c>
+      <c r="CA69">
+        <v>0</v>
+      </c>
+      <c r="CB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>90</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>0</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>2</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>2</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
+      </c>
+      <c r="BQ70">
+        <v>0</v>
+      </c>
+      <c r="BR70">
+        <v>0</v>
+      </c>
+      <c r="BS70">
+        <v>0</v>
+      </c>
+      <c r="BT70">
+        <v>0</v>
+      </c>
+      <c r="BU70">
+        <v>2</v>
+      </c>
+      <c r="BV70">
+        <v>0</v>
+      </c>
+      <c r="BW70">
+        <v>1</v>
+      </c>
+      <c r="BX70">
+        <v>0</v>
+      </c>
+      <c r="BY70">
+        <v>0</v>
+      </c>
+      <c r="BZ70">
+        <v>0</v>
+      </c>
+      <c r="CA70">
+        <v>0</v>
+      </c>
+      <c r="CB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>31</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>3</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>2</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>2</v>
+      </c>
+      <c r="AL71">
+        <v>2</v>
+      </c>
+      <c r="AM71">
+        <v>4</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>2</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>2</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>1</v>
+      </c>
+      <c r="AZ71">
+        <v>1</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
+      </c>
+      <c r="BD71">
+        <v>3</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>1</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
+      </c>
+      <c r="BQ71">
+        <v>0</v>
+      </c>
+      <c r="BR71">
+        <v>0</v>
+      </c>
+      <c r="BS71">
+        <v>1</v>
+      </c>
+      <c r="BT71">
+        <v>0</v>
+      </c>
+      <c r="BU71">
+        <v>0</v>
+      </c>
+      <c r="BV71">
+        <v>0</v>
+      </c>
+      <c r="BW71">
+        <v>0</v>
+      </c>
+      <c r="BX71">
+        <v>0</v>
+      </c>
+      <c r="BY71">
+        <v>0</v>
+      </c>
+      <c r="BZ71">
+        <v>0</v>
+      </c>
+      <c r="CA71">
+        <v>0</v>
+      </c>
+      <c r="CB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>2</v>
+      </c>
+      <c r="AP72">
+        <v>3</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>0</v>
+      </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72">
+        <v>0</v>
+      </c>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>0</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+      <c r="BQ72">
+        <v>0</v>
+      </c>
+      <c r="BR72">
+        <v>0</v>
+      </c>
+      <c r="BS72">
+        <v>0</v>
+      </c>
+      <c r="BT72">
+        <v>0</v>
+      </c>
+      <c r="BU72">
+        <v>0</v>
+      </c>
+      <c r="BV72">
+        <v>0</v>
+      </c>
+      <c r="BW72">
+        <v>0</v>
+      </c>
+      <c r="BX72">
+        <v>0</v>
+      </c>
+      <c r="BY72">
+        <v>0</v>
+      </c>
+      <c r="BZ72">
+        <v>0</v>
+      </c>
+      <c r="CA72">
+        <v>0</v>
+      </c>
+      <c r="CB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>94</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>0</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>1</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
+      </c>
+      <c r="BQ73">
+        <v>0</v>
+      </c>
+      <c r="BR73">
+        <v>0</v>
+      </c>
+      <c r="BS73">
+        <v>0</v>
+      </c>
+      <c r="BT73">
+        <v>0</v>
+      </c>
+      <c r="BU73">
+        <v>0</v>
+      </c>
+      <c r="BV73">
+        <v>0</v>
+      </c>
+      <c r="BW73">
+        <v>0</v>
+      </c>
+      <c r="BX73">
+        <v>0</v>
+      </c>
+      <c r="BY73">
+        <v>0</v>
+      </c>
+      <c r="BZ73">
+        <v>0</v>
+      </c>
+      <c r="CA73">
+        <v>0</v>
+      </c>
+      <c r="CB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>4</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>4</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>1</v>
+      </c>
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>0</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
+      <c r="BQ74">
+        <v>0</v>
+      </c>
+      <c r="BR74">
+        <v>0</v>
+      </c>
+      <c r="BS74">
+        <v>0</v>
+      </c>
+      <c r="BT74">
+        <v>0</v>
+      </c>
+      <c r="BU74">
+        <v>0</v>
+      </c>
+      <c r="BV74">
+        <v>0</v>
+      </c>
+      <c r="BW74">
+        <v>0</v>
+      </c>
+      <c r="BX74">
+        <v>0</v>
+      </c>
+      <c r="BY74">
+        <v>0</v>
+      </c>
+      <c r="BZ74">
+        <v>0</v>
+      </c>
+      <c r="CA74">
+        <v>0</v>
+      </c>
+      <c r="CB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>96</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>2</v>
+      </c>
+      <c r="AP75">
+        <v>6</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>0</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>0</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>1</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
+        <v>0</v>
+      </c>
+      <c r="BQ75">
+        <v>0</v>
+      </c>
+      <c r="BR75">
+        <v>0</v>
+      </c>
+      <c r="BS75">
+        <v>0</v>
+      </c>
+      <c r="BT75">
+        <v>0</v>
+      </c>
+      <c r="BU75">
+        <v>0</v>
+      </c>
+      <c r="BV75">
+        <v>0</v>
+      </c>
+      <c r="BW75">
+        <v>0</v>
+      </c>
+      <c r="BX75">
+        <v>0</v>
+      </c>
+      <c r="BY75">
+        <v>0</v>
+      </c>
+      <c r="BZ75">
+        <v>0</v>
+      </c>
+      <c r="CA75">
+        <v>0</v>
+      </c>
+      <c r="CB75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>98</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>4</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
+      <c r="AU76">
+        <v>0</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>0</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>0</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
+      </c>
+      <c r="BQ76">
+        <v>0</v>
+      </c>
+      <c r="BR76">
+        <v>0</v>
+      </c>
+      <c r="BS76">
+        <v>0</v>
+      </c>
+      <c r="BT76">
+        <v>0</v>
+      </c>
+      <c r="BU76">
+        <v>0</v>
+      </c>
+      <c r="BV76">
+        <v>0</v>
+      </c>
+      <c r="BW76">
+        <v>0</v>
+      </c>
+      <c r="BX76">
+        <v>0</v>
+      </c>
+      <c r="BY76">
+        <v>0</v>
+      </c>
+      <c r="BZ76">
+        <v>0</v>
+      </c>
+      <c r="CA76">
+        <v>0</v>
+      </c>
+      <c r="CB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>99</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>2</v>
+      </c>
+      <c r="AL77">
+        <v>2</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>4</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>0</v>
+      </c>
+      <c r="AS77">
+        <v>0</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
+        <v>0</v>
+      </c>
+      <c r="AW77">
+        <v>0</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>0</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>1</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
+      <c r="BQ77">
+        <v>0</v>
+      </c>
+      <c r="BR77">
+        <v>0</v>
+      </c>
+      <c r="BS77">
+        <v>0</v>
+      </c>
+      <c r="BT77">
+        <v>0</v>
+      </c>
+      <c r="BU77">
+        <v>0</v>
+      </c>
+      <c r="BV77">
+        <v>0</v>
+      </c>
+      <c r="BW77">
+        <v>0</v>
+      </c>
+      <c r="BX77">
+        <v>0</v>
+      </c>
+      <c r="BY77">
+        <v>0</v>
+      </c>
+      <c r="BZ77">
+        <v>0</v>
+      </c>
+      <c r="CA77">
+        <v>0</v>
+      </c>
+      <c r="CB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>2</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0</v>
+      </c>
+      <c r="AS78">
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <v>0</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>0</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
+      </c>
+      <c r="BQ78">
+        <v>0</v>
+      </c>
+      <c r="BR78">
+        <v>0</v>
+      </c>
+      <c r="BS78">
+        <v>0</v>
+      </c>
+      <c r="BT78">
+        <v>0</v>
+      </c>
+      <c r="BU78">
+        <v>0</v>
+      </c>
+      <c r="BV78">
+        <v>0</v>
+      </c>
+      <c r="BW78">
+        <v>0</v>
+      </c>
+      <c r="BX78">
+        <v>0</v>
+      </c>
+      <c r="BY78">
+        <v>0</v>
+      </c>
+      <c r="BZ78">
+        <v>0</v>
+      </c>
+      <c r="CA78">
+        <v>0</v>
+      </c>
+      <c r="CB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>106</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>0</v>
+      </c>
+      <c r="AS79">
+        <v>0</v>
+      </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>0</v>
+      </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>0</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>2</v>
+      </c>
+      <c r="BG79">
+        <v>1</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>3</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>0</v>
+      </c>
+      <c r="BL79">
+        <v>1</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>2</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
+      </c>
+      <c r="BQ79">
+        <v>0</v>
+      </c>
+      <c r="BR79">
+        <v>0</v>
+      </c>
+      <c r="BS79">
+        <v>0</v>
+      </c>
+      <c r="BT79">
+        <v>0</v>
+      </c>
+      <c r="BU79">
+        <v>0</v>
+      </c>
+      <c r="BV79">
+        <v>0</v>
+      </c>
+      <c r="BW79">
+        <v>0</v>
+      </c>
+      <c r="BX79">
+        <v>0</v>
+      </c>
+      <c r="BY79">
+        <v>0</v>
+      </c>
+      <c r="BZ79">
+        <v>0</v>
+      </c>
+      <c r="CA79">
+        <v>1</v>
+      </c>
+      <c r="CB79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>107</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>13</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>0</v>
+      </c>
+      <c r="AS80">
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
+      <c r="AW80">
+        <v>0</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="AZ80">
+        <v>0</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>0</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>2</v>
+      </c>
+      <c r="BI80">
+        <v>1</v>
+      </c>
+      <c r="BJ80">
+        <v>1</v>
+      </c>
+      <c r="BK80">
+        <v>1</v>
+      </c>
+      <c r="BL80">
+        <v>2</v>
+      </c>
+      <c r="BM80">
+        <v>2</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
+      </c>
+      <c r="BQ80">
+        <v>0</v>
+      </c>
+      <c r="BR80">
+        <v>0</v>
+      </c>
+      <c r="BS80">
+        <v>0</v>
+      </c>
+      <c r="BT80">
+        <v>0</v>
+      </c>
+      <c r="BU80">
+        <v>0</v>
+      </c>
+      <c r="BV80">
+        <v>0</v>
+      </c>
+      <c r="BW80">
+        <v>0</v>
+      </c>
+      <c r="BX80">
+        <v>0</v>
+      </c>
+      <c r="BY80">
+        <v>0</v>
+      </c>
+      <c r="BZ80">
+        <v>0</v>
+      </c>
+      <c r="CA80">
+        <v>0</v>
+      </c>
+      <c r="CB80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>110</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>2</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>3</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>4</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
+      <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <v>4</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <v>0</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="AZ81">
+        <v>0</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>0</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
+      </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
+      </c>
+      <c r="BQ81">
+        <v>0</v>
+      </c>
+      <c r="BR81">
+        <v>0</v>
+      </c>
+      <c r="BS81">
+        <v>0</v>
+      </c>
+      <c r="BT81">
+        <v>0</v>
+      </c>
+      <c r="BU81">
+        <v>0</v>
+      </c>
+      <c r="BV81">
+        <v>0</v>
+      </c>
+      <c r="BW81">
+        <v>0</v>
+      </c>
+      <c r="BX81">
+        <v>0</v>
+      </c>
+      <c r="BY81">
+        <v>0</v>
+      </c>
+      <c r="BZ81">
+        <v>0</v>
+      </c>
+      <c r="CA81">
+        <v>0</v>
+      </c>
+      <c r="CB81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>111</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>4</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
+      <c r="AS82">
+        <v>0</v>
+      </c>
+      <c r="AT82">
+        <v>0</v>
+      </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82">
+        <v>0</v>
+      </c>
+      <c r="AX82">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>0</v>
+      </c>
+      <c r="AZ82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>0</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+      <c r="BQ82">
+        <v>0</v>
+      </c>
+      <c r="BR82">
+        <v>0</v>
+      </c>
+      <c r="BS82">
+        <v>0</v>
+      </c>
+      <c r="BT82">
+        <v>0</v>
+      </c>
+      <c r="BU82">
+        <v>0</v>
+      </c>
+      <c r="BV82">
+        <v>0</v>
+      </c>
+      <c r="BW82">
+        <v>0</v>
+      </c>
+      <c r="BX82">
+        <v>0</v>
+      </c>
+      <c r="BY82">
+        <v>0</v>
+      </c>
+      <c r="BZ82">
+        <v>0</v>
+      </c>
+      <c r="CA82">
+        <v>0</v>
+      </c>
+      <c r="CB82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>114</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>3</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
+      <c r="AS83">
+        <v>0</v>
+      </c>
+      <c r="AT83">
+        <v>3</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
+      <c r="AZ83">
+        <v>0</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>0</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>2</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
+      </c>
+      <c r="BQ83">
+        <v>0</v>
+      </c>
+      <c r="BR83">
+        <v>0</v>
+      </c>
+      <c r="BS83">
+        <v>0</v>
+      </c>
+      <c r="BT83">
+        <v>0</v>
+      </c>
+      <c r="BU83">
+        <v>0</v>
+      </c>
+      <c r="BV83">
+        <v>0</v>
+      </c>
+      <c r="BW83">
+        <v>0</v>
+      </c>
+      <c r="BX83">
+        <v>0</v>
+      </c>
+      <c r="BY83">
+        <v>0</v>
+      </c>
+      <c r="BZ83">
+        <v>0</v>
+      </c>
+      <c r="CA83">
+        <v>0</v>
+      </c>
+      <c r="CB83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>115</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>2</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <v>0</v>
+      </c>
+      <c r="AS84">
+        <v>0</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
+      <c r="AW84">
+        <v>0</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="AZ84">
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>0</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>0</v>
+      </c>
+      <c r="BJ84">
+        <v>0</v>
+      </c>
+      <c r="BK84">
+        <v>2</v>
+      </c>
+      <c r="BL84">
+        <v>0</v>
+      </c>
+      <c r="BM84">
+        <v>0</v>
+      </c>
+      <c r="BN84">
+        <v>0</v>
+      </c>
+      <c r="BO84">
+        <v>0</v>
+      </c>
+      <c r="BP84">
+        <v>0</v>
+      </c>
+      <c r="BQ84">
+        <v>0</v>
+      </c>
+      <c r="BR84">
+        <v>0</v>
+      </c>
+      <c r="BS84">
+        <v>0</v>
+      </c>
+      <c r="BT84">
+        <v>0</v>
+      </c>
+      <c r="BU84">
+        <v>0</v>
+      </c>
+      <c r="BV84">
+        <v>0</v>
+      </c>
+      <c r="BW84">
+        <v>0</v>
+      </c>
+      <c r="BX84">
+        <v>0</v>
+      </c>
+      <c r="BY84">
+        <v>0</v>
+      </c>
+      <c r="BZ84">
+        <v>0</v>
+      </c>
+      <c r="CA84">
+        <v>0</v>
+      </c>
+      <c r="CB84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>117</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
+      <c r="AS85">
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>0</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>0</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>1</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>0</v>
+      </c>
+      <c r="BL85">
+        <v>0</v>
+      </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
+        <v>0</v>
+      </c>
+      <c r="BO85">
+        <v>0</v>
+      </c>
+      <c r="BP85">
+        <v>0</v>
+      </c>
+      <c r="BQ85">
+        <v>0</v>
+      </c>
+      <c r="BR85">
+        <v>0</v>
+      </c>
+      <c r="BS85">
+        <v>0</v>
+      </c>
+      <c r="BT85">
+        <v>0</v>
+      </c>
+      <c r="BU85">
+        <v>0</v>
+      </c>
+      <c r="BV85">
+        <v>0</v>
+      </c>
+      <c r="BW85">
+        <v>0</v>
+      </c>
+      <c r="BX85">
+        <v>0</v>
+      </c>
+      <c r="BY85">
+        <v>0</v>
+      </c>
+      <c r="BZ85">
+        <v>0</v>
+      </c>
+      <c r="CA85">
+        <v>0</v>
+      </c>
+      <c r="CB85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>118</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>36</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>4</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>3</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>7</v>
+      </c>
+      <c r="AD86">
+        <v>6</v>
+      </c>
+      <c r="AE86">
+        <v>3</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>1</v>
+      </c>
+      <c r="AH86">
+        <v>1</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>4</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>2</v>
+      </c>
+      <c r="AS86">
+        <v>0</v>
+      </c>
+      <c r="AT86">
+        <v>0</v>
+      </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86">
+        <v>0</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>0</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>0</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>1</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
+      <c r="BQ86">
+        <v>0</v>
+      </c>
+      <c r="BR86">
+        <v>0</v>
+      </c>
+      <c r="BS86">
+        <v>0</v>
+      </c>
+      <c r="BT86">
+        <v>0</v>
+      </c>
+      <c r="BU86">
+        <v>0</v>
+      </c>
+      <c r="BV86">
+        <v>0</v>
+      </c>
+      <c r="BW86">
+        <v>0</v>
+      </c>
+      <c r="BX86">
+        <v>0</v>
+      </c>
+      <c r="BY86">
+        <v>0</v>
+      </c>
+      <c r="BZ86">
+        <v>0</v>
+      </c>
+      <c r="CA86">
+        <v>0</v>
+      </c>
+      <c r="CB86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>119</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>2</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>0</v>
+      </c>
+      <c r="AR87">
+        <v>0</v>
+      </c>
+      <c r="AS87">
+        <v>0</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
+      <c r="AW87">
+        <v>0</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
+      <c r="AZ87">
+        <v>0</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>0</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
+      </c>
+      <c r="BQ87">
+        <v>0</v>
+      </c>
+      <c r="BR87">
+        <v>0</v>
+      </c>
+      <c r="BS87">
+        <v>0</v>
+      </c>
+      <c r="BT87">
+        <v>0</v>
+      </c>
+      <c r="BU87">
+        <v>0</v>
+      </c>
+      <c r="BV87">
+        <v>0</v>
+      </c>
+      <c r="BW87">
+        <v>0</v>
+      </c>
+      <c r="BX87">
+        <v>0</v>
+      </c>
+      <c r="BY87">
+        <v>0</v>
+      </c>
+      <c r="BZ87">
+        <v>0</v>
+      </c>
+      <c r="CA87">
+        <v>0</v>
+      </c>
+      <c r="CB87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>120</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>2</v>
+      </c>
+      <c r="AO88">
+        <v>2</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
+      <c r="AS88">
+        <v>0</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
+      <c r="AW88">
+        <v>0</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+      <c r="AZ88">
+        <v>0</v>
+      </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>0</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
+      </c>
+      <c r="BQ88">
+        <v>0</v>
+      </c>
+      <c r="BR88">
+        <v>0</v>
+      </c>
+      <c r="BS88">
+        <v>0</v>
+      </c>
+      <c r="BT88">
+        <v>0</v>
+      </c>
+      <c r="BU88">
+        <v>0</v>
+      </c>
+      <c r="BV88">
+        <v>0</v>
+      </c>
+      <c r="BW88">
+        <v>0</v>
+      </c>
+      <c r="BX88">
+        <v>0</v>
+      </c>
+      <c r="BY88">
+        <v>0</v>
+      </c>
+      <c r="BZ88">
+        <v>0</v>
+      </c>
+      <c r="CA88">
+        <v>0</v>
+      </c>
+      <c r="CB88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>122</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>2</v>
+      </c>
+      <c r="AO89">
+        <v>2</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>0</v>
+      </c>
+      <c r="AS89">
+        <v>0</v>
+      </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>0</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>0</v>
+      </c>
+      <c r="AZ89">
+        <v>0</v>
+      </c>
+      <c r="BA89">
+        <v>0</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>0</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>1</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+      <c r="BJ89">
+        <v>0</v>
+      </c>
+      <c r="BK89">
+        <v>0</v>
+      </c>
+      <c r="BL89">
+        <v>1</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
+      </c>
+      <c r="BQ89">
+        <v>0</v>
+      </c>
+      <c r="BR89">
+        <v>0</v>
+      </c>
+      <c r="BS89">
+        <v>0</v>
+      </c>
+      <c r="BT89">
+        <v>0</v>
+      </c>
+      <c r="BU89">
+        <v>0</v>
+      </c>
+      <c r="BV89">
+        <v>0</v>
+      </c>
+      <c r="BW89">
+        <v>0</v>
+      </c>
+      <c r="BX89">
+        <v>0</v>
+      </c>
+      <c r="BY89">
+        <v>0</v>
+      </c>
+      <c r="BZ89">
+        <v>0</v>
+      </c>
+      <c r="CA89">
+        <v>0</v>
+      </c>
+      <c r="CB89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>123</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>52</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>5</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>4</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>1</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>2</v>
+      </c>
+      <c r="AF90">
+        <v>1</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>2</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>17</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
+      <c r="AQ90">
+        <v>1</v>
+      </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
+      <c r="AS90">
+        <v>0</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <v>1</v>
+      </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
+      <c r="AW90">
+        <v>0</v>
+      </c>
+      <c r="AX90">
+        <v>1</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
+      <c r="AZ90">
+        <v>4</v>
+      </c>
+      <c r="BA90">
+        <v>3</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BC90">
+        <v>1</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>0</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>1</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>0</v>
+      </c>
+      <c r="BK90">
+        <v>0</v>
+      </c>
+      <c r="BL90">
+        <v>1</v>
+      </c>
+      <c r="BM90">
+        <v>0</v>
+      </c>
+      <c r="BN90">
+        <v>0</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
+        <v>0</v>
+      </c>
+      <c r="BQ90">
+        <v>0</v>
+      </c>
+      <c r="BR90">
+        <v>0</v>
+      </c>
+      <c r="BS90">
+        <v>0</v>
+      </c>
+      <c r="BT90">
+        <v>0</v>
+      </c>
+      <c r="BU90">
+        <v>0</v>
+      </c>
+      <c r="BV90">
+        <v>0</v>
+      </c>
+      <c r="BW90">
+        <v>3</v>
+      </c>
+      <c r="BX90">
+        <v>0</v>
+      </c>
+      <c r="BY90">
+        <v>0</v>
+      </c>
+      <c r="BZ90">
+        <v>0</v>
+      </c>
+      <c r="CA90">
+        <v>0</v>
+      </c>
+      <c r="CB90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>124</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
+      <c r="AS91">
+        <v>0</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+      <c r="AV91">
+        <v>0</v>
+      </c>
+      <c r="AW91">
+        <v>0</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
+      <c r="AZ91">
+        <v>0</v>
+      </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>0</v>
+      </c>
+      <c r="BC91">
+        <v>0</v>
+      </c>
+      <c r="BD91">
+        <v>0</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>0</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>0</v>
+      </c>
+      <c r="BJ91">
+        <v>0</v>
+      </c>
+      <c r="BK91">
+        <v>0</v>
+      </c>
+      <c r="BL91">
+        <v>0</v>
+      </c>
+      <c r="BM91">
+        <v>0</v>
+      </c>
+      <c r="BN91">
+        <v>0</v>
+      </c>
+      <c r="BO91">
+        <v>1</v>
+      </c>
+      <c r="BP91">
+        <v>0</v>
+      </c>
+      <c r="BQ91">
+        <v>0</v>
+      </c>
+      <c r="BR91">
+        <v>0</v>
+      </c>
+      <c r="BS91">
+        <v>0</v>
+      </c>
+      <c r="BT91">
+        <v>0</v>
+      </c>
+      <c r="BU91">
+        <v>0</v>
+      </c>
+      <c r="BV91">
+        <v>0</v>
+      </c>
+      <c r="BW91">
+        <v>0</v>
+      </c>
+      <c r="BX91">
+        <v>0</v>
+      </c>
+      <c r="BY91">
+        <v>0</v>
+      </c>
+      <c r="BZ91">
+        <v>0</v>
+      </c>
+      <c r="CA91">
+        <v>0</v>
+      </c>
+      <c r="CB91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>136</v>
       </c>

--- a/Lovejoy_data_table_tree_frequency.xlsx
+++ b/Lovejoy_data_table_tree_frequency.xlsx
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB249"/>
+  <dimension ref="A1:CB250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK52" workbookViewId="0">
-      <selection activeCell="CE52" sqref="CE52"/>
+    <sheetView tabSelected="1" topLeftCell="BI96" workbookViewId="0">
+      <selection activeCell="CC117" sqref="CC117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22114,789 +22114,7814 @@
       <c r="A92">
         <v>128</v>
       </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>1</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+      <c r="AA92">
+        <v>1</v>
+      </c>
+      <c r="AB92">
+        <v>2</v>
+      </c>
+      <c r="AC92">
+        <v>3</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>0</v>
+      </c>
+      <c r="AS92">
+        <v>0</v>
+      </c>
+      <c r="AT92">
+        <v>0</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <v>0</v>
+      </c>
+      <c r="AW92">
+        <v>0</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>0</v>
+      </c>
+      <c r="BD92">
+        <v>3</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>1</v>
+      </c>
+      <c r="BL92">
+        <v>0</v>
+      </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+      <c r="BO92">
+        <v>0</v>
+      </c>
+      <c r="BP92">
+        <v>0</v>
+      </c>
+      <c r="BQ92">
+        <v>0</v>
+      </c>
+      <c r="BR92">
+        <v>0</v>
+      </c>
+      <c r="BS92">
+        <v>0</v>
+      </c>
+      <c r="BT92">
+        <v>0</v>
+      </c>
+      <c r="BU92">
+        <v>0</v>
+      </c>
+      <c r="BV92">
+        <v>0</v>
+      </c>
+      <c r="BW92">
+        <v>0</v>
+      </c>
+      <c r="BX92">
+        <v>0</v>
+      </c>
+      <c r="BY92">
+        <v>0</v>
+      </c>
+      <c r="BZ92">
+        <v>0</v>
+      </c>
+      <c r="CA92">
+        <v>0</v>
+      </c>
+      <c r="CB92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>130</v>
       </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>2</v>
+      </c>
+      <c r="AL93">
+        <v>2</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>4</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <v>0</v>
+      </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
+      <c r="AS93">
+        <v>0</v>
+      </c>
+      <c r="AT93">
+        <v>0</v>
+      </c>
+      <c r="AU93">
+        <v>0</v>
+      </c>
+      <c r="AV93">
+        <v>0</v>
+      </c>
+      <c r="AW93">
+        <v>0</v>
+      </c>
+      <c r="AX93">
+        <v>0</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93">
+        <v>0</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>0</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>0</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>0</v>
+      </c>
+      <c r="BJ93">
+        <v>0</v>
+      </c>
+      <c r="BK93">
+        <v>0</v>
+      </c>
+      <c r="BL93">
+        <v>0</v>
+      </c>
+      <c r="BM93">
+        <v>0</v>
+      </c>
+      <c r="BN93">
+        <v>0</v>
+      </c>
+      <c r="BO93">
+        <v>0</v>
+      </c>
+      <c r="BP93">
+        <v>0</v>
+      </c>
+      <c r="BQ93">
+        <v>0</v>
+      </c>
+      <c r="BR93">
+        <v>0</v>
+      </c>
+      <c r="BS93">
+        <v>0</v>
+      </c>
+      <c r="BT93">
+        <v>0</v>
+      </c>
+      <c r="BU93">
+        <v>0</v>
+      </c>
+      <c r="BV93">
+        <v>0</v>
+      </c>
+      <c r="BW93">
+        <v>0</v>
+      </c>
+      <c r="BX93">
+        <v>0</v>
+      </c>
+      <c r="BY93">
+        <v>0</v>
+      </c>
+      <c r="BZ93">
+        <v>0</v>
+      </c>
+      <c r="CA93">
+        <v>0</v>
+      </c>
+      <c r="CB93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
+      <c r="AS94">
+        <v>0</v>
+      </c>
+      <c r="AT94">
+        <v>0</v>
+      </c>
+      <c r="AU94">
+        <v>0</v>
+      </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
+      <c r="AW94">
+        <v>0</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>0</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>0</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+      <c r="BJ94">
+        <v>0</v>
+      </c>
+      <c r="BK94">
+        <v>1</v>
+      </c>
+      <c r="BL94">
+        <v>0</v>
+      </c>
+      <c r="BM94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
+        <v>0</v>
+      </c>
+      <c r="BQ94">
+        <v>0</v>
+      </c>
+      <c r="BR94">
+        <v>0</v>
+      </c>
+      <c r="BS94">
+        <v>0</v>
+      </c>
+      <c r="BT94">
+        <v>0</v>
+      </c>
+      <c r="BU94">
+        <v>0</v>
+      </c>
+      <c r="BV94">
+        <v>0</v>
+      </c>
+      <c r="BW94">
+        <v>0</v>
+      </c>
+      <c r="BX94">
+        <v>0</v>
+      </c>
+      <c r="BY94">
+        <v>0</v>
+      </c>
+      <c r="BZ94">
+        <v>0</v>
+      </c>
+      <c r="CA94">
+        <v>0</v>
+      </c>
+      <c r="CB94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+      <c r="AQ95">
+        <v>0</v>
+      </c>
+      <c r="AR95">
+        <v>0</v>
+      </c>
+      <c r="AS95">
+        <v>0</v>
+      </c>
+      <c r="AT95">
+        <v>0</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AV95">
+        <v>0</v>
+      </c>
+      <c r="AW95">
+        <v>0</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95">
+        <v>0</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>0</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>0</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>0</v>
+      </c>
+      <c r="BJ95">
+        <v>0</v>
+      </c>
+      <c r="BK95">
+        <v>0</v>
+      </c>
+      <c r="BL95">
+        <v>0</v>
+      </c>
+      <c r="BM95">
+        <v>0</v>
+      </c>
+      <c r="BN95">
+        <v>0</v>
+      </c>
+      <c r="BO95">
+        <v>0</v>
+      </c>
+      <c r="BP95">
+        <v>0</v>
+      </c>
+      <c r="BQ95">
+        <v>0</v>
+      </c>
+      <c r="BR95">
+        <v>0</v>
+      </c>
+      <c r="BS95">
+        <v>0</v>
+      </c>
+      <c r="BT95">
+        <v>0</v>
+      </c>
+      <c r="BU95">
+        <v>0</v>
+      </c>
+      <c r="BV95">
+        <v>0</v>
+      </c>
+      <c r="BW95">
+        <v>0</v>
+      </c>
+      <c r="BX95">
+        <v>0</v>
+      </c>
+      <c r="BY95">
+        <v>0</v>
+      </c>
+      <c r="BZ95">
+        <v>0</v>
+      </c>
+      <c r="CA95">
+        <v>0</v>
+      </c>
+      <c r="CB95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>135</v>
+      </c>
+      <c r="C96">
+        <v>21</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>1</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>1</v>
+      </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
+      <c r="AS96">
+        <v>0</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
+      <c r="AU96">
+        <v>0</v>
+      </c>
+      <c r="AV96">
+        <v>0</v>
+      </c>
+      <c r="AW96">
+        <v>0</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>0</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+      <c r="BI96">
+        <v>0</v>
+      </c>
+      <c r="BJ96">
+        <v>0</v>
+      </c>
+      <c r="BK96">
+        <v>0</v>
+      </c>
+      <c r="BL96">
+        <v>0</v>
+      </c>
+      <c r="BM96">
+        <v>0</v>
+      </c>
+      <c r="BN96">
+        <v>0</v>
+      </c>
+      <c r="BO96">
+        <v>0</v>
+      </c>
+      <c r="BP96">
+        <v>0</v>
+      </c>
+      <c r="BQ96">
+        <v>0</v>
+      </c>
+      <c r="BR96">
+        <v>0</v>
+      </c>
+      <c r="BS96">
+        <v>0</v>
+      </c>
+      <c r="BT96">
+        <v>0</v>
+      </c>
+      <c r="BU96">
+        <v>0</v>
+      </c>
+      <c r="BV96">
+        <v>1</v>
+      </c>
+      <c r="BW96">
+        <v>1</v>
+      </c>
+      <c r="BX96">
+        <v>3</v>
+      </c>
+      <c r="BY96">
+        <v>4</v>
+      </c>
+      <c r="BZ96">
+        <v>1</v>
+      </c>
+      <c r="CA96">
+        <v>1</v>
+      </c>
+      <c r="CB96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>136</v>
       </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>2</v>
+      </c>
+      <c r="AA97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>3</v>
+      </c>
+      <c r="AD97">
+        <v>2</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>0</v>
+      </c>
+      <c r="AO97">
+        <v>4</v>
+      </c>
+      <c r="AP97">
+        <v>0</v>
+      </c>
+      <c r="AQ97">
+        <v>0</v>
+      </c>
+      <c r="AR97">
+        <v>0</v>
+      </c>
+      <c r="AS97">
+        <v>1</v>
+      </c>
+      <c r="AT97">
+        <v>0</v>
+      </c>
+      <c r="AU97">
+        <v>0</v>
+      </c>
+      <c r="AV97">
+        <v>0</v>
+      </c>
+      <c r="AW97">
+        <v>0</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97">
+        <v>0</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>0</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>1</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+      <c r="BJ97">
+        <v>0</v>
+      </c>
+      <c r="BK97">
+        <v>0</v>
+      </c>
+      <c r="BL97">
+        <v>0</v>
+      </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>0</v>
+      </c>
+      <c r="BO97">
+        <v>0</v>
+      </c>
+      <c r="BP97">
+        <v>0</v>
+      </c>
+      <c r="BQ97">
+        <v>0</v>
+      </c>
+      <c r="BR97">
+        <v>0</v>
+      </c>
+      <c r="BS97">
+        <v>0</v>
+      </c>
+      <c r="BT97">
+        <v>0</v>
+      </c>
+      <c r="BU97">
+        <v>0</v>
+      </c>
+      <c r="BV97">
+        <v>0</v>
+      </c>
+      <c r="BW97">
+        <v>0</v>
+      </c>
+      <c r="BX97">
+        <v>0</v>
+      </c>
+      <c r="BY97">
+        <v>0</v>
+      </c>
+      <c r="BZ97">
+        <v>0</v>
+      </c>
+      <c r="CA97">
+        <v>0</v>
+      </c>
+      <c r="CB97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="98" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>137</v>
       </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
+      <c r="AQ98">
+        <v>0</v>
+      </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
+      <c r="AS98">
+        <v>0</v>
+      </c>
+      <c r="AT98">
+        <v>0</v>
+      </c>
+      <c r="AU98">
+        <v>0</v>
+      </c>
+      <c r="AV98">
+        <v>0</v>
+      </c>
+      <c r="AW98">
+        <v>0</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>0</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>0</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+      <c r="BI98">
+        <v>0</v>
+      </c>
+      <c r="BJ98">
+        <v>0</v>
+      </c>
+      <c r="BK98">
+        <v>0</v>
+      </c>
+      <c r="BL98">
+        <v>0</v>
+      </c>
+      <c r="BM98">
+        <v>0</v>
+      </c>
+      <c r="BN98">
+        <v>0</v>
+      </c>
+      <c r="BO98">
+        <v>0</v>
+      </c>
+      <c r="BP98">
+        <v>0</v>
+      </c>
+      <c r="BQ98">
+        <v>0</v>
+      </c>
+      <c r="BR98">
+        <v>0</v>
+      </c>
+      <c r="BS98">
+        <v>0</v>
+      </c>
+      <c r="BT98">
+        <v>0</v>
+      </c>
+      <c r="BU98">
+        <v>0</v>
+      </c>
+      <c r="BV98">
+        <v>0</v>
+      </c>
+      <c r="BW98">
+        <v>0</v>
+      </c>
+      <c r="BX98">
+        <v>0</v>
+      </c>
+      <c r="BY98">
+        <v>0</v>
+      </c>
+      <c r="BZ98">
+        <v>0</v>
+      </c>
+      <c r="CA98">
+        <v>0</v>
+      </c>
+      <c r="CB98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="99" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>138</v>
       </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>2</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
+      <c r="AQ99">
+        <v>0</v>
+      </c>
+      <c r="AR99">
+        <v>0</v>
+      </c>
+      <c r="AS99">
+        <v>0</v>
+      </c>
+      <c r="AT99">
+        <v>0</v>
+      </c>
+      <c r="AU99">
+        <v>0</v>
+      </c>
+      <c r="AV99">
+        <v>0</v>
+      </c>
+      <c r="AW99">
+        <v>0</v>
+      </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="AZ99">
+        <v>0</v>
+      </c>
+      <c r="BA99">
+        <v>0</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>0</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <v>0</v>
+      </c>
+      <c r="BG99">
+        <v>0</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>0</v>
+      </c>
+      <c r="BJ99">
+        <v>0</v>
+      </c>
+      <c r="BK99">
+        <v>0</v>
+      </c>
+      <c r="BL99">
+        <v>1</v>
+      </c>
+      <c r="BM99">
+        <v>0</v>
+      </c>
+      <c r="BN99">
+        <v>0</v>
+      </c>
+      <c r="BO99">
+        <v>0</v>
+      </c>
+      <c r="BP99">
+        <v>0</v>
+      </c>
+      <c r="BQ99">
+        <v>0</v>
+      </c>
+      <c r="BR99">
+        <v>0</v>
+      </c>
+      <c r="BS99">
+        <v>0</v>
+      </c>
+      <c r="BT99">
+        <v>0</v>
+      </c>
+      <c r="BU99">
+        <v>0</v>
+      </c>
+      <c r="BV99">
+        <v>0</v>
+      </c>
+      <c r="BW99">
+        <v>0</v>
+      </c>
+      <c r="BX99">
+        <v>0</v>
+      </c>
+      <c r="BY99">
+        <v>0</v>
+      </c>
+      <c r="BZ99">
+        <v>0</v>
+      </c>
+      <c r="CA99">
+        <v>0</v>
+      </c>
+      <c r="CB99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="100" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>140</v>
       </c>
+      <c r="C100">
+        <v>65</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>3</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>0</v>
+      </c>
+      <c r="AO100">
+        <v>0</v>
+      </c>
+      <c r="AP100">
+        <v>0</v>
+      </c>
+      <c r="AQ100">
+        <v>0</v>
+      </c>
+      <c r="AR100">
+        <v>0</v>
+      </c>
+      <c r="AS100">
+        <v>0</v>
+      </c>
+      <c r="AT100">
+        <v>0</v>
+      </c>
+      <c r="AU100">
+        <v>0</v>
+      </c>
+      <c r="AV100">
+        <v>2</v>
+      </c>
+      <c r="AW100">
+        <v>0</v>
+      </c>
+      <c r="AX100">
+        <v>0</v>
+      </c>
+      <c r="AY100">
+        <v>0</v>
+      </c>
+      <c r="AZ100">
+        <v>2</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>36</v>
+      </c>
+      <c r="BC100">
+        <v>0</v>
+      </c>
+      <c r="BD100">
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <v>0</v>
+      </c>
+      <c r="BG100">
+        <v>1</v>
+      </c>
+      <c r="BH100">
+        <v>2</v>
+      </c>
+      <c r="BI100">
+        <v>0</v>
+      </c>
+      <c r="BJ100">
+        <v>3</v>
+      </c>
+      <c r="BK100">
+        <v>1</v>
+      </c>
+      <c r="BL100">
+        <v>2</v>
+      </c>
+      <c r="BM100">
+        <v>1</v>
+      </c>
+      <c r="BN100">
+        <v>1</v>
+      </c>
+      <c r="BO100">
+        <v>2</v>
+      </c>
+      <c r="BP100">
+        <v>0</v>
+      </c>
+      <c r="BQ100">
+        <v>0</v>
+      </c>
+      <c r="BR100">
+        <v>0</v>
+      </c>
+      <c r="BS100">
+        <v>0</v>
+      </c>
+      <c r="BT100">
+        <v>0</v>
+      </c>
+      <c r="BU100">
+        <v>0</v>
+      </c>
+      <c r="BV100">
+        <v>0</v>
+      </c>
+      <c r="BW100">
+        <v>0</v>
+      </c>
+      <c r="BX100">
+        <v>0</v>
+      </c>
+      <c r="BY100">
+        <v>0</v>
+      </c>
+      <c r="BZ100">
+        <v>0</v>
+      </c>
+      <c r="CA100">
+        <v>0</v>
+      </c>
+      <c r="CB100">
+        <v>3</v>
+      </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="101" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>141</v>
       </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>2</v>
+      </c>
+      <c r="AO101">
+        <v>2</v>
+      </c>
+      <c r="AP101">
+        <v>0</v>
+      </c>
+      <c r="AQ101">
+        <v>0</v>
+      </c>
+      <c r="AR101">
+        <v>0</v>
+      </c>
+      <c r="AS101">
+        <v>0</v>
+      </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>0</v>
+      </c>
+      <c r="AX101">
+        <v>0</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
+      <c r="BC101">
+        <v>0</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>0</v>
+      </c>
+      <c r="BG101">
+        <v>0</v>
+      </c>
+      <c r="BH101">
+        <v>0</v>
+      </c>
+      <c r="BI101">
+        <v>0</v>
+      </c>
+      <c r="BJ101">
+        <v>0</v>
+      </c>
+      <c r="BK101">
+        <v>0</v>
+      </c>
+      <c r="BL101">
+        <v>0</v>
+      </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BN101">
+        <v>0</v>
+      </c>
+      <c r="BO101">
+        <v>0</v>
+      </c>
+      <c r="BP101">
+        <v>0</v>
+      </c>
+      <c r="BQ101">
+        <v>0</v>
+      </c>
+      <c r="BR101">
+        <v>0</v>
+      </c>
+      <c r="BS101">
+        <v>0</v>
+      </c>
+      <c r="BT101">
+        <v>0</v>
+      </c>
+      <c r="BU101">
+        <v>0</v>
+      </c>
+      <c r="BV101">
+        <v>0</v>
+      </c>
+      <c r="BW101">
+        <v>0</v>
+      </c>
+      <c r="BX101">
+        <v>0</v>
+      </c>
+      <c r="BY101">
+        <v>0</v>
+      </c>
+      <c r="BZ101">
+        <v>0</v>
+      </c>
+      <c r="CA101">
+        <v>0</v>
+      </c>
+      <c r="CB101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="102" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>142</v>
       </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>0</v>
+      </c>
+      <c r="AQ102">
+        <v>0</v>
+      </c>
+      <c r="AR102">
+        <v>0</v>
+      </c>
+      <c r="AS102">
+        <v>0</v>
+      </c>
+      <c r="AT102">
+        <v>0</v>
+      </c>
+      <c r="AU102">
+        <v>0</v>
+      </c>
+      <c r="AV102">
+        <v>0</v>
+      </c>
+      <c r="AW102">
+        <v>0</v>
+      </c>
+      <c r="AX102">
+        <v>0</v>
+      </c>
+      <c r="AY102">
+        <v>0</v>
+      </c>
+      <c r="AZ102">
+        <v>0</v>
+      </c>
+      <c r="BA102">
+        <v>0</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>0</v>
+      </c>
+      <c r="BD102">
+        <v>0</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <v>0</v>
+      </c>
+      <c r="BG102">
+        <v>0</v>
+      </c>
+      <c r="BH102">
+        <v>0</v>
+      </c>
+      <c r="BI102">
+        <v>0</v>
+      </c>
+      <c r="BJ102">
+        <v>0</v>
+      </c>
+      <c r="BK102">
+        <v>0</v>
+      </c>
+      <c r="BL102">
+        <v>0</v>
+      </c>
+      <c r="BM102">
+        <v>0</v>
+      </c>
+      <c r="BN102">
+        <v>0</v>
+      </c>
+      <c r="BO102">
+        <v>0</v>
+      </c>
+      <c r="BP102">
+        <v>0</v>
+      </c>
+      <c r="BQ102">
+        <v>0</v>
+      </c>
+      <c r="BR102">
+        <v>0</v>
+      </c>
+      <c r="BS102">
+        <v>0</v>
+      </c>
+      <c r="BT102">
+        <v>0</v>
+      </c>
+      <c r="BU102">
+        <v>0</v>
+      </c>
+      <c r="BV102">
+        <v>0</v>
+      </c>
+      <c r="BW102">
+        <v>0</v>
+      </c>
+      <c r="BX102">
+        <v>0</v>
+      </c>
+      <c r="BY102">
+        <v>0</v>
+      </c>
+      <c r="BZ102">
+        <v>0</v>
+      </c>
+      <c r="CA102">
+        <v>0</v>
+      </c>
+      <c r="CB102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="103" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>143</v>
       </c>
+      <c r="C103">
+        <v>17</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>2</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>2</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+      <c r="AP103">
+        <v>0</v>
+      </c>
+      <c r="AQ103">
+        <v>0</v>
+      </c>
+      <c r="AR103">
+        <v>0</v>
+      </c>
+      <c r="AS103">
+        <v>0</v>
+      </c>
+      <c r="AT103">
+        <v>0</v>
+      </c>
+      <c r="AU103">
+        <v>0</v>
+      </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
+      <c r="AW103">
+        <v>0</v>
+      </c>
+      <c r="AX103">
+        <v>0</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
+      <c r="AZ103">
+        <v>0</v>
+      </c>
+      <c r="BA103">
+        <v>0</v>
+      </c>
+      <c r="BB103">
+        <v>0</v>
+      </c>
+      <c r="BC103">
+        <v>0</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>1</v>
+      </c>
+      <c r="BG103">
+        <v>0</v>
+      </c>
+      <c r="BH103">
+        <v>0</v>
+      </c>
+      <c r="BI103">
+        <v>0</v>
+      </c>
+      <c r="BJ103">
+        <v>1</v>
+      </c>
+      <c r="BK103">
+        <v>0</v>
+      </c>
+      <c r="BL103">
+        <v>0</v>
+      </c>
+      <c r="BM103">
+        <v>0</v>
+      </c>
+      <c r="BN103">
+        <v>0</v>
+      </c>
+      <c r="BO103">
+        <v>1</v>
+      </c>
+      <c r="BP103">
+        <v>0</v>
+      </c>
+      <c r="BQ103">
+        <v>0</v>
+      </c>
+      <c r="BR103">
+        <v>0</v>
+      </c>
+      <c r="BS103">
+        <v>0</v>
+      </c>
+      <c r="BT103">
+        <v>0</v>
+      </c>
+      <c r="BU103">
+        <v>0</v>
+      </c>
+      <c r="BV103">
+        <v>0</v>
+      </c>
+      <c r="BW103">
+        <v>0</v>
+      </c>
+      <c r="BX103">
+        <v>0</v>
+      </c>
+      <c r="BY103">
+        <v>0</v>
+      </c>
+      <c r="BZ103">
+        <v>0</v>
+      </c>
+      <c r="CA103">
+        <v>0</v>
+      </c>
+      <c r="CB103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="104" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>145</v>
       </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>4</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>0</v>
+      </c>
+      <c r="AQ104">
+        <v>0</v>
+      </c>
+      <c r="AR104">
+        <v>0</v>
+      </c>
+      <c r="AS104">
+        <v>0</v>
+      </c>
+      <c r="AT104">
+        <v>0</v>
+      </c>
+      <c r="AU104">
+        <v>0</v>
+      </c>
+      <c r="AV104">
+        <v>0</v>
+      </c>
+      <c r="AW104">
+        <v>0</v>
+      </c>
+      <c r="AX104">
+        <v>0</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104">
+        <v>0</v>
+      </c>
+      <c r="BA104">
+        <v>0</v>
+      </c>
+      <c r="BB104">
+        <v>0</v>
+      </c>
+      <c r="BC104">
+        <v>0</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>0</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>0</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>0</v>
+      </c>
+      <c r="BL104">
+        <v>0</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>0</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
+      </c>
+      <c r="BQ104">
+        <v>0</v>
+      </c>
+      <c r="BR104">
+        <v>0</v>
+      </c>
+      <c r="BS104">
+        <v>0</v>
+      </c>
+      <c r="BT104">
+        <v>0</v>
+      </c>
+      <c r="BU104">
+        <v>0</v>
+      </c>
+      <c r="BV104">
+        <v>0</v>
+      </c>
+      <c r="BW104">
+        <v>0</v>
+      </c>
+      <c r="BX104">
+        <v>0</v>
+      </c>
+      <c r="BY104">
+        <v>0</v>
+      </c>
+      <c r="BZ104">
+        <v>0</v>
+      </c>
+      <c r="CA104">
+        <v>0</v>
+      </c>
+      <c r="CB104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="105" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>146</v>
       </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>0</v>
+      </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>0</v>
+      </c>
+      <c r="AQ105">
+        <v>0</v>
+      </c>
+      <c r="AR105">
+        <v>0</v>
+      </c>
+      <c r="AS105">
+        <v>0</v>
+      </c>
+      <c r="AT105">
+        <v>0</v>
+      </c>
+      <c r="AU105">
+        <v>0</v>
+      </c>
+      <c r="AV105">
+        <v>0</v>
+      </c>
+      <c r="AW105">
+        <v>0</v>
+      </c>
+      <c r="AX105">
+        <v>0</v>
+      </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
+      <c r="AZ105">
+        <v>0</v>
+      </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>0</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>0</v>
+      </c>
+      <c r="BG105">
+        <v>0</v>
+      </c>
+      <c r="BH105">
+        <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>1</v>
+      </c>
+      <c r="BJ105">
+        <v>0</v>
+      </c>
+      <c r="BK105">
+        <v>0</v>
+      </c>
+      <c r="BL105">
+        <v>0</v>
+      </c>
+      <c r="BM105">
+        <v>0</v>
+      </c>
+      <c r="BN105">
+        <v>2</v>
+      </c>
+      <c r="BO105">
+        <v>0</v>
+      </c>
+      <c r="BP105">
+        <v>0</v>
+      </c>
+      <c r="BQ105">
+        <v>0</v>
+      </c>
+      <c r="BR105">
+        <v>0</v>
+      </c>
+      <c r="BS105">
+        <v>0</v>
+      </c>
+      <c r="BT105">
+        <v>0</v>
+      </c>
+      <c r="BU105">
+        <v>0</v>
+      </c>
+      <c r="BV105">
+        <v>0</v>
+      </c>
+      <c r="BW105">
+        <v>0</v>
+      </c>
+      <c r="BX105">
+        <v>0</v>
+      </c>
+      <c r="BY105">
+        <v>0</v>
+      </c>
+      <c r="BZ105">
+        <v>0</v>
+      </c>
+      <c r="CA105">
+        <v>0</v>
+      </c>
+      <c r="CB105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="106" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>150</v>
       </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>2</v>
+      </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>0</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>0</v>
+      </c>
+      <c r="AQ106">
+        <v>0</v>
+      </c>
+      <c r="AR106">
+        <v>0</v>
+      </c>
+      <c r="AS106">
+        <v>0</v>
+      </c>
+      <c r="AT106">
+        <v>0</v>
+      </c>
+      <c r="AU106">
+        <v>0</v>
+      </c>
+      <c r="AV106">
+        <v>0</v>
+      </c>
+      <c r="AW106">
+        <v>0</v>
+      </c>
+      <c r="AX106">
+        <v>0</v>
+      </c>
+      <c r="AY106">
+        <v>0</v>
+      </c>
+      <c r="AZ106">
+        <v>0</v>
+      </c>
+      <c r="BA106">
+        <v>0</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>0</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>0</v>
+      </c>
+      <c r="BG106">
+        <v>0</v>
+      </c>
+      <c r="BH106">
+        <v>0</v>
+      </c>
+      <c r="BI106">
+        <v>0</v>
+      </c>
+      <c r="BJ106">
+        <v>0</v>
+      </c>
+      <c r="BK106">
+        <v>0</v>
+      </c>
+      <c r="BL106">
+        <v>0</v>
+      </c>
+      <c r="BM106">
+        <v>0</v>
+      </c>
+      <c r="BN106">
+        <v>0</v>
+      </c>
+      <c r="BO106">
+        <v>0</v>
+      </c>
+      <c r="BP106">
+        <v>0</v>
+      </c>
+      <c r="BQ106">
+        <v>0</v>
+      </c>
+      <c r="BR106">
+        <v>0</v>
+      </c>
+      <c r="BS106">
+        <v>0</v>
+      </c>
+      <c r="BT106">
+        <v>0</v>
+      </c>
+      <c r="BU106">
+        <v>0</v>
+      </c>
+      <c r="BV106">
+        <v>0</v>
+      </c>
+      <c r="BW106">
+        <v>0</v>
+      </c>
+      <c r="BX106">
+        <v>0</v>
+      </c>
+      <c r="BY106">
+        <v>0</v>
+      </c>
+      <c r="BZ106">
+        <v>0</v>
+      </c>
+      <c r="CA106">
+        <v>0</v>
+      </c>
+      <c r="CB106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="107" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>154</v>
       </c>
+      <c r="C107">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>2</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+      <c r="AQ107">
+        <v>0</v>
+      </c>
+      <c r="AR107">
+        <v>0</v>
+      </c>
+      <c r="AS107">
+        <v>0</v>
+      </c>
+      <c r="AT107">
+        <v>0</v>
+      </c>
+      <c r="AU107">
+        <v>0</v>
+      </c>
+      <c r="AV107">
+        <v>0</v>
+      </c>
+      <c r="AW107">
+        <v>0</v>
+      </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
+      <c r="AZ107">
+        <v>0</v>
+      </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>0</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>0</v>
+      </c>
+      <c r="BG107">
+        <v>0</v>
+      </c>
+      <c r="BH107">
+        <v>0</v>
+      </c>
+      <c r="BI107">
+        <v>1</v>
+      </c>
+      <c r="BJ107">
+        <v>0</v>
+      </c>
+      <c r="BK107">
+        <v>0</v>
+      </c>
+      <c r="BL107">
+        <v>0</v>
+      </c>
+      <c r="BM107">
+        <v>0</v>
+      </c>
+      <c r="BN107">
+        <v>0</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
+        <v>0</v>
+      </c>
+      <c r="BQ107">
+        <v>0</v>
+      </c>
+      <c r="BR107">
+        <v>0</v>
+      </c>
+      <c r="BS107">
+        <v>0</v>
+      </c>
+      <c r="BT107">
+        <v>0</v>
+      </c>
+      <c r="BU107">
+        <v>0</v>
+      </c>
+      <c r="BV107">
+        <v>0</v>
+      </c>
+      <c r="BW107">
+        <v>0</v>
+      </c>
+      <c r="BX107">
+        <v>0</v>
+      </c>
+      <c r="BY107">
+        <v>0</v>
+      </c>
+      <c r="BZ107">
+        <v>0</v>
+      </c>
+      <c r="CA107">
+        <v>0</v>
+      </c>
+      <c r="CB107">
+        <v>1</v>
+      </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="108" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>160</v>
       </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>4</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>2</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>0</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>2</v>
+      </c>
+      <c r="AQ108">
+        <v>0</v>
+      </c>
+      <c r="AR108">
+        <v>0</v>
+      </c>
+      <c r="AS108">
+        <v>0</v>
+      </c>
+      <c r="AT108">
+        <v>0</v>
+      </c>
+      <c r="AU108">
+        <v>0</v>
+      </c>
+      <c r="AV108">
+        <v>0</v>
+      </c>
+      <c r="AW108">
+        <v>0</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>0</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>0</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>1</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>0</v>
+      </c>
+      <c r="BJ108">
+        <v>0</v>
+      </c>
+      <c r="BK108">
+        <v>0</v>
+      </c>
+      <c r="BL108">
+        <v>0</v>
+      </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BN108">
+        <v>0</v>
+      </c>
+      <c r="BO108">
+        <v>0</v>
+      </c>
+      <c r="BP108">
+        <v>0</v>
+      </c>
+      <c r="BQ108">
+        <v>0</v>
+      </c>
+      <c r="BR108">
+        <v>0</v>
+      </c>
+      <c r="BS108">
+        <v>0</v>
+      </c>
+      <c r="BT108">
+        <v>0</v>
+      </c>
+      <c r="BU108">
+        <v>0</v>
+      </c>
+      <c r="BV108">
+        <v>0</v>
+      </c>
+      <c r="BW108">
+        <v>1</v>
+      </c>
+      <c r="BX108">
+        <v>0</v>
+      </c>
+      <c r="BY108">
+        <v>0</v>
+      </c>
+      <c r="BZ108">
+        <v>0</v>
+      </c>
+      <c r="CA108">
+        <v>0</v>
+      </c>
+      <c r="CB108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="109" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>166</v>
       </c>
+      <c r="C109">
+        <v>21</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>3</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>3</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>1</v>
+      </c>
+      <c r="Z109">
+        <v>1</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>2</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>0</v>
+      </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
+      <c r="AP109">
+        <v>0</v>
+      </c>
+      <c r="AQ109">
+        <v>0</v>
+      </c>
+      <c r="AR109">
+        <v>0</v>
+      </c>
+      <c r="AS109">
+        <v>4</v>
+      </c>
+      <c r="AT109">
+        <v>0</v>
+      </c>
+      <c r="AU109">
+        <v>0</v>
+      </c>
+      <c r="AV109">
+        <v>0</v>
+      </c>
+      <c r="AW109">
+        <v>0</v>
+      </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <v>0</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>0</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>0</v>
+      </c>
+      <c r="BG109">
+        <v>0</v>
+      </c>
+      <c r="BH109">
+        <v>0</v>
+      </c>
+      <c r="BI109">
+        <v>0</v>
+      </c>
+      <c r="BJ109">
+        <v>2</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="BL109">
+        <v>0</v>
+      </c>
+      <c r="BM109">
+        <v>1</v>
+      </c>
+      <c r="BN109">
+        <v>0</v>
+      </c>
+      <c r="BO109">
+        <v>2</v>
+      </c>
+      <c r="BP109">
+        <v>0</v>
+      </c>
+      <c r="BQ109">
+        <v>0</v>
+      </c>
+      <c r="BR109">
+        <v>0</v>
+      </c>
+      <c r="BS109">
+        <v>0</v>
+      </c>
+      <c r="BT109">
+        <v>0</v>
+      </c>
+      <c r="BU109">
+        <v>0</v>
+      </c>
+      <c r="BV109">
+        <v>0</v>
+      </c>
+      <c r="BW109">
+        <v>0</v>
+      </c>
+      <c r="BX109">
+        <v>0</v>
+      </c>
+      <c r="BY109">
+        <v>0</v>
+      </c>
+      <c r="BZ109">
+        <v>0</v>
+      </c>
+      <c r="CA109">
+        <v>0</v>
+      </c>
+      <c r="CB109">
+        <v>1</v>
+      </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="110" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>167</v>
       </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>0</v>
+      </c>
+      <c r="AR110">
+        <v>0</v>
+      </c>
+      <c r="AS110">
+        <v>0</v>
+      </c>
+      <c r="AT110">
+        <v>0</v>
+      </c>
+      <c r="AU110">
+        <v>0</v>
+      </c>
+      <c r="AV110">
+        <v>0</v>
+      </c>
+      <c r="AW110">
+        <v>0</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>0</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>0</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>0</v>
+      </c>
+      <c r="BG110">
+        <v>0</v>
+      </c>
+      <c r="BH110">
+        <v>0</v>
+      </c>
+      <c r="BI110">
+        <v>0</v>
+      </c>
+      <c r="BJ110">
+        <v>2</v>
+      </c>
+      <c r="BK110">
+        <v>0</v>
+      </c>
+      <c r="BL110">
+        <v>0</v>
+      </c>
+      <c r="BM110">
+        <v>0</v>
+      </c>
+      <c r="BN110">
+        <v>1</v>
+      </c>
+      <c r="BO110">
+        <v>1</v>
+      </c>
+      <c r="BP110">
+        <v>0</v>
+      </c>
+      <c r="BQ110">
+        <v>0</v>
+      </c>
+      <c r="BR110">
+        <v>0</v>
+      </c>
+      <c r="BS110">
+        <v>0</v>
+      </c>
+      <c r="BT110">
+        <v>0</v>
+      </c>
+      <c r="BU110">
+        <v>0</v>
+      </c>
+      <c r="BV110">
+        <v>0</v>
+      </c>
+      <c r="BW110">
+        <v>0</v>
+      </c>
+      <c r="BX110">
+        <v>0</v>
+      </c>
+      <c r="BY110">
+        <v>0</v>
+      </c>
+      <c r="BZ110">
+        <v>0</v>
+      </c>
+      <c r="CA110">
+        <v>0</v>
+      </c>
+      <c r="CB110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="111" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>168</v>
       </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>2</v>
+      </c>
+      <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
+      <c r="AQ111">
+        <v>0</v>
+      </c>
+      <c r="AR111">
+        <v>0</v>
+      </c>
+      <c r="AS111">
+        <v>0</v>
+      </c>
+      <c r="AT111">
+        <v>0</v>
+      </c>
+      <c r="AU111">
+        <v>0</v>
+      </c>
+      <c r="AV111">
+        <v>0</v>
+      </c>
+      <c r="AW111">
+        <v>0</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>0</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>0</v>
+      </c>
+      <c r="BG111">
+        <v>0</v>
+      </c>
+      <c r="BH111">
+        <v>0</v>
+      </c>
+      <c r="BI111">
+        <v>0</v>
+      </c>
+      <c r="BJ111">
+        <v>0</v>
+      </c>
+      <c r="BK111">
+        <v>0</v>
+      </c>
+      <c r="BL111">
+        <v>0</v>
+      </c>
+      <c r="BM111">
+        <v>0</v>
+      </c>
+      <c r="BN111">
+        <v>0</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
+        <v>0</v>
+      </c>
+      <c r="BQ111">
+        <v>0</v>
+      </c>
+      <c r="BR111">
+        <v>0</v>
+      </c>
+      <c r="BS111">
+        <v>0</v>
+      </c>
+      <c r="BT111">
+        <v>0</v>
+      </c>
+      <c r="BU111">
+        <v>0</v>
+      </c>
+      <c r="BV111">
+        <v>0</v>
+      </c>
+      <c r="BW111">
+        <v>0</v>
+      </c>
+      <c r="BX111">
+        <v>0</v>
+      </c>
+      <c r="BY111">
+        <v>0</v>
+      </c>
+      <c r="BZ111">
+        <v>0</v>
+      </c>
+      <c r="CA111">
+        <v>0</v>
+      </c>
+      <c r="CB111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="112" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>170</v>
       </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>0</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>0</v>
+      </c>
+      <c r="AQ112">
+        <v>0</v>
+      </c>
+      <c r="AR112">
+        <v>0</v>
+      </c>
+      <c r="AS112">
+        <v>0</v>
+      </c>
+      <c r="AT112">
+        <v>0</v>
+      </c>
+      <c r="AU112">
+        <v>0</v>
+      </c>
+      <c r="AV112">
+        <v>0</v>
+      </c>
+      <c r="AW112">
+        <v>0</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>0</v>
+      </c>
+      <c r="AZ112">
+        <v>0</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
+      <c r="BC112">
+        <v>0</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>0</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>0</v>
+      </c>
+      <c r="BJ112">
+        <v>0</v>
+      </c>
+      <c r="BK112">
+        <v>0</v>
+      </c>
+      <c r="BL112">
+        <v>1</v>
+      </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>1</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
+        <v>0</v>
+      </c>
+      <c r="BQ112">
+        <v>0</v>
+      </c>
+      <c r="BR112">
+        <v>0</v>
+      </c>
+      <c r="BS112">
+        <v>0</v>
+      </c>
+      <c r="BT112">
+        <v>0</v>
+      </c>
+      <c r="BU112">
+        <v>0</v>
+      </c>
+      <c r="BV112">
+        <v>0</v>
+      </c>
+      <c r="BW112">
+        <v>0</v>
+      </c>
+      <c r="BX112">
+        <v>0</v>
+      </c>
+      <c r="BY112">
+        <v>0</v>
+      </c>
+      <c r="BZ112">
+        <v>0</v>
+      </c>
+      <c r="CA112">
+        <v>0</v>
+      </c>
+      <c r="CB112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="113" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>175</v>
       </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>4</v>
+      </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>0</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>0</v>
+      </c>
+      <c r="AQ113">
+        <v>0</v>
+      </c>
+      <c r="AR113">
+        <v>0</v>
+      </c>
+      <c r="AS113">
+        <v>0</v>
+      </c>
+      <c r="AT113">
+        <v>0</v>
+      </c>
+      <c r="AU113">
+        <v>0</v>
+      </c>
+      <c r="AV113">
+        <v>0</v>
+      </c>
+      <c r="AW113">
+        <v>0</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>0</v>
+      </c>
+      <c r="AZ113">
+        <v>0</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>0</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>0</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>0</v>
+      </c>
+      <c r="BJ113">
+        <v>1</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>0</v>
+      </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>2</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
+        <v>0</v>
+      </c>
+      <c r="BQ113">
+        <v>0</v>
+      </c>
+      <c r="BR113">
+        <v>0</v>
+      </c>
+      <c r="BS113">
+        <v>0</v>
+      </c>
+      <c r="BT113">
+        <v>0</v>
+      </c>
+      <c r="BU113">
+        <v>0</v>
+      </c>
+      <c r="BV113">
+        <v>0</v>
+      </c>
+      <c r="BW113">
+        <v>0</v>
+      </c>
+      <c r="BX113">
+        <v>0</v>
+      </c>
+      <c r="BY113">
+        <v>0</v>
+      </c>
+      <c r="BZ113">
+        <v>0</v>
+      </c>
+      <c r="CA113">
+        <v>0</v>
+      </c>
+      <c r="CB113">
+        <v>1</v>
+      </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="114" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>176</v>
       </c>
+      <c r="C114">
+        <v>227</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>4</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>25</v>
+      </c>
+      <c r="S114">
+        <v>11</v>
+      </c>
+      <c r="T114">
+        <v>4</v>
+      </c>
+      <c r="U114">
+        <v>5</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>18</v>
+      </c>
+      <c r="Z114">
+        <v>8</v>
+      </c>
+      <c r="AA114">
+        <v>10</v>
+      </c>
+      <c r="AB114">
+        <v>1</v>
+      </c>
+      <c r="AC114">
+        <v>7</v>
+      </c>
+      <c r="AD114">
+        <v>3</v>
+      </c>
+      <c r="AE114">
+        <v>4</v>
+      </c>
+      <c r="AF114">
+        <v>3</v>
+      </c>
+      <c r="AG114">
+        <v>7</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>1</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>4</v>
+      </c>
+      <c r="AM114">
+        <v>12</v>
+      </c>
+      <c r="AN114">
+        <v>5</v>
+      </c>
+      <c r="AO114">
+        <v>5</v>
+      </c>
+      <c r="AP114">
+        <v>19</v>
+      </c>
+      <c r="AQ114">
+        <v>3</v>
+      </c>
+      <c r="AR114">
+        <v>5</v>
+      </c>
+      <c r="AS114">
+        <v>7</v>
+      </c>
+      <c r="AT114">
+        <v>0</v>
+      </c>
+      <c r="AU114">
+        <v>5</v>
+      </c>
+      <c r="AV114">
+        <v>7</v>
+      </c>
+      <c r="AW114">
+        <v>6</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>8</v>
+      </c>
+      <c r="BA114">
+        <v>6</v>
+      </c>
+      <c r="BB114">
+        <v>3</v>
+      </c>
+      <c r="BC114">
+        <v>7</v>
+      </c>
+      <c r="BD114">
+        <v>1</v>
+      </c>
+      <c r="BE114">
+        <v>2</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>1</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>1</v>
+      </c>
+      <c r="BL114">
+        <v>1</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
+      </c>
+      <c r="BQ114">
+        <v>0</v>
+      </c>
+      <c r="BR114">
+        <v>0</v>
+      </c>
+      <c r="BS114">
+        <v>0</v>
+      </c>
+      <c r="BT114">
+        <v>0</v>
+      </c>
+      <c r="BU114">
+        <v>0</v>
+      </c>
+      <c r="BV114">
+        <v>0</v>
+      </c>
+      <c r="BW114">
+        <v>0</v>
+      </c>
+      <c r="BX114">
+        <v>0</v>
+      </c>
+      <c r="BY114">
+        <v>0</v>
+      </c>
+      <c r="BZ114">
+        <v>0</v>
+      </c>
+      <c r="CA114">
+        <v>0</v>
+      </c>
+      <c r="CB114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="115" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>177</v>
       </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>1</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>2</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>4</v>
+      </c>
+      <c r="AO115">
+        <v>0</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>0</v>
+      </c>
+      <c r="AR115">
+        <v>0</v>
+      </c>
+      <c r="AS115">
+        <v>0</v>
+      </c>
+      <c r="AT115">
+        <v>0</v>
+      </c>
+      <c r="AU115">
+        <v>0</v>
+      </c>
+      <c r="AV115">
+        <v>0</v>
+      </c>
+      <c r="AW115">
+        <v>0</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>0</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+      <c r="BQ115">
+        <v>0</v>
+      </c>
+      <c r="BR115">
+        <v>0</v>
+      </c>
+      <c r="BS115">
+        <v>0</v>
+      </c>
+      <c r="BT115">
+        <v>0</v>
+      </c>
+      <c r="BU115">
+        <v>0</v>
+      </c>
+      <c r="BV115">
+        <v>0</v>
+      </c>
+      <c r="BW115">
+        <v>0</v>
+      </c>
+      <c r="BX115">
+        <v>0</v>
+      </c>
+      <c r="BY115">
+        <v>0</v>
+      </c>
+      <c r="BZ115">
+        <v>0</v>
+      </c>
+      <c r="CA115">
+        <v>0</v>
+      </c>
+      <c r="CB115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="116" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>180</v>
       </c>
+      <c r="C116">
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>2</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>2</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>0</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>2</v>
+      </c>
+      <c r="AL116">
+        <v>4</v>
+      </c>
+      <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+      <c r="AO116">
+        <v>0</v>
+      </c>
+      <c r="AP116">
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <v>0</v>
+      </c>
+      <c r="AR116">
+        <v>0</v>
+      </c>
+      <c r="AS116">
+        <v>0</v>
+      </c>
+      <c r="AT116">
+        <v>0</v>
+      </c>
+      <c r="AU116">
+        <v>0</v>
+      </c>
+      <c r="AV116">
+        <v>0</v>
+      </c>
+      <c r="AW116">
+        <v>0</v>
+      </c>
+      <c r="AX116">
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>0</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>0</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>0</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>0</v>
+      </c>
+      <c r="BJ116">
+        <v>1</v>
+      </c>
+      <c r="BK116">
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <v>0</v>
+      </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>1</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
+      <c r="BQ116">
+        <v>0</v>
+      </c>
+      <c r="BR116">
+        <v>0</v>
+      </c>
+      <c r="BS116">
+        <v>0</v>
+      </c>
+      <c r="BT116">
+        <v>0</v>
+      </c>
+      <c r="BU116">
+        <v>0</v>
+      </c>
+      <c r="BV116">
+        <v>0</v>
+      </c>
+      <c r="BW116">
+        <v>0</v>
+      </c>
+      <c r="BX116">
+        <v>0</v>
+      </c>
+      <c r="BY116">
+        <v>0</v>
+      </c>
+      <c r="BZ116">
+        <v>0</v>
+      </c>
+      <c r="CA116">
+        <v>0</v>
+      </c>
+      <c r="CB116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="117" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>181</v>
       </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>4</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
+        <v>2</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>0</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
+        <v>0</v>
+      </c>
+      <c r="AQ117">
+        <v>0</v>
+      </c>
+      <c r="AR117">
+        <v>0</v>
+      </c>
+      <c r="AS117">
+        <v>0</v>
+      </c>
+      <c r="AT117">
+        <v>0</v>
+      </c>
+      <c r="AU117">
+        <v>0</v>
+      </c>
+      <c r="AV117">
+        <v>0</v>
+      </c>
+      <c r="AW117">
+        <v>0</v>
+      </c>
+      <c r="AX117">
+        <v>0</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
+      <c r="AZ117">
+        <v>0</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>0</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>2</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>2</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
+      <c r="BQ117">
+        <v>0</v>
+      </c>
+      <c r="BR117">
+        <v>0</v>
+      </c>
+      <c r="BS117">
+        <v>0</v>
+      </c>
+      <c r="BT117">
+        <v>0</v>
+      </c>
+      <c r="BU117">
+        <v>0</v>
+      </c>
+      <c r="BV117">
+        <v>0</v>
+      </c>
+      <c r="BW117">
+        <v>0</v>
+      </c>
+      <c r="BX117">
+        <v>0</v>
+      </c>
+      <c r="BY117">
+        <v>0</v>
+      </c>
+      <c r="BZ117">
+        <v>0</v>
+      </c>
+      <c r="CA117">
+        <v>0</v>
+      </c>
+      <c r="CB117">
+        <v>2</v>
+      </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="118" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>184</v>
       </c>
+      <c r="C118">
+        <v>76</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>8</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>6</v>
+      </c>
+      <c r="N118">
+        <v>8</v>
+      </c>
+      <c r="O118">
+        <v>8</v>
+      </c>
+      <c r="P118">
+        <v>4</v>
+      </c>
+      <c r="Q118">
+        <v>15</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+      <c r="T118">
+        <v>1</v>
+      </c>
+      <c r="U118">
+        <v>1</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>2</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>1</v>
+      </c>
+      <c r="AB118">
+        <v>1</v>
+      </c>
+      <c r="AC118">
+        <v>1</v>
+      </c>
+      <c r="AD118">
+        <v>2</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>2</v>
+      </c>
+      <c r="AL118">
+        <v>4</v>
+      </c>
+      <c r="AM118">
+        <v>2</v>
+      </c>
+      <c r="AN118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AP118">
+        <v>0</v>
+      </c>
+      <c r="AQ118">
+        <v>0</v>
+      </c>
+      <c r="AR118">
+        <v>0</v>
+      </c>
+      <c r="AS118">
+        <v>0</v>
+      </c>
+      <c r="AT118">
+        <v>0</v>
+      </c>
+      <c r="AU118">
+        <v>0</v>
+      </c>
+      <c r="AV118">
+        <v>0</v>
+      </c>
+      <c r="AW118">
+        <v>0</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>0</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>0</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>0</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>0</v>
+      </c>
+      <c r="BJ118">
+        <v>1</v>
+      </c>
+      <c r="BK118">
+        <v>2</v>
+      </c>
+      <c r="BL118">
+        <v>1</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>2</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
+      <c r="BQ118">
+        <v>0</v>
+      </c>
+      <c r="BR118">
+        <v>0</v>
+      </c>
+      <c r="BS118">
+        <v>0</v>
+      </c>
+      <c r="BT118">
+        <v>0</v>
+      </c>
+      <c r="BU118">
+        <v>0</v>
+      </c>
+      <c r="BV118">
+        <v>0</v>
+      </c>
+      <c r="BW118">
+        <v>0</v>
+      </c>
+      <c r="BX118">
+        <v>0</v>
+      </c>
+      <c r="BY118">
+        <v>0</v>
+      </c>
+      <c r="BZ118">
+        <v>0</v>
+      </c>
+      <c r="CA118">
+        <v>0</v>
+      </c>
+      <c r="CB118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="119" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>186</v>
       </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>0</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AP119">
+        <v>0</v>
+      </c>
+      <c r="AQ119">
+        <v>0</v>
+      </c>
+      <c r="AR119">
+        <v>0</v>
+      </c>
+      <c r="AS119">
+        <v>0</v>
+      </c>
+      <c r="AT119">
+        <v>0</v>
+      </c>
+      <c r="AU119">
+        <v>0</v>
+      </c>
+      <c r="AV119">
+        <v>0</v>
+      </c>
+      <c r="AW119">
+        <v>0</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>0</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>1</v>
+      </c>
+      <c r="BJ119">
+        <v>3</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+      <c r="BQ119">
+        <v>0</v>
+      </c>
+      <c r="BR119">
+        <v>0</v>
+      </c>
+      <c r="BS119">
+        <v>0</v>
+      </c>
+      <c r="BT119">
+        <v>0</v>
+      </c>
+      <c r="BU119">
+        <v>0</v>
+      </c>
+      <c r="BV119">
+        <v>0</v>
+      </c>
+      <c r="BW119">
+        <v>0</v>
+      </c>
+      <c r="BX119">
+        <v>0</v>
+      </c>
+      <c r="BY119">
+        <v>0</v>
+      </c>
+      <c r="BZ119">
+        <v>0</v>
+      </c>
+      <c r="CA119">
+        <v>0</v>
+      </c>
+      <c r="CB119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="120" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>187</v>
       </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>0</v>
+      </c>
+      <c r="AQ120">
+        <v>0</v>
+      </c>
+      <c r="AR120">
+        <v>0</v>
+      </c>
+      <c r="AS120">
+        <v>0</v>
+      </c>
+      <c r="AT120">
+        <v>0</v>
+      </c>
+      <c r="AU120">
+        <v>0</v>
+      </c>
+      <c r="AV120">
+        <v>0</v>
+      </c>
+      <c r="AW120">
+        <v>0</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>0</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>0</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>2</v>
+      </c>
+      <c r="BK120">
+        <v>0</v>
+      </c>
+      <c r="BL120">
+        <v>0</v>
+      </c>
+      <c r="BM120">
+        <v>0</v>
+      </c>
+      <c r="BN120">
+        <v>0</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
+        <v>0</v>
+      </c>
+      <c r="BQ120">
+        <v>0</v>
+      </c>
+      <c r="BR120">
+        <v>0</v>
+      </c>
+      <c r="BS120">
+        <v>0</v>
+      </c>
+      <c r="BT120">
+        <v>0</v>
+      </c>
+      <c r="BU120">
+        <v>0</v>
+      </c>
+      <c r="BV120">
+        <v>0</v>
+      </c>
+      <c r="BW120">
+        <v>0</v>
+      </c>
+      <c r="BX120">
+        <v>0</v>
+      </c>
+      <c r="BY120">
+        <v>0</v>
+      </c>
+      <c r="BZ120">
+        <v>0</v>
+      </c>
+      <c r="CA120">
+        <v>0</v>
+      </c>
+      <c r="CB120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="121" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>189</v>
       </c>
+      <c r="C121">
+        <v>161</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>6</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121">
+        <v>12</v>
+      </c>
+      <c r="H121">
+        <v>10</v>
+      </c>
+      <c r="I121">
+        <v>11</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>2</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>1</v>
+      </c>
+      <c r="T121">
+        <v>5</v>
+      </c>
+      <c r="U121">
+        <v>1</v>
+      </c>
+      <c r="V121">
+        <v>12</v>
+      </c>
+      <c r="W121">
+        <v>5</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>15</v>
+      </c>
+      <c r="Z121">
+        <v>1</v>
+      </c>
+      <c r="AA121">
+        <v>2</v>
+      </c>
+      <c r="AB121">
+        <v>1</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>2</v>
+      </c>
+      <c r="AK121">
+        <v>14</v>
+      </c>
+      <c r="AL121">
+        <v>2</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>2</v>
+      </c>
+      <c r="AP121">
+        <v>2</v>
+      </c>
+      <c r="AQ121">
+        <v>0</v>
+      </c>
+      <c r="AR121">
+        <v>1</v>
+      </c>
+      <c r="AS121">
+        <v>12</v>
+      </c>
+      <c r="AT121">
+        <v>10</v>
+      </c>
+      <c r="AU121">
+        <v>0</v>
+      </c>
+      <c r="AV121">
+        <v>0</v>
+      </c>
+      <c r="AW121">
+        <v>0</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
+        <v>1</v>
+      </c>
+      <c r="BK121">
+        <v>0</v>
+      </c>
+      <c r="BL121">
+        <v>3</v>
+      </c>
+      <c r="BM121">
+        <v>0</v>
+      </c>
+      <c r="BN121">
+        <v>0</v>
+      </c>
+      <c r="BO121">
+        <v>0</v>
+      </c>
+      <c r="BP121">
+        <v>0</v>
+      </c>
+      <c r="BQ121">
+        <v>0</v>
+      </c>
+      <c r="BR121">
+        <v>0</v>
+      </c>
+      <c r="BS121">
+        <v>0</v>
+      </c>
+      <c r="BT121">
+        <v>0</v>
+      </c>
+      <c r="BU121">
+        <v>0</v>
+      </c>
+      <c r="BV121">
+        <v>0</v>
+      </c>
+      <c r="BW121">
+        <v>0</v>
+      </c>
+      <c r="BX121">
+        <v>0</v>
+      </c>
+      <c r="BY121">
+        <v>0</v>
+      </c>
+      <c r="BZ121">
+        <v>0</v>
+      </c>
+      <c r="CA121">
+        <v>0</v>
+      </c>
+      <c r="CB121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="122" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="123" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>192</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="124" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="125" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="126" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="127" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="128" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>199</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>460</v>
       </c>
     </row>

--- a/Lovejoy_data_table_tree_frequency.xlsx
+++ b/Lovejoy_data_table_tree_frequency.xlsx
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI96" workbookViewId="0">
-      <selection activeCell="CC117" sqref="CC117"/>
+    <sheetView tabSelected="1" topLeftCell="AE122" workbookViewId="0">
+      <selection activeCell="AR142" sqref="AR142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29284,193 +29284,6103 @@
       <c r="A122">
         <v>190</v>
       </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>4</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
+      <c r="AQ122">
+        <v>0</v>
+      </c>
+      <c r="AR122">
+        <v>0</v>
+      </c>
+      <c r="AS122">
+        <v>0</v>
+      </c>
+      <c r="AT122">
+        <v>0</v>
+      </c>
+      <c r="AU122">
+        <v>0</v>
+      </c>
+      <c r="AV122">
+        <v>0</v>
+      </c>
+      <c r="AW122">
+        <v>0</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>0</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+      <c r="BQ122">
+        <v>0</v>
+      </c>
+      <c r="BR122">
+        <v>0</v>
+      </c>
+      <c r="BS122">
+        <v>0</v>
+      </c>
+      <c r="BT122">
+        <v>0</v>
+      </c>
+      <c r="BU122">
+        <v>0</v>
+      </c>
+      <c r="BV122">
+        <v>0</v>
+      </c>
+      <c r="BW122">
+        <v>0</v>
+      </c>
+      <c r="BX122">
+        <v>0</v>
+      </c>
+      <c r="BY122">
+        <v>0</v>
+      </c>
+      <c r="BZ122">
+        <v>0</v>
+      </c>
+      <c r="CA122">
+        <v>0</v>
+      </c>
+      <c r="CB122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>192</v>
       </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+      <c r="AF123">
+        <v>0</v>
+      </c>
+      <c r="AG123">
+        <v>0</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>4</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>0</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
+      <c r="AQ123">
+        <v>0</v>
+      </c>
+      <c r="AR123">
+        <v>0</v>
+      </c>
+      <c r="AS123">
+        <v>0</v>
+      </c>
+      <c r="AT123">
+        <v>0</v>
+      </c>
+      <c r="AU123">
+        <v>0</v>
+      </c>
+      <c r="AV123">
+        <v>0</v>
+      </c>
+      <c r="AW123">
+        <v>0</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>0</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>0</v>
+      </c>
+      <c r="BG123">
+        <v>1</v>
+      </c>
+      <c r="BH123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BK123">
+        <v>0</v>
+      </c>
+      <c r="BL123">
+        <v>1</v>
+      </c>
+      <c r="BM123">
+        <v>0</v>
+      </c>
+      <c r="BN123">
+        <v>0</v>
+      </c>
+      <c r="BO123">
+        <v>2</v>
+      </c>
+      <c r="BP123">
+        <v>0</v>
+      </c>
+      <c r="BQ123">
+        <v>0</v>
+      </c>
+      <c r="BR123">
+        <v>0</v>
+      </c>
+      <c r="BS123">
+        <v>0</v>
+      </c>
+      <c r="BT123">
+        <v>0</v>
+      </c>
+      <c r="BU123">
+        <v>0</v>
+      </c>
+      <c r="BV123">
+        <v>0</v>
+      </c>
+      <c r="BW123">
+        <v>0</v>
+      </c>
+      <c r="BX123">
+        <v>0</v>
+      </c>
+      <c r="BY123">
+        <v>0</v>
+      </c>
+      <c r="BZ123">
+        <v>0</v>
+      </c>
+      <c r="CA123">
+        <v>0</v>
+      </c>
+      <c r="CB123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>194</v>
       </c>
+      <c r="C124">
+        <v>65</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>6</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124">
+        <v>2</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>2</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>4</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>0</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>2</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>2</v>
+      </c>
+      <c r="AL124">
+        <v>2</v>
+      </c>
+      <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>4</v>
+      </c>
+      <c r="AP124">
+        <v>3</v>
+      </c>
+      <c r="AQ124">
+        <v>0</v>
+      </c>
+      <c r="AR124">
+        <v>0</v>
+      </c>
+      <c r="AS124">
+        <v>0</v>
+      </c>
+      <c r="AT124">
+        <v>0</v>
+      </c>
+      <c r="AU124">
+        <v>2</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>1</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>4</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>3</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>1</v>
+      </c>
+      <c r="BJ124">
+        <v>1</v>
+      </c>
+      <c r="BK124">
+        <v>1</v>
+      </c>
+      <c r="BL124">
+        <v>0</v>
+      </c>
+      <c r="BM124">
+        <v>2</v>
+      </c>
+      <c r="BN124">
+        <v>1</v>
+      </c>
+      <c r="BO124">
+        <v>1</v>
+      </c>
+      <c r="BP124">
+        <v>0</v>
+      </c>
+      <c r="BQ124">
+        <v>0</v>
+      </c>
+      <c r="BR124">
+        <v>0</v>
+      </c>
+      <c r="BS124">
+        <v>0</v>
+      </c>
+      <c r="BT124">
+        <v>0</v>
+      </c>
+      <c r="BU124">
+        <v>0</v>
+      </c>
+      <c r="BV124">
+        <v>0</v>
+      </c>
+      <c r="BW124">
+        <v>0</v>
+      </c>
+      <c r="BX124">
+        <v>0</v>
+      </c>
+      <c r="BY124">
+        <v>0</v>
+      </c>
+      <c r="BZ124">
+        <v>0</v>
+      </c>
+      <c r="CA124">
+        <v>0</v>
+      </c>
+      <c r="CB124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>195</v>
       </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>0</v>
+      </c>
+      <c r="AF125">
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>4</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>0</v>
+      </c>
+      <c r="AO125">
+        <v>0</v>
+      </c>
+      <c r="AP125">
+        <v>0</v>
+      </c>
+      <c r="AQ125">
+        <v>0</v>
+      </c>
+      <c r="AR125">
+        <v>0</v>
+      </c>
+      <c r="AS125">
+        <v>0</v>
+      </c>
+      <c r="AT125">
+        <v>0</v>
+      </c>
+      <c r="AU125">
+        <v>0</v>
+      </c>
+      <c r="AV125">
+        <v>0</v>
+      </c>
+      <c r="AW125">
+        <v>0</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>0</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>0</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>0</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>0</v>
+      </c>
+      <c r="BJ125">
+        <v>0</v>
+      </c>
+      <c r="BK125">
+        <v>0</v>
+      </c>
+      <c r="BL125">
+        <v>0</v>
+      </c>
+      <c r="BM125">
+        <v>0</v>
+      </c>
+      <c r="BN125">
+        <v>0</v>
+      </c>
+      <c r="BO125">
+        <v>0</v>
+      </c>
+      <c r="BP125">
+        <v>0</v>
+      </c>
+      <c r="BQ125">
+        <v>0</v>
+      </c>
+      <c r="BR125">
+        <v>0</v>
+      </c>
+      <c r="BS125">
+        <v>0</v>
+      </c>
+      <c r="BT125">
+        <v>0</v>
+      </c>
+      <c r="BU125">
+        <v>0</v>
+      </c>
+      <c r="BV125">
+        <v>0</v>
+      </c>
+      <c r="BW125">
+        <v>0</v>
+      </c>
+      <c r="BX125">
+        <v>0</v>
+      </c>
+      <c r="BY125">
+        <v>0</v>
+      </c>
+      <c r="BZ125">
+        <v>0</v>
+      </c>
+      <c r="CA125">
+        <v>0</v>
+      </c>
+      <c r="CB125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>197</v>
       </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
+        <v>0</v>
+      </c>
+      <c r="AQ126">
+        <v>0</v>
+      </c>
+      <c r="AR126">
+        <v>0</v>
+      </c>
+      <c r="AS126">
+        <v>0</v>
+      </c>
+      <c r="AT126">
+        <v>0</v>
+      </c>
+      <c r="AU126">
+        <v>0</v>
+      </c>
+      <c r="AV126">
+        <v>0</v>
+      </c>
+      <c r="AW126">
+        <v>0</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>0</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>0</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>1</v>
+      </c>
+      <c r="BJ126">
+        <v>0</v>
+      </c>
+      <c r="BK126">
+        <v>1</v>
+      </c>
+      <c r="BL126">
+        <v>0</v>
+      </c>
+      <c r="BM126">
+        <v>0</v>
+      </c>
+      <c r="BN126">
+        <v>1</v>
+      </c>
+      <c r="BO126">
+        <v>0</v>
+      </c>
+      <c r="BP126">
+        <v>0</v>
+      </c>
+      <c r="BQ126">
+        <v>0</v>
+      </c>
+      <c r="BR126">
+        <v>0</v>
+      </c>
+      <c r="BS126">
+        <v>0</v>
+      </c>
+      <c r="BT126">
+        <v>0</v>
+      </c>
+      <c r="BU126">
+        <v>0</v>
+      </c>
+      <c r="BV126">
+        <v>0</v>
+      </c>
+      <c r="BW126">
+        <v>0</v>
+      </c>
+      <c r="BX126">
+        <v>0</v>
+      </c>
+      <c r="BY126">
+        <v>0</v>
+      </c>
+      <c r="BZ126">
+        <v>0</v>
+      </c>
+      <c r="CA126">
+        <v>0</v>
+      </c>
+      <c r="CB126">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>198</v>
       </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>0</v>
+      </c>
+      <c r="AO127">
+        <v>2</v>
+      </c>
+      <c r="AP127">
+        <v>0</v>
+      </c>
+      <c r="AQ127">
+        <v>0</v>
+      </c>
+      <c r="AR127">
+        <v>0</v>
+      </c>
+      <c r="AS127">
+        <v>0</v>
+      </c>
+      <c r="AT127">
+        <v>0</v>
+      </c>
+      <c r="AU127">
+        <v>0</v>
+      </c>
+      <c r="AV127">
+        <v>1</v>
+      </c>
+      <c r="AW127">
+        <v>0</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>2</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>0</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>0</v>
+      </c>
+      <c r="BJ127">
+        <v>0</v>
+      </c>
+      <c r="BK127">
+        <v>0</v>
+      </c>
+      <c r="BL127">
+        <v>0</v>
+      </c>
+      <c r="BM127">
+        <v>0</v>
+      </c>
+      <c r="BN127">
+        <v>0</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BP127">
+        <v>0</v>
+      </c>
+      <c r="BQ127">
+        <v>0</v>
+      </c>
+      <c r="BR127">
+        <v>0</v>
+      </c>
+      <c r="BS127">
+        <v>0</v>
+      </c>
+      <c r="BT127">
+        <v>0</v>
+      </c>
+      <c r="BU127">
+        <v>0</v>
+      </c>
+      <c r="BV127">
+        <v>0</v>
+      </c>
+      <c r="BW127">
+        <v>0</v>
+      </c>
+      <c r="BX127">
+        <v>0</v>
+      </c>
+      <c r="BY127">
+        <v>0</v>
+      </c>
+      <c r="BZ127">
+        <v>0</v>
+      </c>
+      <c r="CA127">
+        <v>0</v>
+      </c>
+      <c r="CB127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>199</v>
       </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>2</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>2</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>1</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>0</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AP128">
+        <v>0</v>
+      </c>
+      <c r="AQ128">
+        <v>0</v>
+      </c>
+      <c r="AR128">
+        <v>2</v>
+      </c>
+      <c r="AS128">
+        <v>0</v>
+      </c>
+      <c r="AT128">
+        <v>0</v>
+      </c>
+      <c r="AU128">
+        <v>0</v>
+      </c>
+      <c r="AV128">
+        <v>0</v>
+      </c>
+      <c r="AW128">
+        <v>0</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>3</v>
+      </c>
+      <c r="BG128">
+        <v>1</v>
+      </c>
+      <c r="BH128">
+        <v>1</v>
+      </c>
+      <c r="BI128">
+        <v>0</v>
+      </c>
+      <c r="BJ128">
+        <v>0</v>
+      </c>
+      <c r="BK128">
+        <v>0</v>
+      </c>
+      <c r="BL128">
+        <v>0</v>
+      </c>
+      <c r="BM128">
+        <v>1</v>
+      </c>
+      <c r="BN128">
+        <v>0</v>
+      </c>
+      <c r="BO128">
+        <v>2</v>
+      </c>
+      <c r="BP128">
+        <v>0</v>
+      </c>
+      <c r="BQ128">
+        <v>0</v>
+      </c>
+      <c r="BR128">
+        <v>0</v>
+      </c>
+      <c r="BS128">
+        <v>0</v>
+      </c>
+      <c r="BT128">
+        <v>0</v>
+      </c>
+      <c r="BU128">
+        <v>0</v>
+      </c>
+      <c r="BV128">
+        <v>0</v>
+      </c>
+      <c r="BW128">
+        <v>0</v>
+      </c>
+      <c r="BX128">
+        <v>0</v>
+      </c>
+      <c r="BY128">
+        <v>0</v>
+      </c>
+      <c r="BZ128">
+        <v>0</v>
+      </c>
+      <c r="CA128">
+        <v>0</v>
+      </c>
+      <c r="CB128">
+        <v>1</v>
+      </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>201</v>
       </c>
+      <c r="C129">
+        <v>122</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>9</v>
+      </c>
+      <c r="N129">
+        <v>11</v>
+      </c>
+      <c r="O129">
+        <v>2</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>10</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>1</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>3</v>
+      </c>
+      <c r="Y129">
+        <v>2</v>
+      </c>
+      <c r="Z129">
+        <v>6</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
+      <c r="AD129">
+        <v>2</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <v>1</v>
+      </c>
+      <c r="AG129">
+        <v>2</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>6</v>
+      </c>
+      <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>4</v>
+      </c>
+      <c r="AL129">
+        <v>16</v>
+      </c>
+      <c r="AM129">
+        <v>16</v>
+      </c>
+      <c r="AN129">
+        <v>4</v>
+      </c>
+      <c r="AO129">
+        <v>2</v>
+      </c>
+      <c r="AP129">
+        <v>2</v>
+      </c>
+      <c r="AQ129">
+        <v>0</v>
+      </c>
+      <c r="AR129">
+        <v>0</v>
+      </c>
+      <c r="AS129">
+        <v>0</v>
+      </c>
+      <c r="AT129">
+        <v>0</v>
+      </c>
+      <c r="AU129">
+        <v>0</v>
+      </c>
+      <c r="AV129">
+        <v>1</v>
+      </c>
+      <c r="AW129">
+        <v>0</v>
+      </c>
+      <c r="AX129">
+        <v>1</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>2</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>2</v>
+      </c>
+      <c r="BC129">
+        <v>0</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>1</v>
+      </c>
+      <c r="BF129">
+        <v>1</v>
+      </c>
+      <c r="BG129">
+        <v>0</v>
+      </c>
+      <c r="BH129">
+        <v>2</v>
+      </c>
+      <c r="BI129">
+        <v>1</v>
+      </c>
+      <c r="BJ129">
+        <v>0</v>
+      </c>
+      <c r="BK129">
+        <v>0</v>
+      </c>
+      <c r="BL129">
+        <v>2</v>
+      </c>
+      <c r="BM129">
+        <v>1</v>
+      </c>
+      <c r="BN129">
+        <v>1</v>
+      </c>
+      <c r="BO129">
+        <v>1</v>
+      </c>
+      <c r="BP129">
+        <v>0</v>
+      </c>
+      <c r="BQ129">
+        <v>0</v>
+      </c>
+      <c r="BR129">
+        <v>0</v>
+      </c>
+      <c r="BS129">
+        <v>0</v>
+      </c>
+      <c r="BT129">
+        <v>0</v>
+      </c>
+      <c r="BU129">
+        <v>0</v>
+      </c>
+      <c r="BV129">
+        <v>0</v>
+      </c>
+      <c r="BW129">
+        <v>0</v>
+      </c>
+      <c r="BX129">
+        <v>0</v>
+      </c>
+      <c r="BY129">
+        <v>0</v>
+      </c>
+      <c r="BZ129">
+        <v>0</v>
+      </c>
+      <c r="CA129">
+        <v>0</v>
+      </c>
+      <c r="CB129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>202</v>
       </c>
+      <c r="C130">
+        <v>42</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>2</v>
+      </c>
+      <c r="Q130">
+        <v>5</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>2</v>
+      </c>
+      <c r="Y130">
+        <v>2</v>
+      </c>
+      <c r="Z130">
+        <v>1</v>
+      </c>
+      <c r="AA130">
+        <v>4</v>
+      </c>
+      <c r="AB130">
+        <v>1</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
+      <c r="AD130">
+        <v>1</v>
+      </c>
+      <c r="AE130">
+        <v>1</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>0</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0</v>
+      </c>
+      <c r="AP130">
+        <v>0</v>
+      </c>
+      <c r="AQ130">
+        <v>0</v>
+      </c>
+      <c r="AR130">
+        <v>0</v>
+      </c>
+      <c r="AS130">
+        <v>0</v>
+      </c>
+      <c r="AT130">
+        <v>0</v>
+      </c>
+      <c r="AU130">
+        <v>0</v>
+      </c>
+      <c r="AV130">
+        <v>0</v>
+      </c>
+      <c r="AW130">
+        <v>0</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>3</v>
+      </c>
+      <c r="BG130">
+        <v>2</v>
+      </c>
+      <c r="BH130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
+        <v>1</v>
+      </c>
+      <c r="BJ130">
+        <v>3</v>
+      </c>
+      <c r="BK130">
+        <v>0</v>
+      </c>
+      <c r="BL130">
+        <v>0</v>
+      </c>
+      <c r="BM130">
+        <v>2</v>
+      </c>
+      <c r="BN130">
+        <v>2</v>
+      </c>
+      <c r="BO130">
+        <v>0</v>
+      </c>
+      <c r="BP130">
+        <v>0</v>
+      </c>
+      <c r="BQ130">
+        <v>0</v>
+      </c>
+      <c r="BR130">
+        <v>0</v>
+      </c>
+      <c r="BS130">
+        <v>0</v>
+      </c>
+      <c r="BT130">
+        <v>0</v>
+      </c>
+      <c r="BU130">
+        <v>0</v>
+      </c>
+      <c r="BV130">
+        <v>0</v>
+      </c>
+      <c r="BW130">
+        <v>0</v>
+      </c>
+      <c r="BX130">
+        <v>0</v>
+      </c>
+      <c r="BY130">
+        <v>0</v>
+      </c>
+      <c r="BZ130">
+        <v>0</v>
+      </c>
+      <c r="CA130">
+        <v>0</v>
+      </c>
+      <c r="CB130">
+        <v>1</v>
+      </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>203</v>
       </c>
+      <c r="C131">
+        <v>20</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>0</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>0</v>
+      </c>
+      <c r="AQ131">
+        <v>0</v>
+      </c>
+      <c r="AR131">
+        <v>0</v>
+      </c>
+      <c r="AS131">
+        <v>0</v>
+      </c>
+      <c r="AT131">
+        <v>0</v>
+      </c>
+      <c r="AU131">
+        <v>0</v>
+      </c>
+      <c r="AV131">
+        <v>0</v>
+      </c>
+      <c r="AW131">
+        <v>0</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>2</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>6</v>
+      </c>
+      <c r="BJ131">
+        <v>1</v>
+      </c>
+      <c r="BK131">
+        <v>1</v>
+      </c>
+      <c r="BL131">
+        <v>0</v>
+      </c>
+      <c r="BM131">
+        <v>5</v>
+      </c>
+      <c r="BN131">
+        <v>2</v>
+      </c>
+      <c r="BO131">
+        <v>3</v>
+      </c>
+      <c r="BP131">
+        <v>0</v>
+      </c>
+      <c r="BQ131">
+        <v>0</v>
+      </c>
+      <c r="BR131">
+        <v>0</v>
+      </c>
+      <c r="BS131">
+        <v>0</v>
+      </c>
+      <c r="BT131">
+        <v>0</v>
+      </c>
+      <c r="BU131">
+        <v>0</v>
+      </c>
+      <c r="BV131">
+        <v>0</v>
+      </c>
+      <c r="BW131">
+        <v>0</v>
+      </c>
+      <c r="BX131">
+        <v>0</v>
+      </c>
+      <c r="BY131">
+        <v>0</v>
+      </c>
+      <c r="BZ131">
+        <v>0</v>
+      </c>
+      <c r="CA131">
+        <v>0</v>
+      </c>
+      <c r="CB131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>204</v>
       </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AP132">
+        <v>0</v>
+      </c>
+      <c r="AQ132">
+        <v>0</v>
+      </c>
+      <c r="AR132">
+        <v>0</v>
+      </c>
+      <c r="AS132">
+        <v>0</v>
+      </c>
+      <c r="AT132">
+        <v>0</v>
+      </c>
+      <c r="AU132">
+        <v>0</v>
+      </c>
+      <c r="AV132">
+        <v>0</v>
+      </c>
+      <c r="AW132">
+        <v>0</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>0</v>
+      </c>
+      <c r="BJ132">
+        <v>1</v>
+      </c>
+      <c r="BK132">
+        <v>0</v>
+      </c>
+      <c r="BL132">
+        <v>0</v>
+      </c>
+      <c r="BM132">
+        <v>1</v>
+      </c>
+      <c r="BN132">
+        <v>0</v>
+      </c>
+      <c r="BO132">
+        <v>0</v>
+      </c>
+      <c r="BP132">
+        <v>0</v>
+      </c>
+      <c r="BQ132">
+        <v>0</v>
+      </c>
+      <c r="BR132">
+        <v>0</v>
+      </c>
+      <c r="BS132">
+        <v>1</v>
+      </c>
+      <c r="BT132">
+        <v>0</v>
+      </c>
+      <c r="BU132">
+        <v>0</v>
+      </c>
+      <c r="BV132">
+        <v>0</v>
+      </c>
+      <c r="BW132">
+        <v>0</v>
+      </c>
+      <c r="BX132">
+        <v>0</v>
+      </c>
+      <c r="BY132">
+        <v>0</v>
+      </c>
+      <c r="BZ132">
+        <v>0</v>
+      </c>
+      <c r="CA132">
+        <v>0</v>
+      </c>
+      <c r="CB132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>205</v>
       </c>
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>8</v>
+      </c>
+      <c r="M133">
+        <v>7</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133">
+        <v>4</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>3</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>1</v>
+      </c>
+      <c r="AB133">
+        <v>1</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>1</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
+      <c r="AQ133">
+        <v>0</v>
+      </c>
+      <c r="AR133">
+        <v>0</v>
+      </c>
+      <c r="AS133">
+        <v>0</v>
+      </c>
+      <c r="AT133">
+        <v>0</v>
+      </c>
+      <c r="AU133">
+        <v>0</v>
+      </c>
+      <c r="AV133">
+        <v>0</v>
+      </c>
+      <c r="AW133">
+        <v>0</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>0</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>5</v>
+      </c>
+      <c r="BG133">
+        <v>1</v>
+      </c>
+      <c r="BH133">
+        <v>1</v>
+      </c>
+      <c r="BI133">
+        <v>2</v>
+      </c>
+      <c r="BJ133">
+        <v>0</v>
+      </c>
+      <c r="BK133">
+        <v>0</v>
+      </c>
+      <c r="BL133">
+        <v>0</v>
+      </c>
+      <c r="BM133">
+        <v>1</v>
+      </c>
+      <c r="BN133">
+        <v>2</v>
+      </c>
+      <c r="BO133">
+        <v>5</v>
+      </c>
+      <c r="BP133">
+        <v>0</v>
+      </c>
+      <c r="BQ133">
+        <v>0</v>
+      </c>
+      <c r="BR133">
+        <v>0</v>
+      </c>
+      <c r="BS133">
+        <v>0</v>
+      </c>
+      <c r="BT133">
+        <v>0</v>
+      </c>
+      <c r="BU133">
+        <v>0</v>
+      </c>
+      <c r="BV133">
+        <v>0</v>
+      </c>
+      <c r="BW133">
+        <v>0</v>
+      </c>
+      <c r="BX133">
+        <v>0</v>
+      </c>
+      <c r="BY133">
+        <v>0</v>
+      </c>
+      <c r="BZ133">
+        <v>0</v>
+      </c>
+      <c r="CA133">
+        <v>0</v>
+      </c>
+      <c r="CB133">
+        <v>1</v>
+      </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>208</v>
       </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+      <c r="AC134">
+        <v>0</v>
+      </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
+      <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>0</v>
+      </c>
+      <c r="AO134">
+        <v>0</v>
+      </c>
+      <c r="AP134">
+        <v>0</v>
+      </c>
+      <c r="AQ134">
+        <v>0</v>
+      </c>
+      <c r="AR134">
+        <v>0</v>
+      </c>
+      <c r="AS134">
+        <v>0</v>
+      </c>
+      <c r="AT134">
+        <v>0</v>
+      </c>
+      <c r="AU134">
+        <v>0</v>
+      </c>
+      <c r="AV134">
+        <v>0</v>
+      </c>
+      <c r="AW134">
+        <v>0</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>2</v>
+      </c>
+      <c r="BG134">
+        <v>1</v>
+      </c>
+      <c r="BH134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>2</v>
+      </c>
+      <c r="BJ134">
+        <v>0</v>
+      </c>
+      <c r="BK134">
+        <v>1</v>
+      </c>
+      <c r="BL134">
+        <v>0</v>
+      </c>
+      <c r="BM134">
+        <v>0</v>
+      </c>
+      <c r="BN134">
+        <v>0</v>
+      </c>
+      <c r="BO134">
+        <v>3</v>
+      </c>
+      <c r="BP134">
+        <v>0</v>
+      </c>
+      <c r="BQ134">
+        <v>0</v>
+      </c>
+      <c r="BR134">
+        <v>0</v>
+      </c>
+      <c r="BS134">
+        <v>0</v>
+      </c>
+      <c r="BT134">
+        <v>0</v>
+      </c>
+      <c r="BU134">
+        <v>0</v>
+      </c>
+      <c r="BV134">
+        <v>0</v>
+      </c>
+      <c r="BW134">
+        <v>0</v>
+      </c>
+      <c r="BX134">
+        <v>0</v>
+      </c>
+      <c r="BY134">
+        <v>0</v>
+      </c>
+      <c r="BZ134">
+        <v>0</v>
+      </c>
+      <c r="CA134">
+        <v>0</v>
+      </c>
+      <c r="CB134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>209</v>
       </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>0</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AP135">
+        <v>0</v>
+      </c>
+      <c r="AQ135">
+        <v>0</v>
+      </c>
+      <c r="AR135">
+        <v>0</v>
+      </c>
+      <c r="AS135">
+        <v>0</v>
+      </c>
+      <c r="AT135">
+        <v>0</v>
+      </c>
+      <c r="AU135">
+        <v>0</v>
+      </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>0</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>0</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>1</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BH135">
+        <v>1</v>
+      </c>
+      <c r="BI135">
+        <v>1</v>
+      </c>
+      <c r="BJ135">
+        <v>3</v>
+      </c>
+      <c r="BK135">
+        <v>0</v>
+      </c>
+      <c r="BL135">
+        <v>0</v>
+      </c>
+      <c r="BM135">
+        <v>0</v>
+      </c>
+      <c r="BN135">
+        <v>0</v>
+      </c>
+      <c r="BO135">
+        <v>1</v>
+      </c>
+      <c r="BP135">
+        <v>0</v>
+      </c>
+      <c r="BQ135">
+        <v>0</v>
+      </c>
+      <c r="BR135">
+        <v>0</v>
+      </c>
+      <c r="BS135">
+        <v>0</v>
+      </c>
+      <c r="BT135">
+        <v>0</v>
+      </c>
+      <c r="BU135">
+        <v>0</v>
+      </c>
+      <c r="BV135">
+        <v>0</v>
+      </c>
+      <c r="BW135">
+        <v>0</v>
+      </c>
+      <c r="BX135">
+        <v>0</v>
+      </c>
+      <c r="BY135">
+        <v>0</v>
+      </c>
+      <c r="BZ135">
+        <v>0</v>
+      </c>
+      <c r="CA135">
+        <v>0</v>
+      </c>
+      <c r="CB135">
+        <v>1</v>
+      </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>214</v>
       </c>
+      <c r="C136">
+        <v>101</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>8</v>
+      </c>
+      <c r="AA136">
+        <v>7</v>
+      </c>
+      <c r="AB136">
+        <v>9</v>
+      </c>
+      <c r="AC136">
+        <v>10</v>
+      </c>
+      <c r="AD136">
+        <v>1</v>
+      </c>
+      <c r="AE136">
+        <v>7</v>
+      </c>
+      <c r="AF136">
+        <v>1</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+      <c r="AH136">
+        <v>2</v>
+      </c>
+      <c r="AI136">
+        <v>2</v>
+      </c>
+      <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>0</v>
+      </c>
+      <c r="AO136">
+        <v>0</v>
+      </c>
+      <c r="AP136">
+        <v>0</v>
+      </c>
+      <c r="AQ136">
+        <v>3</v>
+      </c>
+      <c r="AR136">
+        <v>3</v>
+      </c>
+      <c r="AS136">
+        <v>0</v>
+      </c>
+      <c r="AT136">
+        <v>0</v>
+      </c>
+      <c r="AU136">
+        <v>0</v>
+      </c>
+      <c r="AV136">
+        <v>0</v>
+      </c>
+      <c r="AW136">
+        <v>0</v>
+      </c>
+      <c r="AX136">
+        <v>1</v>
+      </c>
+      <c r="AY136">
+        <v>2</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>1</v>
+      </c>
+      <c r="BB136">
+        <v>2</v>
+      </c>
+      <c r="BC136">
+        <v>1</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
+        <v>0</v>
+      </c>
+      <c r="BQ136">
+        <v>0</v>
+      </c>
+      <c r="BR136">
+        <v>0</v>
+      </c>
+      <c r="BS136">
+        <v>0</v>
+      </c>
+      <c r="BT136">
+        <v>1</v>
+      </c>
+      <c r="BU136">
+        <v>2</v>
+      </c>
+      <c r="BV136">
+        <v>8</v>
+      </c>
+      <c r="BW136">
+        <v>13</v>
+      </c>
+      <c r="BX136">
+        <v>2</v>
+      </c>
+      <c r="BY136">
+        <v>0</v>
+      </c>
+      <c r="BZ136">
+        <v>3</v>
+      </c>
+      <c r="CA136">
+        <v>12</v>
+      </c>
+      <c r="CB136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>215</v>
       </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>0</v>
+      </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
+      <c r="AQ137">
+        <v>0</v>
+      </c>
+      <c r="AR137">
+        <v>0</v>
+      </c>
+      <c r="AS137">
+        <v>0</v>
+      </c>
+      <c r="AT137">
+        <v>0</v>
+      </c>
+      <c r="AU137">
+        <v>0</v>
+      </c>
+      <c r="AV137">
+        <v>0</v>
+      </c>
+      <c r="AW137">
+        <v>0</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>1</v>
+      </c>
+      <c r="BG137">
+        <v>2</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>1</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
+        <v>0</v>
+      </c>
+      <c r="BQ137">
+        <v>0</v>
+      </c>
+      <c r="BR137">
+        <v>0</v>
+      </c>
+      <c r="BS137">
+        <v>0</v>
+      </c>
+      <c r="BT137">
+        <v>0</v>
+      </c>
+      <c r="BU137">
+        <v>0</v>
+      </c>
+      <c r="BV137">
+        <v>0</v>
+      </c>
+      <c r="BW137">
+        <v>0</v>
+      </c>
+      <c r="BX137">
+        <v>0</v>
+      </c>
+      <c r="BY137">
+        <v>0</v>
+      </c>
+      <c r="BZ137">
+        <v>0</v>
+      </c>
+      <c r="CA137">
+        <v>0</v>
+      </c>
+      <c r="CB137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>216</v>
       </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>0</v>
+      </c>
+      <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
+        <v>0</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <v>0</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>0</v>
+      </c>
+      <c r="AO138">
+        <v>0</v>
+      </c>
+      <c r="AP138">
+        <v>0</v>
+      </c>
+      <c r="AQ138">
+        <v>0</v>
+      </c>
+      <c r="AR138">
+        <v>0</v>
+      </c>
+      <c r="AS138">
+        <v>0</v>
+      </c>
+      <c r="AT138">
+        <v>2</v>
+      </c>
+      <c r="AU138">
+        <v>0</v>
+      </c>
+      <c r="AV138">
+        <v>0</v>
+      </c>
+      <c r="AW138">
+        <v>0</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BD138">
+        <v>1</v>
+      </c>
+      <c r="BE138">
+        <v>1</v>
+      </c>
+      <c r="BF138">
+        <v>1</v>
+      </c>
+      <c r="BG138">
+        <v>1</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>1</v>
+      </c>
+      <c r="BK138">
+        <v>1</v>
+      </c>
+      <c r="BL138">
+        <v>0</v>
+      </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>2</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
+      </c>
+      <c r="BQ138">
+        <v>0</v>
+      </c>
+      <c r="BR138">
+        <v>0</v>
+      </c>
+      <c r="BS138">
+        <v>0</v>
+      </c>
+      <c r="BT138">
+        <v>0</v>
+      </c>
+      <c r="BU138">
+        <v>0</v>
+      </c>
+      <c r="BV138">
+        <v>0</v>
+      </c>
+      <c r="BW138">
+        <v>0</v>
+      </c>
+      <c r="BX138">
+        <v>0</v>
+      </c>
+      <c r="BY138">
+        <v>0</v>
+      </c>
+      <c r="BZ138">
+        <v>0</v>
+      </c>
+      <c r="CA138">
+        <v>0</v>
+      </c>
+      <c r="CB138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>220</v>
       </c>
+      <c r="C139">
+        <v>14</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>2</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <v>0</v>
+      </c>
+      <c r="AD139">
+        <v>0</v>
+      </c>
+      <c r="AE139">
+        <v>0</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>0</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>0</v>
+      </c>
+      <c r="AQ139">
+        <v>0</v>
+      </c>
+      <c r="AR139">
+        <v>0</v>
+      </c>
+      <c r="AS139">
+        <v>1</v>
+      </c>
+      <c r="AT139">
+        <v>0</v>
+      </c>
+      <c r="AU139">
+        <v>3</v>
+      </c>
+      <c r="AV139">
+        <v>0</v>
+      </c>
+      <c r="AW139">
+        <v>0</v>
+      </c>
+      <c r="AX139">
+        <v>2</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>1</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>2</v>
+      </c>
+      <c r="BE139">
+        <v>2</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>0</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
+      </c>
+      <c r="BQ139">
+        <v>0</v>
+      </c>
+      <c r="BR139">
+        <v>0</v>
+      </c>
+      <c r="BS139">
+        <v>0</v>
+      </c>
+      <c r="BT139">
+        <v>0</v>
+      </c>
+      <c r="BU139">
+        <v>0</v>
+      </c>
+      <c r="BV139">
+        <v>0</v>
+      </c>
+      <c r="BW139">
+        <v>0</v>
+      </c>
+      <c r="BX139">
+        <v>0</v>
+      </c>
+      <c r="BY139">
+        <v>0</v>
+      </c>
+      <c r="BZ139">
+        <v>0</v>
+      </c>
+      <c r="CA139">
+        <v>0</v>
+      </c>
+      <c r="CB139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>222</v>
       </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <v>0</v>
+      </c>
+      <c r="AC140">
+        <v>0</v>
+      </c>
+      <c r="AD140">
+        <v>0</v>
+      </c>
+      <c r="AE140">
+        <v>0</v>
+      </c>
+      <c r="AF140">
+        <v>0</v>
+      </c>
+      <c r="AG140">
+        <v>0</v>
+      </c>
+      <c r="AH140">
+        <v>0</v>
+      </c>
+      <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>0</v>
+      </c>
+      <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>0</v>
+      </c>
+      <c r="AO140">
+        <v>0</v>
+      </c>
+      <c r="AP140">
+        <v>0</v>
+      </c>
+      <c r="AQ140">
+        <v>0</v>
+      </c>
+      <c r="AR140">
+        <v>0</v>
+      </c>
+      <c r="AS140">
+        <v>0</v>
+      </c>
+      <c r="AT140">
+        <v>0</v>
+      </c>
+      <c r="AU140">
+        <v>0</v>
+      </c>
+      <c r="AV140">
+        <v>0</v>
+      </c>
+      <c r="AW140">
+        <v>0</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>0</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>0</v>
+      </c>
+      <c r="BK140">
+        <v>1</v>
+      </c>
+      <c r="BL140">
+        <v>1</v>
+      </c>
+      <c r="BM140">
+        <v>0</v>
+      </c>
+      <c r="BN140">
+        <v>1</v>
+      </c>
+      <c r="BO140">
+        <v>0</v>
+      </c>
+      <c r="BP140">
+        <v>0</v>
+      </c>
+      <c r="BQ140">
+        <v>0</v>
+      </c>
+      <c r="BR140">
+        <v>0</v>
+      </c>
+      <c r="BS140">
+        <v>0</v>
+      </c>
+      <c r="BT140">
+        <v>0</v>
+      </c>
+      <c r="BU140">
+        <v>0</v>
+      </c>
+      <c r="BV140">
+        <v>0</v>
+      </c>
+      <c r="BW140">
+        <v>0</v>
+      </c>
+      <c r="BX140">
+        <v>0</v>
+      </c>
+      <c r="BY140">
+        <v>0</v>
+      </c>
+      <c r="BZ140">
+        <v>0</v>
+      </c>
+      <c r="CA140">
+        <v>0</v>
+      </c>
+      <c r="CB140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>224</v>
       </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>0</v>
+      </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
+      <c r="AP141">
+        <v>0</v>
+      </c>
+      <c r="AQ141">
+        <v>0</v>
+      </c>
+      <c r="AR141">
+        <v>0</v>
+      </c>
+      <c r="AS141">
+        <v>0</v>
+      </c>
+      <c r="AT141">
+        <v>0</v>
+      </c>
+      <c r="AU141">
+        <v>0</v>
+      </c>
+      <c r="AV141">
+        <v>0</v>
+      </c>
+      <c r="AW141">
+        <v>0</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>0</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
+        <v>0</v>
+      </c>
+      <c r="BQ141">
+        <v>0</v>
+      </c>
+      <c r="BR141">
+        <v>0</v>
+      </c>
+      <c r="BS141">
+        <v>0</v>
+      </c>
+      <c r="BT141">
+        <v>0</v>
+      </c>
+      <c r="BU141">
+        <v>0</v>
+      </c>
+      <c r="BV141">
+        <v>0</v>
+      </c>
+      <c r="BW141">
+        <v>0</v>
+      </c>
+      <c r="BX141">
+        <v>0</v>
+      </c>
+      <c r="BY141">
+        <v>0</v>
+      </c>
+      <c r="BZ141">
+        <v>0</v>
+      </c>
+      <c r="CA141">
+        <v>0</v>
+      </c>
+      <c r="CB141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>235</v>
       </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>2</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>2</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>0</v>
+      </c>
+      <c r="AC142">
+        <v>0</v>
+      </c>
+      <c r="AD142">
+        <v>0</v>
+      </c>
+      <c r="AE142">
+        <v>0</v>
+      </c>
+      <c r="AF142">
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <v>0</v>
+      </c>
+      <c r="AH142">
+        <v>0</v>
+      </c>
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
+        <v>0</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>0</v>
+      </c>
+      <c r="AO142">
+        <v>0</v>
+      </c>
+      <c r="AP142">
+        <v>0</v>
+      </c>
+      <c r="AQ142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>237</v>
       </c>
+      <c r="C143">
+        <v>44</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>4</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143">
+        <v>2</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>2</v>
+      </c>
+      <c r="R143">
+        <v>12</v>
+      </c>
+      <c r="S143">
+        <v>2</v>
+      </c>
+      <c r="T143">
+        <v>4</v>
+      </c>
+      <c r="U143">
+        <v>1</v>
+      </c>
+      <c r="V143">
+        <v>1</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>1</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>3</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
+        <v>0</v>
+      </c>
+      <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AE143">
+        <v>0</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>0</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>0</v>
+      </c>
+      <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>0</v>
+      </c>
+      <c r="AO143">
+        <v>0</v>
+      </c>
+      <c r="AP143">
+        <v>4</v>
+      </c>
+      <c r="AQ143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>238</v>
       </c>
+      <c r="C144">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>5</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>1</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>1</v>
+      </c>
+      <c r="AC144">
+        <v>0</v>
+      </c>
+      <c r="AD144">
+        <v>0</v>
+      </c>
+      <c r="AE144">
+        <v>0</v>
+      </c>
+      <c r="AF144">
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>0</v>
+      </c>
+      <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>0</v>
+      </c>
+      <c r="AO144">
+        <v>0</v>
+      </c>
+      <c r="AP144">
+        <v>0</v>
+      </c>
+      <c r="AQ144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>245</v>
       </c>
+      <c r="C145">
+        <v>71</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>3</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>13</v>
+      </c>
+      <c r="AA145">
+        <v>2</v>
+      </c>
+      <c r="AB145">
+        <v>2</v>
+      </c>
+      <c r="AC145">
+        <v>1</v>
+      </c>
+      <c r="AD145">
+        <v>1</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145">
+        <v>3</v>
+      </c>
+      <c r="AG145">
+        <v>2</v>
+      </c>
+      <c r="AH145">
+        <v>4</v>
+      </c>
+      <c r="AI145">
+        <v>2</v>
+      </c>
+      <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>2</v>
+      </c>
+      <c r="AL145">
+        <v>4</v>
+      </c>
+      <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>0</v>
+      </c>
+      <c r="AO145">
+        <v>0</v>
+      </c>
+      <c r="AP145">
+        <v>0</v>
+      </c>
+      <c r="AQ145">
+        <v>2</v>
+      </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>246</v>
       </c>
+      <c r="C146">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>0</v>
+      </c>
+      <c r="AD146">
+        <v>0</v>
+      </c>
+      <c r="AE146">
+        <v>0</v>
+      </c>
+      <c r="AF146">
+        <v>2</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>0</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>0</v>
+      </c>
+      <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>0</v>
+      </c>
+      <c r="AO146">
+        <v>0</v>
+      </c>
+      <c r="AP146">
+        <v>0</v>
+      </c>
+      <c r="AQ146">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>247</v>
       </c>
+      <c r="C147">
+        <v>32</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <v>2</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>2</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>1</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>2</v>
+      </c>
+      <c r="AB147">
+        <v>1</v>
+      </c>
+      <c r="AC147">
+        <v>5</v>
+      </c>
+      <c r="AD147">
+        <v>1</v>
+      </c>
+      <c r="AE147">
+        <v>1</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+      <c r="AH147">
+        <v>0</v>
+      </c>
+      <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
+        <v>0</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>0</v>
+      </c>
+      <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>0</v>
+      </c>
+      <c r="AO147">
+        <v>2</v>
+      </c>
+      <c r="AP147">
+        <v>0</v>
+      </c>
+      <c r="AQ147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>248</v>
       </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+      <c r="AC148">
+        <v>0</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AE148">
+        <v>0</v>
+      </c>
+      <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>0</v>
+      </c>
+      <c r="AH148">
+        <v>0</v>
+      </c>
+      <c r="AI148">
+        <v>0</v>
+      </c>
+      <c r="AJ148">
+        <v>0</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>0</v>
+      </c>
+      <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>0</v>
+      </c>
+      <c r="AO148">
+        <v>0</v>
+      </c>
+      <c r="AP148">
+        <v>0</v>
+      </c>
+      <c r="AQ148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>249</v>
       </c>
+      <c r="C149">
+        <v>64</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>2</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>1</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>2</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>10</v>
+      </c>
+      <c r="AA149">
+        <v>3</v>
+      </c>
+      <c r="AB149">
+        <v>2</v>
+      </c>
+      <c r="AC149">
+        <v>2</v>
+      </c>
+      <c r="AD149">
+        <v>1</v>
+      </c>
+      <c r="AE149">
+        <v>0</v>
+      </c>
+      <c r="AF149">
+        <v>0</v>
+      </c>
+      <c r="AG149">
+        <v>0</v>
+      </c>
+      <c r="AH149">
+        <v>0</v>
+      </c>
+      <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <v>1</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
+      <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>0</v>
+      </c>
+      <c r="AO149">
+        <v>2</v>
+      </c>
+      <c r="AP149">
+        <v>2</v>
+      </c>
+      <c r="AQ149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>251</v>
       </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>0</v>
+      </c>
+      <c r="AH150">
+        <v>0</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>0</v>
+      </c>
+      <c r="AO150">
+        <v>0</v>
+      </c>
+      <c r="AP150">
+        <v>0</v>
+      </c>
+      <c r="AQ150">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>252</v>
       </c>
+      <c r="C151">
+        <v>65</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+      <c r="AC151">
+        <v>0</v>
+      </c>
+      <c r="AD151">
+        <v>0</v>
+      </c>
+      <c r="AE151">
+        <v>0</v>
+      </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <v>0</v>
+      </c>
+      <c r="AH151">
+        <v>0</v>
+      </c>
+      <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>0</v>
+      </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
+      <c r="AP151">
+        <v>0</v>
+      </c>
+      <c r="AQ151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>253</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>254</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>255</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>259</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>269</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>270</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>271</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>272</v>
       </c>

--- a/Lovejoy_data_table_tree_frequency.xlsx
+++ b/Lovejoy_data_table_tree_frequency.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Treespecies</t>
   </si>
@@ -33,6 +33,411 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Allantoma Lineata</t>
+  </si>
+  <si>
+    <t>Anacardium Giganteum</t>
+  </si>
+  <si>
+    <t>Andira Retusa</t>
+  </si>
+  <si>
+    <t>Aniba Burchellii</t>
+  </si>
+  <si>
+    <t>Aparisthmium Cordatum</t>
+  </si>
+  <si>
+    <t>Apeiba Burchellii</t>
+  </si>
+  <si>
+    <t>Apeiba sp.</t>
+  </si>
+  <si>
+    <t>Arrabidea Tuberculata</t>
+  </si>
+  <si>
+    <t>Aspidosperma Verruculosum</t>
+  </si>
+  <si>
+    <t>Asoidosperma sp.</t>
+  </si>
+  <si>
+    <t>Caraipa Grandiflora</t>
+  </si>
+  <si>
+    <t>Carapa Guianensis</t>
+  </si>
+  <si>
+    <t>Caryocar Glabrum</t>
+  </si>
+  <si>
+    <t>Cassipourea Guianensis</t>
+  </si>
+  <si>
+    <t>Cecropia Juranyiana</t>
+  </si>
+  <si>
+    <t>Cecropia Obtusa</t>
+  </si>
+  <si>
+    <t>Cecropia sp.</t>
+  </si>
+  <si>
+    <t>Ceiba Pentandra</t>
+  </si>
+  <si>
+    <t>Cheiloclinium Cognatum</t>
+  </si>
+  <si>
+    <t>Chimarrhis Turbinata</t>
+  </si>
+  <si>
+    <t>Chrysophyllum Prieurei</t>
+  </si>
+  <si>
+    <t>Chrysophyllum sp.</t>
+  </si>
+  <si>
+    <t>Coccoloba Latifulia</t>
+  </si>
+  <si>
+    <t>Conceveiba Guianensis</t>
+  </si>
+  <si>
+    <t>Cordia Scabrida</t>
+  </si>
+  <si>
+    <t>Cordia Scabrifolia</t>
+  </si>
+  <si>
+    <t>Cordia sp.</t>
+  </si>
+  <si>
+    <t>Couepia Divaricata</t>
+  </si>
+  <si>
+    <t>Couepia Hoffmanniana</t>
+  </si>
+  <si>
+    <t>Couepia Leptostachya</t>
+  </si>
+  <si>
+    <t>Coumarouna Odorata</t>
+  </si>
+  <si>
+    <t>Coumarouna sp.</t>
+  </si>
+  <si>
+    <t>Couratari Pulchra</t>
+  </si>
+  <si>
+    <t>Coussapoa Trinervia</t>
+  </si>
+  <si>
+    <t>Crepisospermum sp.</t>
+  </si>
+  <si>
+    <t>Crudia Oblonga</t>
+  </si>
+  <si>
+    <t>Cupania sp.</t>
+  </si>
+  <si>
+    <t>Dacryodes Belemensis</t>
+  </si>
+  <si>
+    <t>Davilla Aspera</t>
+  </si>
+  <si>
+    <t>Dendrobangia Boliviana</t>
+  </si>
+  <si>
+    <t>Dialium Guianense</t>
+  </si>
+  <si>
+    <t>Didymopanax Morototoni</t>
+  </si>
+  <si>
+    <t>Diospyros Mellinoni</t>
+  </si>
+  <si>
+    <t>Emmotum Acuminatum</t>
+  </si>
+  <si>
+    <t>Emmotum Fagifolium</t>
+  </si>
+  <si>
+    <t>Erisma Uncinatum</t>
+  </si>
+  <si>
+    <t>Eschweilera Odora</t>
+  </si>
+  <si>
+    <t>Eschweilera Panicolata</t>
+  </si>
+  <si>
+    <t>Eschweilera sp. 1</t>
+  </si>
+  <si>
+    <t>Eschweilera sp. 2</t>
+  </si>
+  <si>
+    <t>Eschweilera sp. 3</t>
+  </si>
+  <si>
+    <t>Eschweilera sp. 4</t>
+  </si>
+  <si>
+    <t>Eugenia Correal</t>
+  </si>
+  <si>
+    <t>Eugenia Pairisii</t>
+  </si>
+  <si>
+    <t>Ficus sp.</t>
+  </si>
+  <si>
+    <t>Fusaea Longifolia</t>
+  </si>
+  <si>
+    <t>Goupia Glabra</t>
+  </si>
+  <si>
+    <t>Guatteria sp.</t>
+  </si>
+  <si>
+    <t>Gustavia Augusta</t>
+  </si>
+  <si>
+    <t>Gustavia sp.</t>
+  </si>
+  <si>
+    <t>Hebepetalum Humirifolium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heisteria sp. </t>
+  </si>
+  <si>
+    <t>Helicostylis Pedunculata</t>
+  </si>
+  <si>
+    <t>Helicostylis Tomentosa</t>
+  </si>
+  <si>
+    <t>Hevea Brasiliensis</t>
+  </si>
+  <si>
+    <t>Hippocrateaceae</t>
+  </si>
+  <si>
+    <t>Humiriastrum Excelsum</t>
+  </si>
+  <si>
+    <t>Hymenaea Oblongifolia</t>
+  </si>
+  <si>
+    <t>Hymenolobium Excelsum</t>
+  </si>
+  <si>
+    <t>Inga Auristellae</t>
+  </si>
+  <si>
+    <t>Inga Cayennensis</t>
+  </si>
+  <si>
+    <t>Inga Crassifolia</t>
+  </si>
+  <si>
+    <t>Lauraceae</t>
+  </si>
+  <si>
+    <t>Licania Latifolia</t>
+  </si>
+  <si>
+    <t>Licania Longistyla</t>
+  </si>
+  <si>
+    <t>Licania Macrophylla</t>
+  </si>
+  <si>
+    <t>Licania Micrantha</t>
+  </si>
+  <si>
+    <t>Licania sp.</t>
+  </si>
+  <si>
+    <t>Licaria Camara</t>
+  </si>
+  <si>
+    <t>Macrolobium Bifolium</t>
+  </si>
+  <si>
+    <t>Maprounea Guianensis</t>
+  </si>
+  <si>
+    <t>Micropholis Acutangula</t>
+  </si>
+  <si>
+    <t>Micropholis Calophylloides</t>
+  </si>
+  <si>
+    <t>Micropholis Eugeniifolia</t>
+  </si>
+  <si>
+    <t>Micropholis Guianensis</t>
+  </si>
+  <si>
+    <t>Mouriria Huberi</t>
+  </si>
+  <si>
+    <t>Mouriria Sagotiana</t>
+  </si>
+  <si>
+    <t>Myrcia sp.</t>
+  </si>
+  <si>
+    <t>Neea Glomeruliflora</t>
+  </si>
+  <si>
+    <t>Piptadenia Suaveolens</t>
+  </si>
+  <si>
+    <t>Pithacellobium Jupunba</t>
+  </si>
+  <si>
+    <t>Poraqueiba Guianensis</t>
+  </si>
+  <si>
+    <t>Pourouma Melinonii</t>
+  </si>
+  <si>
+    <t>Porouma Myrmecophila</t>
+  </si>
+  <si>
+    <t>Pourouma sp.</t>
+  </si>
+  <si>
+    <t>Pouteria Cladantha</t>
+  </si>
+  <si>
+    <t>Pouteria Guianensis</t>
+  </si>
+  <si>
+    <t>Pouteria Laurifolia</t>
+  </si>
+  <si>
+    <t>Pouteria App Paraensis</t>
+  </si>
+  <si>
+    <t>Pouteria Virescens</t>
+  </si>
+  <si>
+    <t>Pouteria sp.</t>
+  </si>
+  <si>
+    <t>Protium Aracouchini</t>
+  </si>
+  <si>
+    <t>Protium Cuneatum</t>
+  </si>
+  <si>
+    <t>Protium Decandrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protium Guacayanum </t>
+  </si>
+  <si>
+    <t>Protium Neglectum</t>
+  </si>
+  <si>
+    <t>Protium Paraense</t>
+  </si>
+  <si>
+    <t>Protium Polybotryum</t>
+  </si>
+  <si>
+    <t>Protium Puncticulatum</t>
+  </si>
+  <si>
+    <t>Pterocarpus Amazonicus</t>
+  </si>
+  <si>
+    <t>Ptychopetalum Olacoides</t>
+  </si>
+  <si>
+    <t>Qualea Albiflora</t>
+  </si>
+  <si>
+    <t>Rheedia Macrophylla</t>
+  </si>
+  <si>
+    <t>Rinorea Flavescens</t>
+  </si>
+  <si>
+    <t>Rubiaceae</t>
+  </si>
+  <si>
+    <t>Sloanea Guianensis</t>
+  </si>
+  <si>
+    <t>Sterculia Pruriens</t>
+  </si>
+  <si>
+    <t>Sterculia sp.</t>
+  </si>
+  <si>
+    <t>Symphonia Globulifera</t>
+  </si>
+  <si>
+    <t>Tachigalia Myrmecophylla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapura Singularis </t>
+  </si>
+  <si>
+    <t>Terminalia Amazonia</t>
+  </si>
+  <si>
+    <t>Tetragastris Altissima</t>
+  </si>
+  <si>
+    <t>Tetragastris Pilosa</t>
+  </si>
+  <si>
+    <t>Tetragastris Trifoliolata</t>
+  </si>
+  <si>
+    <t>Theobroma Speciosum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theobroma Subincanum </t>
+  </si>
+  <si>
+    <t>Thyrsodium Paraensis</t>
+  </si>
+  <si>
+    <t>Tovomita Stigmatosa</t>
+  </si>
+  <si>
+    <t>Tovomita sp.</t>
+  </si>
+  <si>
+    <t>Vantanea Guianensis</t>
+  </si>
+  <si>
+    <t>Vantanea Parviflora</t>
+  </si>
+  <si>
+    <t>Vatairea Guianensis</t>
+  </si>
+  <si>
+    <t>Virola Surinamensis</t>
+  </si>
+  <si>
+    <t>Vochysia Guianensis</t>
   </si>
 </sst>
 </file>
@@ -352,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH230" workbookViewId="0">
-      <selection activeCell="BA250" sqref="BA250"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +1009,9 @@
       <c r="A2">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2">
         <v>66</v>
       </c>
@@ -843,6 +1251,9 @@
       <c r="A3">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3">
         <v>25</v>
       </c>
@@ -1082,6 +1493,9 @@
       <c r="A4">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4">
         <v>14</v>
       </c>
@@ -1321,6 +1735,9 @@
       <c r="A5">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
       <c r="C5">
         <v>12</v>
       </c>
@@ -1560,6 +1977,9 @@
       <c r="A6">
         <v>11</v>
       </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6">
         <v>5</v>
       </c>
@@ -1799,6 +2219,9 @@
       <c r="A7">
         <v>12</v>
       </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
       <c r="C7">
         <v>65</v>
       </c>
@@ -2038,6 +2461,9 @@
       <c r="A8">
         <v>14</v>
       </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
       <c r="C8">
         <v>28</v>
       </c>
@@ -2277,6 +2703,9 @@
       <c r="A9">
         <v>15</v>
       </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
       <c r="C9">
         <v>7</v>
       </c>
@@ -2516,6 +2945,9 @@
       <c r="A10">
         <v>17</v>
       </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
       <c r="C10">
         <v>5</v>
       </c>
@@ -2755,6 +3187,9 @@
       <c r="A11">
         <v>18</v>
       </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
       <c r="C11">
         <v>5</v>
       </c>
@@ -2994,6 +3429,9 @@
       <c r="A12">
         <v>28</v>
       </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
       <c r="C12">
         <v>130</v>
       </c>
@@ -3233,6 +3671,9 @@
       <c r="A13">
         <v>29</v>
       </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
       <c r="C13">
         <v>104</v>
       </c>
@@ -3472,6 +3913,9 @@
       <c r="A14">
         <v>30</v>
       </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
       <c r="C14">
         <v>19</v>
       </c>
@@ -3711,6 +4155,9 @@
       <c r="A15">
         <v>32</v>
       </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
       <c r="C15">
         <v>90</v>
       </c>
@@ -3950,6 +4397,9 @@
       <c r="A16">
         <v>33</v>
       </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
       <c r="C16">
         <v>70</v>
       </c>
@@ -4189,6 +4639,9 @@
       <c r="A17">
         <v>34</v>
       </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
       <c r="C17">
         <v>51</v>
       </c>
@@ -4428,6 +4881,9 @@
       <c r="A18">
         <v>35</v>
       </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
       <c r="C18">
         <v>110</v>
       </c>
@@ -4667,6 +5123,9 @@
       <c r="A19">
         <v>36</v>
       </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
       <c r="C19">
         <v>82</v>
       </c>
@@ -4906,6 +5365,9 @@
       <c r="A20">
         <v>37</v>
       </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
       <c r="C20">
         <v>71</v>
       </c>
@@ -5145,6 +5607,9 @@
       <c r="A21">
         <v>38</v>
       </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
       <c r="C21">
         <v>67</v>
       </c>
@@ -5384,6 +5849,9 @@
       <c r="A22">
         <v>39</v>
       </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
       <c r="C22">
         <v>57</v>
       </c>
@@ -5623,6 +6091,9 @@
       <c r="A23">
         <v>40</v>
       </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
       <c r="C23">
         <v>45</v>
       </c>
@@ -5862,6 +6333,9 @@
       <c r="A24">
         <v>41</v>
       </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
       <c r="C24">
         <v>24</v>
       </c>
@@ -6101,6 +6575,9 @@
       <c r="A25">
         <v>42</v>
       </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
       <c r="C25">
         <v>45</v>
       </c>
@@ -6340,6 +6817,9 @@
       <c r="A26">
         <v>43</v>
       </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
       <c r="C26">
         <v>43</v>
       </c>
@@ -6579,6 +7059,9 @@
       <c r="A27">
         <v>44</v>
       </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
       <c r="C27">
         <v>53</v>
       </c>
@@ -6818,6 +7301,9 @@
       <c r="A28">
         <v>45</v>
       </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
       <c r="C28">
         <v>57</v>
       </c>
@@ -7057,6 +7543,9 @@
       <c r="A29">
         <v>46</v>
       </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
       <c r="C29">
         <v>34</v>
       </c>
@@ -7296,6 +7785,9 @@
       <c r="A30">
         <v>47</v>
       </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
       <c r="C30">
         <v>39</v>
       </c>
@@ -7535,6 +8027,9 @@
       <c r="A31">
         <v>48</v>
       </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
       <c r="C31">
         <v>32</v>
       </c>
@@ -7774,6 +8269,9 @@
       <c r="A32">
         <v>49</v>
       </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
       <c r="C32">
         <v>62</v>
       </c>
@@ -8013,6 +8511,9 @@
       <c r="A33">
         <v>50</v>
       </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
       <c r="C33">
         <v>35</v>
       </c>
@@ -8252,6 +8753,9 @@
       <c r="A34">
         <v>51</v>
       </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
       <c r="C34">
         <v>29</v>
       </c>
@@ -8491,6 +8995,9 @@
       <c r="A35">
         <v>52</v>
       </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
       <c r="C35">
         <v>35</v>
       </c>
@@ -8730,6 +9237,9 @@
       <c r="A36">
         <v>53</v>
       </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
       <c r="C36">
         <v>24</v>
       </c>
@@ -8969,6 +9479,9 @@
       <c r="A37">
         <v>54</v>
       </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
       <c r="C37">
         <v>18</v>
       </c>
@@ -9208,6 +9721,9 @@
       <c r="A38">
         <v>55</v>
       </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
       <c r="C38">
         <v>34</v>
       </c>
@@ -9447,6 +9963,9 @@
       <c r="A39">
         <v>56</v>
       </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
       <c r="C39">
         <v>27</v>
       </c>
@@ -9686,6 +10205,9 @@
       <c r="A40">
         <v>57</v>
       </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
       <c r="C40">
         <v>22</v>
       </c>
@@ -9925,6 +10447,9 @@
       <c r="A41">
         <v>58</v>
       </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
       <c r="C41">
         <v>34</v>
       </c>
@@ -10164,6 +10689,9 @@
       <c r="A42">
         <v>59</v>
       </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
       <c r="C42">
         <v>28</v>
       </c>
@@ -10403,6 +10931,9 @@
       <c r="A43">
         <v>60</v>
       </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
       <c r="C43">
         <v>18</v>
       </c>
@@ -10642,6 +11173,9 @@
       <c r="A44">
         <v>61</v>
       </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
       <c r="C44">
         <v>22</v>
       </c>
@@ -11120,6 +11654,9 @@
       <c r="A46">
         <v>63</v>
       </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
       <c r="C46">
         <v>17</v>
       </c>
@@ -11359,6 +11896,9 @@
       <c r="A47">
         <v>64</v>
       </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
       <c r="C47">
         <v>9</v>
       </c>
@@ -11837,6 +12377,9 @@
       <c r="A49">
         <v>66</v>
       </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
       <c r="C49">
         <v>28</v>
       </c>
@@ -12315,6 +12858,9 @@
       <c r="A51">
         <v>68</v>
       </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
       <c r="C51">
         <v>365</v>
       </c>
@@ -12554,6 +13100,9 @@
       <c r="A52">
         <v>69</v>
       </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
       <c r="C52">
         <v>13</v>
       </c>
@@ -12793,6 +13342,9 @@
       <c r="A53">
         <v>70</v>
       </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
       <c r="C53">
         <v>18</v>
       </c>
@@ -13032,6 +13584,9 @@
       <c r="A54">
         <v>71</v>
       </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
       <c r="C54">
         <v>16</v>
       </c>
@@ -13271,6 +13826,9 @@
       <c r="A55">
         <v>72</v>
       </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
       <c r="C55">
         <v>6</v>
       </c>
@@ -13510,6 +14068,9 @@
       <c r="A56">
         <v>73</v>
       </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
       <c r="C56">
         <v>9</v>
       </c>
@@ -13749,6 +14310,9 @@
       <c r="A57">
         <v>74</v>
       </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
       <c r="C57">
         <v>12</v>
       </c>
@@ -13988,6 +14552,9 @@
       <c r="A58">
         <v>75</v>
       </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
       <c r="C58">
         <v>14</v>
       </c>
@@ -14705,6 +15272,9 @@
       <c r="A61">
         <v>79</v>
       </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
       <c r="C61">
         <v>13</v>
       </c>
@@ -14944,6 +15514,9 @@
       <c r="A62">
         <v>80</v>
       </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
       <c r="C62">
         <v>10</v>
       </c>
@@ -15183,6 +15756,9 @@
       <c r="A63">
         <v>81</v>
       </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
       <c r="C63">
         <v>66</v>
       </c>
@@ -15422,6 +15998,9 @@
       <c r="A64">
         <v>83</v>
       </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
       <c r="C64">
         <v>4</v>
       </c>
@@ -15661,6 +16240,9 @@
       <c r="A65">
         <v>84</v>
       </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
       <c r="C65">
         <v>11</v>
       </c>
@@ -15900,6 +16482,9 @@
       <c r="A66">
         <v>86</v>
       </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
       <c r="C66">
         <v>6</v>
       </c>
@@ -16139,6 +16724,9 @@
       <c r="A67">
         <v>87</v>
       </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
       <c r="C67">
         <v>8</v>
       </c>
@@ -16378,6 +16966,9 @@
       <c r="A68">
         <v>88</v>
       </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
       <c r="C68">
         <v>5</v>
       </c>
@@ -16617,6 +17208,9 @@
       <c r="A69">
         <v>89</v>
       </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
       <c r="C69">
         <v>10</v>
       </c>
@@ -16856,6 +17450,9 @@
       <c r="A70">
         <v>90</v>
       </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
       <c r="C70">
         <v>9</v>
       </c>
@@ -17095,6 +17692,9 @@
       <c r="A71">
         <v>91</v>
       </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
       <c r="C71">
         <v>31</v>
       </c>
@@ -17334,6 +17934,9 @@
       <c r="A72">
         <v>92</v>
       </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
       <c r="C72">
         <v>5</v>
       </c>
@@ -17573,6 +18176,9 @@
       <c r="A73">
         <v>94</v>
       </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
       <c r="C73">
         <v>5</v>
       </c>
@@ -17812,6 +18418,9 @@
       <c r="A74">
         <v>95</v>
       </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
       <c r="C74">
         <v>13</v>
       </c>
@@ -18051,6 +18660,9 @@
       <c r="A75">
         <v>96</v>
       </c>
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
       <c r="C75">
         <v>14</v>
       </c>
@@ -18290,6 +18902,9 @@
       <c r="A76">
         <v>98</v>
       </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
       <c r="C76">
         <v>4</v>
       </c>
@@ -18529,6 +19144,9 @@
       <c r="A77">
         <v>99</v>
       </c>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
       <c r="C77">
         <v>11</v>
       </c>
@@ -18768,6 +19386,9 @@
       <c r="A78">
         <v>100</v>
       </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
       <c r="C78">
         <v>3</v>
       </c>
@@ -19963,6 +20584,9 @@
       <c r="A83">
         <v>114</v>
       </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
       <c r="C83">
         <v>8</v>
       </c>
@@ -21158,6 +21782,9 @@
       <c r="A88">
         <v>120</v>
       </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
       <c r="C88">
         <v>4</v>
       </c>
@@ -21397,6 +22024,9 @@
       <c r="A89">
         <v>122</v>
       </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
       <c r="C89">
         <v>7</v>
       </c>
@@ -21636,6 +22266,9 @@
       <c r="A90">
         <v>123</v>
       </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
       <c r="C90">
         <v>52</v>
       </c>
@@ -21875,6 +22508,9 @@
       <c r="A91">
         <v>124</v>
       </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
       <c r="C91">
         <v>5</v>
       </c>
@@ -22114,6 +22750,9 @@
       <c r="A92">
         <v>128</v>
       </c>
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
       <c r="C92">
         <v>15</v>
       </c>
@@ -22353,6 +22992,9 @@
       <c r="A93">
         <v>130</v>
       </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
       <c r="C93">
         <v>8</v>
       </c>
@@ -23070,6 +23712,9 @@
       <c r="A96">
         <v>135</v>
       </c>
+      <c r="B96" t="s">
+        <v>82</v>
+      </c>
       <c r="C96">
         <v>21</v>
       </c>
@@ -23548,6 +24193,9 @@
       <c r="A98">
         <v>137</v>
       </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
       <c r="C98">
         <v>3</v>
       </c>
@@ -24026,6 +24674,9 @@
       <c r="A100">
         <v>140</v>
       </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
       <c r="C100">
         <v>65</v>
       </c>
@@ -24265,6 +24916,9 @@
       <c r="A101">
         <v>141</v>
       </c>
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
       <c r="C101">
         <v>4</v>
       </c>
@@ -24504,6 +25158,9 @@
       <c r="A102">
         <v>142</v>
       </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
       <c r="C102">
         <v>3</v>
       </c>
@@ -24743,6 +25400,9 @@
       <c r="A103">
         <v>143</v>
       </c>
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
       <c r="C103">
         <v>17</v>
       </c>
@@ -24982,6 +25642,9 @@
       <c r="A104">
         <v>145</v>
       </c>
+      <c r="B104" t="s">
+        <v>88</v>
+      </c>
       <c r="C104">
         <v>5</v>
       </c>
@@ -25221,6 +25884,9 @@
       <c r="A105">
         <v>146</v>
       </c>
+      <c r="B105" t="s">
+        <v>89</v>
+      </c>
       <c r="C105">
         <v>7</v>
       </c>
@@ -25460,6 +26126,9 @@
       <c r="A106">
         <v>150</v>
       </c>
+      <c r="B106" t="s">
+        <v>90</v>
+      </c>
       <c r="C106">
         <v>6</v>
       </c>
@@ -25699,6 +26368,9 @@
       <c r="A107">
         <v>154</v>
       </c>
+      <c r="B107" t="s">
+        <v>91</v>
+      </c>
       <c r="C107">
         <v>8</v>
       </c>
@@ -27850,6 +28522,9 @@
       <c r="A116">
         <v>180</v>
       </c>
+      <c r="B116" t="s">
+        <v>92</v>
+      </c>
       <c r="C116">
         <v>25</v>
       </c>
@@ -28089,6 +28764,9 @@
       <c r="A117">
         <v>181</v>
       </c>
+      <c r="B117" t="s">
+        <v>93</v>
+      </c>
       <c r="C117">
         <v>20</v>
       </c>
@@ -28328,6 +29006,9 @@
       <c r="A118">
         <v>184</v>
       </c>
+      <c r="B118" t="s">
+        <v>94</v>
+      </c>
       <c r="C118">
         <v>76</v>
       </c>
@@ -28567,6 +29248,9 @@
       <c r="A119">
         <v>186</v>
       </c>
+      <c r="B119" t="s">
+        <v>95</v>
+      </c>
       <c r="C119">
         <v>4</v>
       </c>
@@ -28806,6 +29490,9 @@
       <c r="A120">
         <v>187</v>
       </c>
+      <c r="B120" t="s">
+        <v>96</v>
+      </c>
       <c r="C120">
         <v>6</v>
       </c>
@@ -29045,6 +29732,9 @@
       <c r="A121">
         <v>189</v>
       </c>
+      <c r="B121" t="s">
+        <v>97</v>
+      </c>
       <c r="C121">
         <v>161</v>
       </c>
@@ -29284,6 +29974,9 @@
       <c r="A122">
         <v>190</v>
       </c>
+      <c r="B122" t="s">
+        <v>98</v>
+      </c>
       <c r="C122">
         <v>4</v>
       </c>
@@ -29523,6 +30216,9 @@
       <c r="A123">
         <v>192</v>
       </c>
+      <c r="B123" t="s">
+        <v>99</v>
+      </c>
       <c r="C123">
         <v>10</v>
       </c>
@@ -29762,6 +30458,9 @@
       <c r="A124">
         <v>194</v>
       </c>
+      <c r="B124" t="s">
+        <v>100</v>
+      </c>
       <c r="C124">
         <v>65</v>
       </c>
@@ -30001,6 +30700,9 @@
       <c r="A125">
         <v>195</v>
       </c>
+      <c r="B125" t="s">
+        <v>101</v>
+      </c>
       <c r="C125">
         <v>4</v>
       </c>
@@ -30240,6 +30942,9 @@
       <c r="A126">
         <v>197</v>
       </c>
+      <c r="B126" t="s">
+        <v>102</v>
+      </c>
       <c r="C126">
         <v>3</v>
       </c>
@@ -30479,6 +31184,9 @@
       <c r="A127">
         <v>198</v>
       </c>
+      <c r="B127" t="s">
+        <v>103</v>
+      </c>
       <c r="C127">
         <v>5</v>
       </c>
@@ -30718,6 +31426,9 @@
       <c r="A128">
         <v>199</v>
       </c>
+      <c r="B128" t="s">
+        <v>104</v>
+      </c>
       <c r="C128">
         <v>16</v>
       </c>
@@ -30957,6 +31668,9 @@
       <c r="A129">
         <v>201</v>
       </c>
+      <c r="B129" t="s">
+        <v>105</v>
+      </c>
       <c r="C129">
         <v>122</v>
       </c>
@@ -31196,6 +31910,9 @@
       <c r="A130">
         <v>202</v>
       </c>
+      <c r="B130" t="s">
+        <v>106</v>
+      </c>
       <c r="C130">
         <v>42</v>
       </c>
@@ -31435,6 +32152,9 @@
       <c r="A131">
         <v>203</v>
       </c>
+      <c r="B131" t="s">
+        <v>107</v>
+      </c>
       <c r="C131">
         <v>20</v>
       </c>
@@ -31674,6 +32394,9 @@
       <c r="A132">
         <v>204</v>
       </c>
+      <c r="B132" t="s">
+        <v>108</v>
+      </c>
       <c r="C132">
         <v>3</v>
       </c>
@@ -31913,6 +32636,9 @@
       <c r="A133">
         <v>205</v>
       </c>
+      <c r="B133" t="s">
+        <v>109</v>
+      </c>
       <c r="C133">
         <v>50</v>
       </c>
@@ -32152,6 +32878,9 @@
       <c r="A134">
         <v>208</v>
       </c>
+      <c r="B134" t="s">
+        <v>110</v>
+      </c>
       <c r="C134">
         <v>9</v>
       </c>
@@ -32391,6 +33120,9 @@
       <c r="A135">
         <v>209</v>
       </c>
+      <c r="B135" t="s">
+        <v>111</v>
+      </c>
       <c r="C135">
         <v>8</v>
       </c>
@@ -32630,6 +33362,9 @@
       <c r="A136">
         <v>214</v>
       </c>
+      <c r="B136" t="s">
+        <v>112</v>
+      </c>
       <c r="C136">
         <v>101</v>
       </c>
@@ -32869,6 +33604,9 @@
       <c r="A137">
         <v>215</v>
       </c>
+      <c r="B137" t="s">
+        <v>113</v>
+      </c>
       <c r="C137">
         <v>4</v>
       </c>
@@ -33108,6 +33846,9 @@
       <c r="A138">
         <v>216</v>
       </c>
+      <c r="B138" t="s">
+        <v>114</v>
+      </c>
       <c r="C138">
         <v>10</v>
       </c>
@@ -33347,6 +34088,9 @@
       <c r="A139">
         <v>220</v>
       </c>
+      <c r="B139" t="s">
+        <v>115</v>
+      </c>
       <c r="C139">
         <v>14</v>
       </c>
@@ -33586,6 +34330,9 @@
       <c r="A140">
         <v>222</v>
       </c>
+      <c r="B140" t="s">
+        <v>116</v>
+      </c>
       <c r="C140">
         <v>3</v>
       </c>
@@ -33825,6 +34572,9 @@
       <c r="A141">
         <v>224</v>
       </c>
+      <c r="B141" t="s">
+        <v>117</v>
+      </c>
       <c r="C141">
         <v>4</v>
       </c>
@@ -34064,6 +34814,9 @@
       <c r="A142">
         <v>235</v>
       </c>
+      <c r="B142" t="s">
+        <v>118</v>
+      </c>
       <c r="C142">
         <v>10</v>
       </c>
@@ -34303,6 +35056,9 @@
       <c r="A143">
         <v>237</v>
       </c>
+      <c r="B143" t="s">
+        <v>119</v>
+      </c>
       <c r="C143">
         <v>44</v>
       </c>
@@ -34542,6 +35298,9 @@
       <c r="A144">
         <v>238</v>
       </c>
+      <c r="B144" t="s">
+        <v>120</v>
+      </c>
       <c r="C144">
         <v>12</v>
       </c>
@@ -34781,6 +35540,9 @@
       <c r="A145">
         <v>245</v>
       </c>
+      <c r="B145" t="s">
+        <v>121</v>
+      </c>
       <c r="C145">
         <v>71</v>
       </c>
@@ -35020,6 +35782,9 @@
       <c r="A146">
         <v>246</v>
       </c>
+      <c r="B146" t="s">
+        <v>122</v>
+      </c>
       <c r="C146">
         <v>9</v>
       </c>
@@ -35259,6 +36024,9 @@
       <c r="A147">
         <v>247</v>
       </c>
+      <c r="B147" t="s">
+        <v>123</v>
+      </c>
       <c r="C147">
         <v>32</v>
       </c>
@@ -35498,6 +36266,9 @@
       <c r="A148">
         <v>248</v>
       </c>
+      <c r="B148" t="s">
+        <v>124</v>
+      </c>
       <c r="C148">
         <v>4</v>
       </c>
@@ -35737,6 +36508,9 @@
       <c r="A149">
         <v>249</v>
       </c>
+      <c r="B149" t="s">
+        <v>125</v>
+      </c>
       <c r="C149">
         <v>64</v>
       </c>
@@ -35976,6 +36750,9 @@
       <c r="A150">
         <v>251</v>
       </c>
+      <c r="B150" t="s">
+        <v>126</v>
+      </c>
       <c r="C150">
         <v>5</v>
       </c>
@@ -36215,6 +36992,9 @@
       <c r="A151">
         <v>252</v>
       </c>
+      <c r="B151" t="s">
+        <v>127</v>
+      </c>
       <c r="C151">
         <v>65</v>
       </c>
@@ -36454,6 +37234,9 @@
       <c r="A152">
         <v>253</v>
       </c>
+      <c r="B152" t="s">
+        <v>128</v>
+      </c>
       <c r="C152">
         <v>9</v>
       </c>
@@ -36693,6 +37476,9 @@
       <c r="A153">
         <v>254</v>
       </c>
+      <c r="B153" t="s">
+        <v>129</v>
+      </c>
       <c r="C153">
         <v>125</v>
       </c>
@@ -36932,6 +37718,9 @@
       <c r="A154">
         <v>255</v>
       </c>
+      <c r="B154" t="s">
+        <v>130</v>
+      </c>
       <c r="C154">
         <v>4</v>
       </c>
@@ -37171,6 +37960,9 @@
       <c r="A155">
         <v>258</v>
       </c>
+      <c r="B155" t="s">
+        <v>131</v>
+      </c>
       <c r="C155">
         <v>19</v>
       </c>
@@ -37410,6 +38202,9 @@
       <c r="A156">
         <v>259</v>
       </c>
+      <c r="B156" t="s">
+        <v>132</v>
+      </c>
       <c r="C156">
         <v>26</v>
       </c>
@@ -37649,6 +38444,9 @@
       <c r="A157">
         <v>269</v>
       </c>
+      <c r="B157" t="s">
+        <v>133</v>
+      </c>
       <c r="C157">
         <v>11</v>
       </c>
@@ -37888,6 +38686,9 @@
       <c r="A158">
         <v>270</v>
       </c>
+      <c r="B158" t="s">
+        <v>134</v>
+      </c>
       <c r="C158">
         <v>8</v>
       </c>
@@ -38127,6 +38928,9 @@
       <c r="A159">
         <v>271</v>
       </c>
+      <c r="B159" t="s">
+        <v>135</v>
+      </c>
       <c r="C159">
         <v>19</v>
       </c>
@@ -38366,6 +39170,9 @@
       <c r="A160">
         <v>272</v>
       </c>
+      <c r="B160" t="s">
+        <v>136</v>
+      </c>
       <c r="C160">
         <v>45</v>
       </c>
@@ -38604,6 +39411,9 @@
     <row r="161" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>275</v>
+      </c>
+      <c r="B161" t="s">
+        <v>137</v>
       </c>
       <c r="C161">
         <v>50</v>

--- a/Lovejoy_data_table_tree_frequency.xlsx
+++ b/Lovejoy_data_table_tree_frequency.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="215">
   <si>
     <t>Treespecies</t>
   </si>
@@ -439,6 +439,237 @@
   <si>
     <t>Vochysia Guianensis</t>
   </si>
+  <si>
+    <t>Vouacapoua Americana</t>
+  </si>
+  <si>
+    <t>Eschweilera Amara</t>
+  </si>
+  <si>
+    <t>Taralea Oppositifolia</t>
+  </si>
+  <si>
+    <t>Tapirira Guianensis</t>
+  </si>
+  <si>
+    <t>Eschweilera Fracia</t>
+  </si>
+  <si>
+    <t>Mauritiella sp.</t>
+  </si>
+  <si>
+    <t>Diospyros Guianensis</t>
+  </si>
+  <si>
+    <t>Bombax Aquaticum</t>
+  </si>
+  <si>
+    <t>Ambelania Grandiflora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calyptranthes Cuspidata </t>
+  </si>
+  <si>
+    <t>Socratea Exorrhiza</t>
+  </si>
+  <si>
+    <t>Alchorneopsis Trimera</t>
+  </si>
+  <si>
+    <t>Ficus Pulchella</t>
+  </si>
+  <si>
+    <t>Caraipa sp.</t>
+  </si>
+  <si>
+    <t>Pourouma Paraensis</t>
+  </si>
+  <si>
+    <t>Tapirira sp.</t>
+  </si>
+  <si>
+    <t>Piptadenia sp.</t>
+  </si>
+  <si>
+    <t>Conceveiba sp.</t>
+  </si>
+  <si>
+    <t>Xylopia sp.</t>
+  </si>
+  <si>
+    <t>Theobroma sp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkia Multyjuga </t>
+  </si>
+  <si>
+    <t>Hieronyma sp.</t>
+  </si>
+  <si>
+    <t>Mora Paraensis</t>
+  </si>
+  <si>
+    <t>Xylopia Nitida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socratea sp. </t>
+  </si>
+  <si>
+    <t>Rinorea Guianensis</t>
+  </si>
+  <si>
+    <t>Tachigalia sp.</t>
+  </si>
+  <si>
+    <t>Rinorea sp.</t>
+  </si>
+  <si>
+    <t>Guarea sp.</t>
+  </si>
+  <si>
+    <t>Jacaranda Copaia</t>
+  </si>
+  <si>
+    <t>Licania Canescens</t>
+  </si>
+  <si>
+    <t>Inga Grandifolia</t>
+  </si>
+  <si>
+    <t>Eronema sp.</t>
+  </si>
+  <si>
+    <t>Rheedia Floribunda</t>
+  </si>
+  <si>
+    <t>Sapium Mamieri</t>
+  </si>
+  <si>
+    <t>Eugenia Feijoi</t>
+  </si>
+  <si>
+    <t>Macrolobium Pendulum</t>
+  </si>
+  <si>
+    <t>Stericulia sp.</t>
+  </si>
+  <si>
+    <t>Terminalia Guianensis</t>
+  </si>
+  <si>
+    <t>Maximilia Regia</t>
+  </si>
+  <si>
+    <t>Swartzia Acuminata</t>
+  </si>
+  <si>
+    <t>Cordia Exaltata</t>
+  </si>
+  <si>
+    <t>Inga Gracifolia</t>
+  </si>
+  <si>
+    <t>Combretum Coconcia</t>
+  </si>
+  <si>
+    <t>Tapura sp.</t>
+  </si>
+  <si>
+    <t>Ormosia Continhoi</t>
+  </si>
+  <si>
+    <t>Quararibea Guianensis</t>
+  </si>
+  <si>
+    <t>Astrocaryum Murumuru</t>
+  </si>
+  <si>
+    <t>Crudia sp.</t>
+  </si>
+  <si>
+    <t>Theobroma Cacau</t>
+  </si>
+  <si>
+    <t>Phecolobre</t>
+  </si>
+  <si>
+    <t>Fagara Rhoifolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virma </t>
+  </si>
+  <si>
+    <t>Byrsonima Amazonica</t>
+  </si>
+  <si>
+    <t>Eschweilera Amazonica</t>
+  </si>
+  <si>
+    <t>Himatanthus Sucunba</t>
+  </si>
+  <si>
+    <t>Ormosia sp.</t>
+  </si>
+  <si>
+    <t>Miconia Minutifolia</t>
+  </si>
+  <si>
+    <t>Bagassa Guianensis</t>
+  </si>
+  <si>
+    <t>Laetia sp.</t>
+  </si>
+  <si>
+    <t>Parkia sp.</t>
+  </si>
+  <si>
+    <t>Moracea sp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crudia Bifolia </t>
+  </si>
+  <si>
+    <t>Licania Leniata</t>
+  </si>
+  <si>
+    <t>Melastomacia</t>
+  </si>
+  <si>
+    <t>Lauracea sp.</t>
+  </si>
+  <si>
+    <t>Triplaris Martiana</t>
+  </si>
+  <si>
+    <t>Xylopia Aromatica</t>
+  </si>
+  <si>
+    <t>Taralea Bifolia</t>
+  </si>
+  <si>
+    <t>Qualea Bifolia</t>
+  </si>
+  <si>
+    <t>Macrolobium sp.</t>
+  </si>
+  <si>
+    <t>Endopleura Uchi</t>
+  </si>
+  <si>
+    <t>Goupia sp.</t>
+  </si>
+  <si>
+    <t>Vantanea sp.</t>
+  </si>
+  <si>
+    <t>Inga Cicifolia</t>
+  </si>
+  <si>
+    <t>Labatia Macrocarpo</t>
+  </si>
+  <si>
+    <t>Licania Mahuba</t>
+  </si>
 </sst>
 </file>
 
@@ -757,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39654,6 +39885,9 @@
       <c r="A162">
         <v>277</v>
       </c>
+      <c r="B162" t="s">
+        <v>138</v>
+      </c>
       <c r="C162">
         <v>51</v>
       </c>
@@ -39893,6 +40127,9 @@
       <c r="A163">
         <v>290</v>
       </c>
+      <c r="B163" t="s">
+        <v>142</v>
+      </c>
       <c r="C163">
         <v>26</v>
       </c>
@@ -40132,6 +40369,9 @@
       <c r="A164">
         <v>292</v>
       </c>
+      <c r="B164" t="s">
+        <v>140</v>
+      </c>
       <c r="C164">
         <v>39</v>
       </c>
@@ -40371,6 +40611,9 @@
       <c r="A165">
         <v>294</v>
       </c>
+      <c r="B165" t="s">
+        <v>141</v>
+      </c>
       <c r="C165">
         <v>127</v>
       </c>
@@ -40610,6 +40853,9 @@
       <c r="A166">
         <v>298</v>
       </c>
+      <c r="B166" t="s">
+        <v>139</v>
+      </c>
       <c r="C166">
         <v>90</v>
       </c>
@@ -40849,6 +41095,9 @@
       <c r="A167">
         <v>302</v>
       </c>
+      <c r="B167" t="s">
+        <v>143</v>
+      </c>
       <c r="C167">
         <v>5</v>
       </c>
@@ -41088,6 +41337,9 @@
       <c r="A168">
         <v>303</v>
       </c>
+      <c r="B168" t="s">
+        <v>144</v>
+      </c>
       <c r="C168">
         <v>8</v>
       </c>
@@ -41327,6 +41579,9 @@
       <c r="A169">
         <v>304</v>
       </c>
+      <c r="B169" t="s">
+        <v>145</v>
+      </c>
       <c r="C169">
         <v>20</v>
       </c>
@@ -41805,6 +42060,9 @@
       <c r="A171">
         <v>306</v>
       </c>
+      <c r="B171" t="s">
+        <v>146</v>
+      </c>
       <c r="C171">
         <v>13</v>
       </c>
@@ -42044,6 +42302,9 @@
       <c r="A172">
         <v>309</v>
       </c>
+      <c r="B172" t="s">
+        <v>147</v>
+      </c>
       <c r="C172">
         <v>9</v>
       </c>
@@ -42283,6 +42544,9 @@
       <c r="A173">
         <v>310</v>
       </c>
+      <c r="B173" t="s">
+        <v>148</v>
+      </c>
       <c r="C173">
         <v>50</v>
       </c>
@@ -42522,6 +42786,9 @@
       <c r="A174">
         <v>311</v>
       </c>
+      <c r="B174" t="s">
+        <v>149</v>
+      </c>
       <c r="C174">
         <v>5</v>
       </c>
@@ -42761,6 +43028,9 @@
       <c r="A175">
         <v>313</v>
       </c>
+      <c r="B175" t="s">
+        <v>150</v>
+      </c>
       <c r="C175">
         <v>15</v>
       </c>
@@ -43000,6 +43270,9 @@
       <c r="A176">
         <v>315</v>
       </c>
+      <c r="B176" t="s">
+        <v>151</v>
+      </c>
       <c r="C176">
         <v>6</v>
       </c>
@@ -43239,6 +43512,9 @@
       <c r="A177">
         <v>316</v>
       </c>
+      <c r="B177" t="s">
+        <v>152</v>
+      </c>
       <c r="C177">
         <v>5</v>
       </c>
@@ -43478,6 +43754,9 @@
       <c r="A178">
         <v>317</v>
       </c>
+      <c r="B178" t="s">
+        <v>153</v>
+      </c>
       <c r="C178">
         <v>11</v>
       </c>
@@ -43717,6 +43996,9 @@
       <c r="A179">
         <v>318</v>
       </c>
+      <c r="B179" t="s">
+        <v>154</v>
+      </c>
       <c r="C179">
         <v>4</v>
       </c>
@@ -43956,6 +44238,9 @@
       <c r="A180">
         <v>319</v>
       </c>
+      <c r="B180" t="s">
+        <v>155</v>
+      </c>
       <c r="C180">
         <v>34</v>
       </c>
@@ -44195,6 +44480,9 @@
       <c r="A181">
         <v>323</v>
       </c>
+      <c r="B181" t="s">
+        <v>156</v>
+      </c>
       <c r="C181">
         <v>3</v>
       </c>
@@ -44434,6 +44722,9 @@
       <c r="A182">
         <v>326</v>
       </c>
+      <c r="B182" t="s">
+        <v>157</v>
+      </c>
       <c r="C182">
         <v>3</v>
       </c>
@@ -44673,6 +44964,9 @@
       <c r="A183">
         <v>327</v>
       </c>
+      <c r="B183" t="s">
+        <v>158</v>
+      </c>
       <c r="C183">
         <v>11</v>
       </c>
@@ -44912,6 +45206,9 @@
       <c r="A184">
         <v>328</v>
       </c>
+      <c r="B184" t="s">
+        <v>159</v>
+      </c>
       <c r="C184">
         <v>4</v>
       </c>
@@ -45151,6 +45448,9 @@
       <c r="A185">
         <v>332</v>
       </c>
+      <c r="B185" t="s">
+        <v>163</v>
+      </c>
       <c r="C185">
         <v>104</v>
       </c>
@@ -45390,6 +45690,9 @@
       <c r="A186">
         <v>336</v>
       </c>
+      <c r="B186" t="s">
+        <v>164</v>
+      </c>
       <c r="C186">
         <v>19</v>
       </c>
@@ -45629,6 +45932,9 @@
       <c r="A187">
         <v>340</v>
       </c>
+      <c r="B187" t="s">
+        <v>165</v>
+      </c>
       <c r="C187">
         <v>133</v>
       </c>
@@ -45868,6 +46174,9 @@
       <c r="A188">
         <v>346</v>
       </c>
+      <c r="B188" t="s">
+        <v>160</v>
+      </c>
       <c r="C188">
         <v>16</v>
       </c>
@@ -46107,6 +46416,9 @@
       <c r="A189">
         <v>352</v>
       </c>
+      <c r="B189" t="s">
+        <v>161</v>
+      </c>
       <c r="C189">
         <v>19</v>
       </c>
@@ -46346,6 +46658,9 @@
       <c r="A190">
         <v>353</v>
       </c>
+      <c r="B190" t="s">
+        <v>162</v>
+      </c>
       <c r="C190">
         <v>6</v>
       </c>
@@ -46585,6 +46900,9 @@
       <c r="A191">
         <v>356</v>
       </c>
+      <c r="B191" t="s">
+        <v>166</v>
+      </c>
       <c r="C191">
         <v>7</v>
       </c>
@@ -46824,6 +47142,9 @@
       <c r="A192">
         <v>363</v>
       </c>
+      <c r="B192" t="s">
+        <v>167</v>
+      </c>
       <c r="C192">
         <v>4</v>
       </c>
@@ -47063,6 +47384,9 @@
       <c r="A193">
         <v>366</v>
       </c>
+      <c r="B193" t="s">
+        <v>168</v>
+      </c>
       <c r="C193">
         <v>102</v>
       </c>
@@ -47302,6 +47626,9 @@
       <c r="A194">
         <v>367</v>
       </c>
+      <c r="B194" t="s">
+        <v>169</v>
+      </c>
       <c r="C194">
         <v>12</v>
       </c>
@@ -47541,6 +47868,9 @@
       <c r="A195">
         <v>368</v>
       </c>
+      <c r="B195" t="s">
+        <v>170</v>
+      </c>
       <c r="C195">
         <v>87</v>
       </c>
@@ -47780,6 +48110,9 @@
       <c r="A196">
         <v>369</v>
       </c>
+      <c r="B196" t="s">
+        <v>171</v>
+      </c>
       <c r="C196">
         <v>6</v>
       </c>
@@ -48019,6 +48352,9 @@
       <c r="A197">
         <v>370</v>
       </c>
+      <c r="B197" t="s">
+        <v>172</v>
+      </c>
       <c r="C197">
         <v>8</v>
       </c>
@@ -48497,6 +48833,9 @@
       <c r="A199">
         <v>372</v>
       </c>
+      <c r="B199" t="s">
+        <v>173</v>
+      </c>
       <c r="C199">
         <v>8</v>
       </c>
@@ -48736,6 +49075,9 @@
       <c r="A200">
         <v>373</v>
       </c>
+      <c r="B200" t="s">
+        <v>174</v>
+      </c>
       <c r="C200">
         <v>48</v>
       </c>
@@ -48975,6 +49317,9 @@
       <c r="A201">
         <v>374</v>
       </c>
+      <c r="B201" t="s">
+        <v>175</v>
+      </c>
       <c r="C201">
         <v>25</v>
       </c>
@@ -49214,6 +49559,9 @@
       <c r="A202">
         <v>375</v>
       </c>
+      <c r="B202" t="s">
+        <v>177</v>
+      </c>
       <c r="C202">
         <v>10</v>
       </c>
@@ -49453,6 +49801,9 @@
       <c r="A203">
         <v>376</v>
       </c>
+      <c r="B203" t="s">
+        <v>176</v>
+      </c>
       <c r="C203">
         <v>10</v>
       </c>
@@ -49692,6 +50043,9 @@
       <c r="A204">
         <v>377</v>
       </c>
+      <c r="B204" t="s">
+        <v>178</v>
+      </c>
       <c r="C204">
         <v>12</v>
       </c>
@@ -49931,6 +50285,9 @@
       <c r="A205">
         <v>378</v>
       </c>
+      <c r="B205" t="s">
+        <v>179</v>
+      </c>
       <c r="C205">
         <v>60</v>
       </c>
@@ -50170,6 +50527,9 @@
       <c r="A206">
         <v>379</v>
       </c>
+      <c r="B206" t="s">
+        <v>180</v>
+      </c>
       <c r="C206">
         <v>216</v>
       </c>
@@ -50409,6 +50769,9 @@
       <c r="A207">
         <v>381</v>
       </c>
+      <c r="B207" t="s">
+        <v>178</v>
+      </c>
       <c r="C207">
         <v>18</v>
       </c>
@@ -50648,6 +51011,9 @@
       <c r="A208">
         <v>383</v>
       </c>
+      <c r="B208" t="s">
+        <v>181</v>
+      </c>
       <c r="C208">
         <v>4</v>
       </c>
@@ -50887,6 +51253,9 @@
       <c r="A209">
         <v>385</v>
       </c>
+      <c r="B209" t="s">
+        <v>182</v>
+      </c>
       <c r="C209">
         <v>10</v>
       </c>
@@ -51126,6 +51495,9 @@
       <c r="A210">
         <v>386</v>
       </c>
+      <c r="B210" t="s">
+        <v>183</v>
+      </c>
       <c r="C210">
         <v>8</v>
       </c>
@@ -51365,6 +51737,9 @@
       <c r="A211">
         <v>387</v>
       </c>
+      <c r="B211" t="s">
+        <v>133</v>
+      </c>
       <c r="C211">
         <v>8</v>
       </c>
@@ -51604,6 +51979,9 @@
       <c r="A212">
         <v>388</v>
       </c>
+      <c r="B212" t="s">
+        <v>184</v>
+      </c>
       <c r="C212">
         <v>28</v>
       </c>
@@ -51843,6 +52221,9 @@
       <c r="A213">
         <v>389</v>
       </c>
+      <c r="B213" t="s">
+        <v>185</v>
+      </c>
       <c r="C213">
         <v>111</v>
       </c>
@@ -52082,6 +52463,9 @@
       <c r="A214">
         <v>390</v>
       </c>
+      <c r="B214" t="s">
+        <v>186</v>
+      </c>
       <c r="C214">
         <v>21</v>
       </c>
@@ -52321,6 +52705,9 @@
       <c r="A215">
         <v>391</v>
       </c>
+      <c r="B215" t="s">
+        <v>187</v>
+      </c>
       <c r="C215">
         <v>11</v>
       </c>
@@ -52560,6 +52947,9 @@
       <c r="A216">
         <v>393</v>
       </c>
+      <c r="B216" t="s">
+        <v>188</v>
+      </c>
       <c r="C216">
         <v>9</v>
       </c>
@@ -52799,6 +53189,9 @@
       <c r="A217">
         <v>396</v>
       </c>
+      <c r="B217" t="s">
+        <v>176</v>
+      </c>
       <c r="C217">
         <v>13</v>
       </c>
@@ -53277,6 +53670,9 @@
       <c r="A219">
         <v>399</v>
       </c>
+      <c r="B219" t="s">
+        <v>189</v>
+      </c>
       <c r="C219">
         <v>6</v>
       </c>
@@ -53516,6 +53912,9 @@
       <c r="A220">
         <v>400</v>
       </c>
+      <c r="B220" t="s">
+        <v>190</v>
+      </c>
       <c r="C220">
         <v>70</v>
       </c>
@@ -53755,6 +54154,9 @@
       <c r="A221">
         <v>401</v>
       </c>
+      <c r="B221" t="s">
+        <v>191</v>
+      </c>
       <c r="C221">
         <v>3</v>
       </c>
@@ -53994,6 +54396,9 @@
       <c r="A222">
         <v>407</v>
       </c>
+      <c r="B222" t="s">
+        <v>192</v>
+      </c>
       <c r="C222">
         <v>14</v>
       </c>
@@ -54233,6 +54638,9 @@
       <c r="A223">
         <v>408</v>
       </c>
+      <c r="B223" t="s">
+        <v>193</v>
+      </c>
       <c r="C223">
         <v>6</v>
       </c>
@@ -54472,6 +54880,9 @@
       <c r="A224">
         <v>409</v>
       </c>
+      <c r="B224" t="s">
+        <v>194</v>
+      </c>
       <c r="C224">
         <v>3</v>
       </c>
@@ -54711,6 +55122,9 @@
       <c r="A225">
         <v>410</v>
       </c>
+      <c r="B225" t="s">
+        <v>195</v>
+      </c>
       <c r="C225">
         <v>12</v>
       </c>
@@ -54950,6 +55364,9 @@
       <c r="A226">
         <v>413</v>
       </c>
+      <c r="B226" t="s">
+        <v>191</v>
+      </c>
       <c r="C226">
         <v>12</v>
       </c>
@@ -55428,6 +55845,9 @@
       <c r="A228">
         <v>416</v>
       </c>
+      <c r="B228" t="s">
+        <v>196</v>
+      </c>
       <c r="C228">
         <v>3</v>
       </c>
@@ -55667,6 +56087,9 @@
       <c r="A229">
         <v>417</v>
       </c>
+      <c r="B229" t="s">
+        <v>173</v>
+      </c>
       <c r="C229">
         <v>5</v>
       </c>
@@ -55906,6 +56329,9 @@
       <c r="A230">
         <v>418</v>
       </c>
+      <c r="B230" t="s">
+        <v>204</v>
+      </c>
       <c r="C230">
         <v>8</v>
       </c>
@@ -56145,6 +56571,9 @@
       <c r="A231">
         <v>419</v>
       </c>
+      <c r="B231" t="s">
+        <v>197</v>
+      </c>
       <c r="C231">
         <v>19</v>
       </c>
@@ -56384,6 +56813,9 @@
       <c r="A232">
         <v>421</v>
       </c>
+      <c r="B232" t="s">
+        <v>198</v>
+      </c>
       <c r="C232">
         <v>4</v>
       </c>
@@ -56623,6 +57055,9 @@
       <c r="A233">
         <v>425</v>
       </c>
+      <c r="B233" t="s">
+        <v>199</v>
+      </c>
       <c r="C233">
         <v>4</v>
       </c>
@@ -56862,6 +57297,9 @@
       <c r="A234">
         <v>427</v>
       </c>
+      <c r="B234" t="s">
+        <v>200</v>
+      </c>
       <c r="C234">
         <v>8</v>
       </c>
@@ -57101,6 +57539,9 @@
       <c r="A235">
         <v>428</v>
       </c>
+      <c r="B235" t="s">
+        <v>201</v>
+      </c>
       <c r="C235">
         <v>12</v>
       </c>
@@ -57340,6 +57781,9 @@
       <c r="A236">
         <v>429</v>
       </c>
+      <c r="B236" t="s">
+        <v>202</v>
+      </c>
       <c r="C236">
         <v>15</v>
       </c>
@@ -57579,6 +58023,9 @@
       <c r="A237">
         <v>430</v>
       </c>
+      <c r="B237" t="s">
+        <v>203</v>
+      </c>
       <c r="C237">
         <v>6</v>
       </c>
@@ -57818,6 +58265,9 @@
       <c r="A238">
         <v>431</v>
       </c>
+      <c r="B238" t="s">
+        <v>205</v>
+      </c>
       <c r="C238">
         <v>4</v>
       </c>
@@ -58057,6 +58507,9 @@
       <c r="A239">
         <v>432</v>
       </c>
+      <c r="B239" t="s">
+        <v>206</v>
+      </c>
       <c r="C239">
         <v>4</v>
       </c>
@@ -58296,6 +58749,9 @@
       <c r="A240">
         <v>433</v>
       </c>
+      <c r="B240" t="s">
+        <v>207</v>
+      </c>
       <c r="C240">
         <v>3</v>
       </c>
@@ -58535,6 +58991,9 @@
       <c r="A241">
         <v>436</v>
       </c>
+      <c r="B241" t="s">
+        <v>208</v>
+      </c>
       <c r="C241">
         <v>10</v>
       </c>
@@ -59013,6 +59472,9 @@
       <c r="A243">
         <v>440</v>
       </c>
+      <c r="B243" t="s">
+        <v>209</v>
+      </c>
       <c r="C243">
         <v>5</v>
       </c>
@@ -59252,6 +59714,9 @@
       <c r="A244">
         <v>441</v>
       </c>
+      <c r="B244" t="s">
+        <v>210</v>
+      </c>
       <c r="C244">
         <v>4</v>
       </c>
@@ -59491,6 +59956,9 @@
       <c r="A245">
         <v>442</v>
       </c>
+      <c r="B245" t="s">
+        <v>211</v>
+      </c>
       <c r="C245">
         <v>6</v>
       </c>
@@ -59730,6 +60198,9 @@
       <c r="A246">
         <v>443</v>
       </c>
+      <c r="B246" t="s">
+        <v>212</v>
+      </c>
       <c r="C246">
         <v>6</v>
       </c>
@@ -59969,6 +60440,9 @@
       <c r="A247">
         <v>451</v>
       </c>
+      <c r="B247" t="s">
+        <v>184</v>
+      </c>
       <c r="C247">
         <v>32</v>
       </c>
@@ -60208,6 +60682,9 @@
       <c r="A248">
         <v>453</v>
       </c>
+      <c r="B248" t="s">
+        <v>208</v>
+      </c>
       <c r="C248">
         <v>3</v>
       </c>
@@ -60447,6 +60924,9 @@
       <c r="A249">
         <v>454</v>
       </c>
+      <c r="B249" t="s">
+        <v>213</v>
+      </c>
       <c r="C249">
         <v>3</v>
       </c>
@@ -60685,6 +61165,9 @@
     <row r="250" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>460</v>
+      </c>
+      <c r="B250" t="s">
+        <v>214</v>
       </c>
       <c r="C250">
         <v>4</v>
